--- a/03_ips_clean/10_IPS_COMPLETE.xlsx
+++ b/03_ips_clean/10_IPS_COMPLETE.xlsx
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>70.1007591759536</v>
+        <v>65.9807230309219</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>63.5572380049204</v>
+        <v>66.5289310962143</v>
       </c>
     </row>
     <row r="4">
@@ -633,7 +633,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>52.3094728289426</v>
+        <v>50.0543895672622</v>
       </c>
     </row>
     <row r="5">
@@ -650,7 +650,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>61.9891566699389</v>
+        <v>60.8546812314661</v>
       </c>
     </row>
     <row r="6">
@@ -667,7 +667,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>70.5291146529859</v>
+        <v>66.6483305905023</v>
       </c>
     </row>
     <row r="7">
@@ -684,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>62.8371457406949</v>
+        <v>65.9115103658542</v>
       </c>
     </row>
     <row r="8">
@@ -701,7 +701,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>53.085410510034</v>
+        <v>51.0985619911541</v>
       </c>
     </row>
     <row r="9">
@@ -718,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>62.150556967905</v>
+        <v>61.2194676491702</v>
       </c>
     </row>
     <row r="10">
@@ -735,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>70.6937429930234</v>
+        <v>67.1473606172223</v>
       </c>
     </row>
     <row r="11">
@@ -752,7 +752,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>61.9914327513309</v>
+        <v>65.3785115841933</v>
       </c>
     </row>
     <row r="12">
@@ -769,7 +769,7 @@
         <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>52.9632702114381</v>
+        <v>52.4129669321921</v>
       </c>
     </row>
     <row r="13">
@@ -786,7 +786,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>61.8828153185975</v>
+        <v>61.6462797112026</v>
       </c>
     </row>
     <row r="14">
@@ -803,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>69.9005656898507</v>
+        <v>66.2966029913639</v>
       </c>
     </row>
     <row r="15">
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>62.9530344564912</v>
+        <v>66.2670550771273</v>
       </c>
     </row>
     <row r="16">
@@ -837,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>54.2941675327771</v>
+        <v>56.5626521406369</v>
       </c>
     </row>
     <row r="17">
@@ -854,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>62.382589226373</v>
+        <v>63.0421034030427</v>
       </c>
     </row>
     <row r="18">
@@ -871,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>70.1205362465748</v>
+        <v>66.6504596097719</v>
       </c>
     </row>
     <row r="19">
@@ -888,7 +888,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>62.1967455638117</v>
+        <v>65.880398296791</v>
       </c>
     </row>
     <row r="20">
@@ -905,7 +905,7 @@
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>55.5266010989182</v>
+        <v>57.0488663411566</v>
       </c>
     </row>
     <row r="21">
@@ -922,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>62.6146276364349</v>
+        <v>63.1932414159065</v>
       </c>
     </row>
     <row r="22">
@@ -939,7 +939,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>69.9233695421601</v>
+        <v>68.4643894469527</v>
       </c>
     </row>
     <row r="23">
@@ -956,7 +956,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>57.2813378499409</v>
+        <v>60.5419450002076</v>
       </c>
     </row>
     <row r="24">
@@ -973,7 +973,7 @@
         <v>9</v>
       </c>
       <c r="E24" t="n">
-        <v>56.5662772849498</v>
+        <v>59.2759778357967</v>
       </c>
     </row>
     <row r="25">
@@ -990,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>61.2569948923502</v>
+        <v>62.7607707609857</v>
       </c>
     </row>
     <row r="26">
@@ -1007,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>81.6795278717745</v>
+        <v>80.7364421843257</v>
       </c>
     </row>
     <row r="27">
@@ -1024,7 +1024,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>70.2131436294094</v>
+        <v>69.5357234243354</v>
       </c>
     </row>
     <row r="28">
@@ -1041,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>56.034482418853</v>
+        <v>53.9910374768901</v>
       </c>
     </row>
     <row r="29">
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>69.3090513066789</v>
+        <v>68.0877343618504</v>
       </c>
     </row>
     <row r="30">
@@ -1075,7 +1075,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>82.7345637837645</v>
+        <v>81.8944598943494</v>
       </c>
     </row>
     <row r="31">
@@ -1092,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>70.7067984964095</v>
+        <v>69.5600779030043</v>
       </c>
     </row>
     <row r="32">
@@ -1109,7 +1109,7 @@
         <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>56.6391620662735</v>
+        <v>53.9533872842193</v>
       </c>
     </row>
     <row r="33">
@@ -1126,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>70.0268414488158</v>
+        <v>68.4693083605243</v>
       </c>
     </row>
     <row r="34">
@@ -1143,7 +1143,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>82.4480806997479</v>
+        <v>81.5806768656836</v>
       </c>
     </row>
     <row r="35">
@@ -1160,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>68.7965606387527</v>
+        <v>68.5810458865765</v>
       </c>
     </row>
     <row r="36">
@@ -1177,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>56.1262926530666</v>
+        <v>54.7323474956311</v>
       </c>
     </row>
     <row r="37">
@@ -1194,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>69.1236446638557</v>
+        <v>68.2980234159637</v>
       </c>
     </row>
     <row r="38">
@@ -1211,7 +1211,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>80.8417101262113</v>
+        <v>79.8060145853586</v>
       </c>
     </row>
     <row r="39">
@@ -1228,7 +1228,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>71.6064460288121</v>
+        <v>71.2989696983998</v>
       </c>
     </row>
     <row r="40">
@@ -1245,7 +1245,7 @@
         <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>58.1665386349529</v>
+        <v>61.5498697491339</v>
       </c>
     </row>
     <row r="41">
@@ -1262,7 +1262,7 @@
         <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>70.2048982633254</v>
+        <v>70.8849513442974</v>
       </c>
     </row>
     <row r="42">
@@ -1279,7 +1279,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>81.1122212032221</v>
+        <v>79.9338296818985</v>
       </c>
     </row>
     <row r="43">
@@ -1296,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>71.0412858230598</v>
+        <v>71.3359631671105</v>
       </c>
     </row>
     <row r="44">
@@ -1313,7 +1313,7 @@
         <v>9</v>
       </c>
       <c r="E44" t="n">
-        <v>58.8673769657323</v>
+        <v>62.1083714883968</v>
       </c>
     </row>
     <row r="45">
@@ -1330,7 +1330,7 @@
         <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>70.3402946640047</v>
+        <v>71.1260547791353</v>
       </c>
     </row>
     <row r="46">
@@ -1347,7 +1347,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>81.0972426582384</v>
+        <v>79.8782044909395</v>
       </c>
     </row>
     <row r="47">
@@ -1364,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>69.5446006304658</v>
+        <v>70.240395819854</v>
       </c>
     </row>
     <row r="48">
@@ -1381,7 +1381,7 @@
         <v>9</v>
       </c>
       <c r="E48" t="n">
-        <v>60.2103202479707</v>
+        <v>65.1500767231105</v>
       </c>
     </row>
     <row r="49">
@@ -1398,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>70.284054512225</v>
+        <v>71.756225677968</v>
       </c>
     </row>
     <row r="50">
@@ -1415,7 +1415,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>74.512358880328</v>
+        <v>73.1660804333569</v>
       </c>
     </row>
     <row r="51">
@@ -1432,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>71.3216249306694</v>
+        <v>74.4966988386492</v>
       </c>
     </row>
     <row r="52">
@@ -1449,7 +1449,7 @@
         <v>9</v>
       </c>
       <c r="E52" t="n">
-        <v>56.2393043159271</v>
+        <v>53.6763606980892</v>
       </c>
     </row>
     <row r="53">
@@ -1466,7 +1466,7 @@
         <v>5</v>
       </c>
       <c r="E53" t="n">
-        <v>67.3577627089749</v>
+        <v>67.1130466566985</v>
       </c>
     </row>
     <row r="54">
@@ -1483,7 +1483,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>76.6849907217539</v>
+        <v>75.476507782749</v>
       </c>
     </row>
     <row r="55">
@@ -1500,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>70.7322987548671</v>
+        <v>74.0087640867848</v>
       </c>
     </row>
     <row r="56">
@@ -1517,7 +1517,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="n">
-        <v>57.4802516885166</v>
+        <v>55.6784176386497</v>
       </c>
     </row>
     <row r="57">
@@ -1534,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>68.2991803883792</v>
+        <v>68.3878965027278</v>
       </c>
     </row>
     <row r="58">
@@ -1551,7 +1551,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>73.5860921481504</v>
+        <v>72.5128907376251</v>
       </c>
     </row>
     <row r="59">
@@ -1568,7 +1568,7 @@
         <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>69.8745205907638</v>
+        <v>72.847271422954</v>
       </c>
     </row>
     <row r="60">
@@ -1585,7 +1585,7 @@
         <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>56.7216918688537</v>
+        <v>56.4814480619458</v>
       </c>
     </row>
     <row r="61">
@@ -1602,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="E61" t="n">
-        <v>66.727434869256</v>
+        <v>67.2805367408416</v>
       </c>
     </row>
     <row r="62">
@@ -1619,7 +1619,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>70.4615848792421</v>
+        <v>69.2321781118223</v>
       </c>
     </row>
     <row r="63">
@@ -1636,7 +1636,7 @@
         <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>69.8458004055357</v>
+        <v>73.2360418883285</v>
       </c>
     </row>
     <row r="64">
@@ -1653,7 +1653,7 @@
         <v>9</v>
       </c>
       <c r="E64" t="n">
-        <v>57.6470187540434</v>
+        <v>60.7515009757568</v>
       </c>
     </row>
     <row r="65">
@@ -1670,7 +1670,7 @@
         <v>5</v>
       </c>
       <c r="E65" t="n">
-        <v>65.9848013462738</v>
+        <v>67.7399069919692</v>
       </c>
     </row>
     <row r="66">
@@ -1687,7 +1687,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>70.8016936999901</v>
+        <v>69.6395737224438</v>
       </c>
     </row>
     <row r="67">
@@ -1704,7 +1704,7 @@
         <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>69.177954058262</v>
+        <v>73.2066583709357</v>
       </c>
     </row>
     <row r="68">
@@ -1721,7 +1721,7 @@
         <v>9</v>
       </c>
       <c r="E68" t="n">
-        <v>58.3782880023591</v>
+        <v>61.4278913337493</v>
       </c>
     </row>
     <row r="69">
@@ -1738,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="E69" t="n">
-        <v>66.1193119202037</v>
+        <v>68.0913744757096</v>
       </c>
     </row>
     <row r="70">
@@ -1755,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>71.1848052843678</v>
+        <v>69.4678846093493</v>
       </c>
     </row>
     <row r="71">
@@ -1772,7 +1772,7 @@
         <v>8</v>
       </c>
       <c r="E71" t="n">
-        <v>63.1430384733829</v>
+        <v>68.9757877512965</v>
       </c>
     </row>
     <row r="72">
@@ -1789,7 +1789,7 @@
         <v>9</v>
       </c>
       <c r="E72" t="n">
-        <v>60.604368816207</v>
+        <v>65.9054255213463</v>
       </c>
     </row>
     <row r="73">
@@ -1806,7 +1806,7 @@
         <v>5</v>
       </c>
       <c r="E73" t="n">
-        <v>64.9774041913192</v>
+        <v>68.116365960664</v>
       </c>
     </row>
     <row r="74">
@@ -1823,7 +1823,7 @@
         <v>7</v>
       </c>
       <c r="E74" t="n">
-        <v>63.4185846672729</v>
+        <v>62.1365031792519</v>
       </c>
     </row>
     <row r="75">
@@ -1840,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>73.546844560131</v>
+        <v>76.374042207033</v>
       </c>
     </row>
     <row r="76">
@@ -1857,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="E76" t="n">
-        <v>54.5826152437233</v>
+        <v>53.7424412057329</v>
       </c>
     </row>
     <row r="77">
@@ -1874,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>63.8493481570424</v>
+        <v>64.084328864006</v>
       </c>
     </row>
     <row r="78">
@@ -1891,7 +1891,7 @@
         <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>65.2062794507435</v>
+        <v>63.8607181420148</v>
       </c>
     </row>
     <row r="79">
@@ -1908,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>71.2867471369702</v>
+        <v>74.1698176692435</v>
       </c>
     </row>
     <row r="80">
@@ -1925,7 +1925,7 @@
         <v>9</v>
       </c>
       <c r="E80" t="n">
-        <v>55.2616593052271</v>
+        <v>55.4046943627445</v>
       </c>
     </row>
     <row r="81">
@@ -1942,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>63.9182286309803</v>
+        <v>64.4784100580009</v>
       </c>
     </row>
     <row r="82">
@@ -1959,7 +1959,7 @@
         <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>57.0145666353422</v>
+        <v>55.0410619918794</v>
       </c>
     </row>
     <row r="83">
@@ -1976,7 +1976,7 @@
         <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>71.3685348074931</v>
+        <v>74.2669847927122</v>
       </c>
     </row>
     <row r="84">
@@ -1993,7 +1993,7 @@
         <v>9</v>
       </c>
       <c r="E84" t="n">
-        <v>55.6410741303209</v>
+        <v>57.7010174283867</v>
       </c>
     </row>
     <row r="85">
@@ -2010,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="E85" t="n">
-        <v>61.3413918577187</v>
+        <v>62.3363547376594</v>
       </c>
     </row>
     <row r="86">
@@ -2027,7 +2027,7 @@
         <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>59.6178437433428</v>
+        <v>57.6823761600597</v>
       </c>
     </row>
     <row r="87">
@@ -2044,7 +2044,7 @@
         <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>69.157201998447</v>
+        <v>72.6672989797922</v>
       </c>
     </row>
     <row r="88">
@@ -2061,7 +2061,7 @@
         <v>9</v>
       </c>
       <c r="E88" t="n">
-        <v>57.8686306296042</v>
+        <v>62.3649439470488</v>
       </c>
     </row>
     <row r="89">
@@ -2078,7 +2078,7 @@
         <v>5</v>
       </c>
       <c r="E89" t="n">
-        <v>62.2145587904647</v>
+        <v>64.2382063623002</v>
       </c>
     </row>
     <row r="90">
@@ -2095,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>59.7360091592721</v>
+        <v>58.0257541858845</v>
       </c>
     </row>
     <row r="91">
@@ -2112,7 +2112,7 @@
         <v>8</v>
       </c>
       <c r="E91" t="n">
-        <v>68.3098857546042</v>
+        <v>72.1770772437195</v>
       </c>
     </row>
     <row r="92">
@@ -2129,7 +2129,7 @@
         <v>9</v>
       </c>
       <c r="E92" t="n">
-        <v>58.9324372887637</v>
+        <v>62.4703760134528</v>
       </c>
     </row>
     <row r="93">
@@ -2146,7 +2146,7 @@
         <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>62.3261107342133</v>
+        <v>64.2244024810189</v>
       </c>
     </row>
     <row r="94">
@@ -2163,7 +2163,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>59.2193674379261</v>
+        <v>57.6462864178564</v>
       </c>
     </row>
     <row r="95">
@@ -2180,7 +2180,7 @@
         <v>8</v>
       </c>
       <c r="E95" t="n">
-        <v>67.7412239607974</v>
+        <v>71.4335915780717</v>
       </c>
     </row>
     <row r="96">
@@ -2197,7 +2197,7 @@
         <v>9</v>
       </c>
       <c r="E96" t="n">
-        <v>58.7635146298215</v>
+        <v>63.2141612468543</v>
       </c>
     </row>
     <row r="97">
@@ -2214,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="E97" t="n">
-        <v>61.9080353428483</v>
+        <v>64.0980130809275</v>
       </c>
     </row>
     <row r="98">
@@ -2231,7 +2231,7 @@
         <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>73.9443214572625</v>
+        <v>68.6648820899063</v>
       </c>
     </row>
     <row r="99">
@@ -2248,7 +2248,7 @@
         <v>8</v>
       </c>
       <c r="E99" t="n">
-        <v>61.4296679332872</v>
+        <v>63.8579032642747</v>
       </c>
     </row>
     <row r="100">
@@ -2265,7 +2265,7 @@
         <v>9</v>
       </c>
       <c r="E100" t="n">
-        <v>52.7438710987656</v>
+        <v>51.3777652992979</v>
       </c>
     </row>
     <row r="101">
@@ -2282,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="E101" t="n">
-        <v>62.7059534964384</v>
+        <v>61.3001835511596</v>
       </c>
     </row>
     <row r="102">
@@ -2299,7 +2299,7 @@
         <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>76.5006166786843</v>
+        <v>71.1585888899038</v>
       </c>
     </row>
     <row r="103">
@@ -2316,7 +2316,7 @@
         <v>8</v>
       </c>
       <c r="E103" t="n">
-        <v>57.2358225315104</v>
+        <v>60.0462488054446</v>
       </c>
     </row>
     <row r="104">
@@ -2333,7 +2333,7 @@
         <v>9</v>
       </c>
       <c r="E104" t="n">
-        <v>53.3581733387238</v>
+        <v>52.4055312870873</v>
       </c>
     </row>
     <row r="105">
@@ -2350,7 +2350,7 @@
         <v>5</v>
       </c>
       <c r="E105" t="n">
-        <v>62.3648708496395</v>
+        <v>61.2034563274785</v>
       </c>
     </row>
     <row r="106">
@@ -2367,7 +2367,7 @@
         <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>77.1874366616036</v>
+        <v>71.4343662173772</v>
       </c>
     </row>
     <row r="107">
@@ -2384,7 +2384,7 @@
         <v>8</v>
       </c>
       <c r="E107" t="n">
-        <v>58.6910820326262</v>
+        <v>61.4624782686777</v>
       </c>
     </row>
     <row r="108">
@@ -2401,7 +2401,7 @@
         <v>9</v>
       </c>
       <c r="E108" t="n">
-        <v>52.4491797321417</v>
+        <v>52.5316231635413</v>
       </c>
     </row>
     <row r="109">
@@ -2418,7 +2418,7 @@
         <v>5</v>
       </c>
       <c r="E109" t="n">
-        <v>62.7758994754571</v>
+        <v>61.8094892165321</v>
       </c>
     </row>
     <row r="110">
@@ -2435,7 +2435,7 @@
         <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>75.1385526399881</v>
+        <v>69.1859332154022</v>
       </c>
     </row>
     <row r="111">
@@ -2452,7 +2452,7 @@
         <v>8</v>
       </c>
       <c r="E111" t="n">
-        <v>57.5684079301962</v>
+        <v>60.1290181841121</v>
       </c>
     </row>
     <row r="112">
@@ -2469,7 +2469,7 @@
         <v>9</v>
       </c>
       <c r="E112" t="n">
-        <v>53.6189866497351</v>
+        <v>55.4331452362</v>
       </c>
     </row>
     <row r="113">
@@ -2486,7 +2486,7 @@
         <v>5</v>
       </c>
       <c r="E113" t="n">
-        <v>62.1086490733065</v>
+        <v>61.5826988785714</v>
       </c>
     </row>
     <row r="114">
@@ -2503,7 +2503,7 @@
         <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>75.5234365279979</v>
+        <v>69.4376188204052</v>
       </c>
     </row>
     <row r="115">
@@ -2520,7 +2520,7 @@
         <v>8</v>
       </c>
       <c r="E115" t="n">
-        <v>56.4202397508313</v>
+        <v>58.5889464384899</v>
       </c>
     </row>
     <row r="116">
@@ -2537,7 +2537,7 @@
         <v>9</v>
       </c>
       <c r="E116" t="n">
-        <v>54.3904131931676</v>
+        <v>55.4132337714716</v>
       </c>
     </row>
     <row r="117">
@@ -2554,7 +2554,7 @@
         <v>5</v>
       </c>
       <c r="E117" t="n">
-        <v>62.1113631573323</v>
+        <v>61.1465996767889</v>
       </c>
     </row>
     <row r="118">
@@ -2571,7 +2571,7 @@
         <v>7</v>
       </c>
       <c r="E118" t="n">
-        <v>78.3857766719269</v>
+        <v>73.0846949041287</v>
       </c>
     </row>
     <row r="119">
@@ -2588,7 +2588,7 @@
         <v>8</v>
       </c>
       <c r="E119" t="n">
-        <v>53.237819334507</v>
+        <v>52.870754967721</v>
       </c>
     </row>
     <row r="120">
@@ -2605,7 +2605,7 @@
         <v>9</v>
       </c>
       <c r="E120" t="n">
-        <v>56.8232119686288</v>
+        <v>60.6441376832912</v>
       </c>
     </row>
     <row r="121">
@@ -2622,7 +2622,7 @@
         <v>5</v>
       </c>
       <c r="E121" t="n">
-        <v>62.8156026583542</v>
+        <v>62.1998625183803</v>
       </c>
     </row>
     <row r="122">
@@ -2639,7 +2639,7 @@
         <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>66.9330979409582</v>
+        <v>64.0652759856736</v>
       </c>
     </row>
     <row r="123">
@@ -2656,7 +2656,7 @@
         <v>8</v>
       </c>
       <c r="E123" t="n">
-        <v>62.5437330097537</v>
+        <v>64.8779509546318</v>
       </c>
     </row>
     <row r="124">
@@ -2673,7 +2673,7 @@
         <v>9</v>
       </c>
       <c r="E124" t="n">
-        <v>55.1205919121335</v>
+        <v>52.4590873237529</v>
       </c>
     </row>
     <row r="125">
@@ -2690,7 +2690,7 @@
         <v>5</v>
       </c>
       <c r="E125" t="n">
-        <v>61.5324742876152</v>
+        <v>60.4674380880194</v>
       </c>
     </row>
     <row r="126">
@@ -2707,7 +2707,7 @@
         <v>7</v>
       </c>
       <c r="E126" t="n">
-        <v>75.7099463691436</v>
+        <v>74.436473074623</v>
       </c>
     </row>
     <row r="127">
@@ -2724,7 +2724,7 @@
         <v>8</v>
       </c>
       <c r="E127" t="n">
-        <v>63.1438184844761</v>
+        <v>65.3577419121018</v>
       </c>
     </row>
     <row r="128">
@@ -2741,7 +2741,7 @@
         <v>9</v>
       </c>
       <c r="E128" t="n">
-        <v>56.9784015331565</v>
+        <v>55.479972074375</v>
       </c>
     </row>
     <row r="129">
@@ -2758,7 +2758,7 @@
         <v>5</v>
       </c>
       <c r="E129" t="n">
-        <v>65.277388795592</v>
+        <v>65.0913956870333</v>
       </c>
     </row>
     <row r="130">
@@ -2775,7 +2775,7 @@
         <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>76.7168444989756</v>
+        <v>75.2591445434702</v>
       </c>
     </row>
     <row r="131">
@@ -2792,7 +2792,7 @@
         <v>8</v>
       </c>
       <c r="E131" t="n">
-        <v>61.4871843605806</v>
+        <v>64.2209142503949</v>
       </c>
     </row>
     <row r="132">
@@ -2809,7 +2809,7 @@
         <v>9</v>
       </c>
       <c r="E132" t="n">
-        <v>55.7589675532891</v>
+        <v>56.3775767498045</v>
       </c>
     </row>
     <row r="133">
@@ -2826,7 +2826,7 @@
         <v>5</v>
       </c>
       <c r="E133" t="n">
-        <v>64.6543321376151</v>
+        <v>65.2858785145565</v>
       </c>
     </row>
     <row r="134">
@@ -2843,7 +2843,7 @@
         <v>7</v>
       </c>
       <c r="E134" t="n">
-        <v>76.0542338596686</v>
+        <v>74.509172442547</v>
       </c>
     </row>
     <row r="135">
@@ -2860,7 +2860,7 @@
         <v>8</v>
       </c>
       <c r="E135" t="n">
-        <v>63.6126556135568</v>
+        <v>65.4979809541404</v>
       </c>
     </row>
     <row r="136">
@@ -2877,7 +2877,7 @@
         <v>9</v>
       </c>
       <c r="E136" t="n">
-        <v>57.1971177927994</v>
+        <v>59.9761241121599</v>
       </c>
     </row>
     <row r="137">
@@ -2894,7 +2894,7 @@
         <v>5</v>
       </c>
       <c r="E137" t="n">
-        <v>65.6213357553416</v>
+        <v>66.6610925029491</v>
       </c>
     </row>
     <row r="138">
@@ -2911,7 +2911,7 @@
         <v>7</v>
       </c>
       <c r="E138" t="n">
-        <v>76.3205420452399</v>
+        <v>74.6688147486159</v>
       </c>
     </row>
     <row r="139">
@@ -2928,7 +2928,7 @@
         <v>8</v>
       </c>
       <c r="E139" t="n">
-        <v>62.3030977820907</v>
+        <v>64.4502993909022</v>
       </c>
     </row>
     <row r="140">
@@ -2945,7 +2945,7 @@
         <v>9</v>
       </c>
       <c r="E140" t="n">
-        <v>59.5575713787441</v>
+        <v>61.8809222123498</v>
       </c>
     </row>
     <row r="141">
@@ -2962,7 +2962,7 @@
         <v>5</v>
       </c>
       <c r="E141" t="n">
-        <v>66.0604037353583</v>
+        <v>67.0000121172893</v>
       </c>
     </row>
     <row r="142">
@@ -2979,7 +2979,7 @@
         <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>76.9034055461801</v>
+        <v>75.4848802341961</v>
       </c>
     </row>
     <row r="143">
@@ -2996,7 +2996,7 @@
         <v>8</v>
       </c>
       <c r="E143" t="n">
-        <v>57.6231495949964</v>
+        <v>58.9697561303434</v>
       </c>
     </row>
     <row r="144">
@@ -3013,7 +3013,7 @@
         <v>9</v>
       </c>
       <c r="E144" t="n">
-        <v>60.3677719233987</v>
+        <v>64.086849795253</v>
       </c>
     </row>
     <row r="145">
@@ -3030,7 +3030,7 @@
         <v>5</v>
       </c>
       <c r="E145" t="n">
-        <v>64.9647756881917</v>
+        <v>66.1804953865975</v>
       </c>
     </row>
     <row r="146">
@@ -3047,7 +3047,7 @@
         <v>7</v>
       </c>
       <c r="E146" t="n">
-        <v>59.8599397478498</v>
+        <v>59.4124668626393</v>
       </c>
     </row>
     <row r="147">
@@ -3064,7 +3064,7 @@
         <v>8</v>
       </c>
       <c r="E147" t="n">
-        <v>64.6598884812886</v>
+        <v>67.1656714872813</v>
       </c>
     </row>
     <row r="148">
@@ -3081,7 +3081,7 @@
         <v>9</v>
       </c>
       <c r="E148" t="n">
-        <v>56.175921936262</v>
+        <v>56.1986659196721</v>
       </c>
     </row>
     <row r="149">
@@ -3098,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="E149" t="n">
-        <v>60.2319167218001</v>
+        <v>60.9256014231976</v>
       </c>
     </row>
     <row r="150">
@@ -3115,7 +3115,7 @@
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>73.1952794779382</v>
+        <v>70.7285636438847</v>
       </c>
     </row>
     <row r="151">
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="E151" t="n">
-        <v>64.4904674065651</v>
+        <v>67.8073005635331</v>
       </c>
     </row>
     <row r="152">
@@ -3149,7 +3149,7 @@
         <v>9</v>
       </c>
       <c r="E152" t="n">
-        <v>55.8792772773</v>
+        <v>55.5514128022529</v>
       </c>
     </row>
     <row r="153">
@@ -3166,7 +3166,7 @@
         <v>5</v>
       </c>
       <c r="E153" t="n">
-        <v>64.5216747206011</v>
+        <v>64.6957590032236</v>
       </c>
     </row>
     <row r="154">
@@ -3183,7 +3183,7 @@
         <v>7</v>
       </c>
       <c r="E154" t="n">
-        <v>74.2835799634004</v>
+        <v>72.1416915719657</v>
       </c>
     </row>
     <row r="155">
@@ -3200,7 +3200,7 @@
         <v>8</v>
       </c>
       <c r="E155" t="n">
-        <v>64.0957696655247</v>
+        <v>67.463551166631</v>
       </c>
     </row>
     <row r="156">
@@ -3217,7 +3217,7 @@
         <v>9</v>
       </c>
       <c r="E156" t="n">
-        <v>55.1099807614227</v>
+        <v>55.0438575994034</v>
       </c>
     </row>
     <row r="157">
@@ -3234,7 +3234,7 @@
         <v>5</v>
       </c>
       <c r="E157" t="n">
-        <v>64.4964434634493</v>
+        <v>64.883033446</v>
       </c>
     </row>
     <row r="158">
@@ -3251,7 +3251,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>72.4971011757692</v>
+        <v>69.9542388627753</v>
       </c>
     </row>
     <row r="159">
@@ -3268,7 +3268,7 @@
         <v>8</v>
       </c>
       <c r="E159" t="n">
-        <v>64.7595941948509</v>
+        <v>68.195506332766</v>
       </c>
     </row>
     <row r="160">
@@ -3285,7 +3285,7 @@
         <v>9</v>
       </c>
       <c r="E160" t="n">
-        <v>56.4892317436865</v>
+        <v>61.4521963265511</v>
       </c>
     </row>
     <row r="161">
@@ -3302,7 +3302,7 @@
         <v>5</v>
       </c>
       <c r="E161" t="n">
-        <v>64.5819757047688</v>
+        <v>66.5339805073641</v>
       </c>
     </row>
     <row r="162">
@@ -3319,7 +3319,7 @@
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>68.7854035261472</v>
+        <v>66.2675122259364</v>
       </c>
     </row>
     <row r="163">
@@ -3336,7 +3336,7 @@
         <v>8</v>
       </c>
       <c r="E163" t="n">
-        <v>63.1498076647984</v>
+        <v>65.9513279859055</v>
       </c>
     </row>
     <row r="164">
@@ -3353,7 +3353,7 @@
         <v>9</v>
       </c>
       <c r="E164" t="n">
-        <v>56.6576471666369</v>
+        <v>60.5486734903707</v>
       </c>
     </row>
     <row r="165">
@@ -3370,7 +3370,7 @@
         <v>5</v>
       </c>
       <c r="E165" t="n">
-        <v>62.8642861191942</v>
+        <v>64.2558379007375</v>
       </c>
     </row>
     <row r="166">
@@ -3387,7 +3387,7 @@
         <v>7</v>
       </c>
       <c r="E166" t="n">
-        <v>70.6253583563435</v>
+        <v>68.4043911865699</v>
       </c>
     </row>
     <row r="167">
@@ -3404,7 +3404,7 @@
         <v>8</v>
       </c>
       <c r="E167" t="n">
-        <v>62.3708615761621</v>
+        <v>62.374425937772</v>
       </c>
     </row>
     <row r="168">
@@ -3421,7 +3421,7 @@
         <v>9</v>
       </c>
       <c r="E168" t="n">
-        <v>58.3721722335456</v>
+        <v>64.0204796494852</v>
       </c>
     </row>
     <row r="169">
@@ -3438,7 +3438,7 @@
         <v>5</v>
       </c>
       <c r="E169" t="n">
-        <v>63.7894640553504</v>
+        <v>64.933098924609</v>
       </c>
     </row>
     <row r="170">
@@ -3455,7 +3455,7 @@
         <v>7</v>
       </c>
       <c r="E170" t="n">
-        <v>57.2730059876681</v>
+        <v>40.3239609261084</v>
       </c>
     </row>
     <row r="171">
@@ -3472,7 +3472,7 @@
         <v>8</v>
       </c>
       <c r="E171" t="n">
-        <v>62.5052717707669</v>
+        <v>57.7692475428492</v>
       </c>
     </row>
     <row r="172">
@@ -3489,7 +3489,7 @@
         <v>9</v>
       </c>
       <c r="E172" t="n">
-        <v>43.8073161732975</v>
+        <v>37.6799675650638</v>
       </c>
     </row>
     <row r="173">
@@ -3506,7 +3506,7 @@
         <v>5</v>
       </c>
       <c r="E173" t="n">
-        <v>54.5285313105775</v>
+        <v>45.2577253446738</v>
       </c>
     </row>
     <row r="174">
@@ -3523,7 +3523,7 @@
         <v>7</v>
       </c>
       <c r="E174" t="n">
-        <v>58.5475730602358</v>
+        <v>47.3853467394531</v>
       </c>
     </row>
     <row r="175">
@@ -3540,7 +3540,7 @@
         <v>8</v>
       </c>
       <c r="E175" t="n">
-        <v>63.9104860585939</v>
+        <v>59.3931842790242</v>
       </c>
     </row>
     <row r="176">
@@ -3557,7 +3557,7 @@
         <v>9</v>
       </c>
       <c r="E176" t="n">
-        <v>44.1123470168001</v>
+        <v>38.0555906651207</v>
       </c>
     </row>
     <row r="177">
@@ -3574,7 +3574,7 @@
         <v>5</v>
       </c>
       <c r="E177" t="n">
-        <v>55.5234687118766</v>
+        <v>48.2780405611993</v>
       </c>
     </row>
     <row r="178">
@@ -3591,7 +3591,7 @@
         <v>7</v>
       </c>
       <c r="E178" t="n">
-        <v>58.3545789046006</v>
+        <v>47.6546277425919</v>
       </c>
     </row>
     <row r="179">
@@ -3608,7 +3608,7 @@
         <v>8</v>
       </c>
       <c r="E179" t="n">
-        <v>61.885452393432</v>
+        <v>58.0052535462387</v>
       </c>
     </row>
     <row r="180">
@@ -3625,7 +3625,7 @@
         <v>9</v>
       </c>
       <c r="E180" t="n">
-        <v>44.1723150691084</v>
+        <v>42.5958511293345</v>
       </c>
     </row>
     <row r="181">
@@ -3642,7 +3642,7 @@
         <v>5</v>
       </c>
       <c r="E181" t="n">
-        <v>54.8041154557136</v>
+        <v>49.4185774727217</v>
       </c>
     </row>
     <row r="182">
@@ -3659,7 +3659,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>56.1483780072464</v>
+        <v>45.5386605600445</v>
       </c>
     </row>
     <row r="183">
@@ -3676,7 +3676,7 @@
         <v>8</v>
       </c>
       <c r="E183" t="n">
-        <v>64.2726790530623</v>
+        <v>60.0166378993773</v>
       </c>
     </row>
     <row r="184">
@@ -3693,7 +3693,7 @@
         <v>9</v>
       </c>
       <c r="E184" t="n">
-        <v>44.5119316409092</v>
+        <v>42.3628087225159</v>
       </c>
     </row>
     <row r="185">
@@ -3710,7 +3710,7 @@
         <v>5</v>
       </c>
       <c r="E185" t="n">
-        <v>54.977662900406</v>
+        <v>49.3060357273126</v>
       </c>
     </row>
     <row r="186">
@@ -3727,7 +3727,7 @@
         <v>7</v>
       </c>
       <c r="E186" t="n">
-        <v>62.4798971034902</v>
+        <v>53.0234809162502</v>
       </c>
     </row>
     <row r="187">
@@ -3744,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="E187" t="n">
-        <v>63.9305795354196</v>
+        <v>59.8623976536765</v>
       </c>
     </row>
     <row r="188">
@@ -3761,7 +3761,7 @@
         <v>9</v>
       </c>
       <c r="E188" t="n">
-        <v>45.2014105617691</v>
+        <v>41.6268647884884</v>
       </c>
     </row>
     <row r="189">
@@ -3778,7 +3778,7 @@
         <v>5</v>
       </c>
       <c r="E189" t="n">
-        <v>57.2039624002263</v>
+        <v>51.5042477861384</v>
       </c>
     </row>
     <row r="190">
@@ -3795,7 +3795,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>61.8498934829516</v>
+        <v>52.0612596801404</v>
       </c>
     </row>
     <row r="191">
@@ -3812,7 +3812,7 @@
         <v>8</v>
       </c>
       <c r="E191" t="n">
-        <v>58.1195272751332</v>
+        <v>52.6752880950208</v>
       </c>
     </row>
     <row r="192">
@@ -3829,7 +3829,7 @@
         <v>9</v>
       </c>
       <c r="E192" t="n">
-        <v>46.2920979596727</v>
+        <v>44.3453256628931</v>
       </c>
     </row>
     <row r="193">
@@ -3846,7 +3846,7 @@
         <v>5</v>
       </c>
       <c r="E193" t="n">
-        <v>55.4205062392525</v>
+        <v>49.6939578126848</v>
       </c>
     </row>
     <row r="194">
@@ -3863,7 +3863,7 @@
         <v>7</v>
       </c>
       <c r="E194" t="n">
-        <v>74.3256149028052</v>
+        <v>64.2702961971085</v>
       </c>
     </row>
     <row r="195">
@@ -3880,7 +3880,7 @@
         <v>8</v>
       </c>
       <c r="E195" t="n">
-        <v>67.6412355382091</v>
+        <v>68.4062758225327</v>
       </c>
     </row>
     <row r="196">
@@ -3897,7 +3897,7 @@
         <v>9</v>
       </c>
       <c r="E196" t="n">
-        <v>54.4372303291205</v>
+        <v>52.0977805425001</v>
       </c>
     </row>
     <row r="197">
@@ -3914,7 +3914,7 @@
         <v>5</v>
       </c>
       <c r="E197" t="n">
-        <v>65.4680269233782</v>
+        <v>61.5914508540471</v>
       </c>
     </row>
     <row r="198">
@@ -3931,7 +3931,7 @@
         <v>7</v>
       </c>
       <c r="E198" t="n">
-        <v>74.7245093473707</v>
+        <v>72.1310159358559</v>
       </c>
     </row>
     <row r="199">
@@ -3948,7 +3948,7 @@
         <v>8</v>
       </c>
       <c r="E199" t="n">
-        <v>67.5425753616896</v>
+        <v>68.2123358276851</v>
       </c>
     </row>
     <row r="200">
@@ -3965,7 +3965,7 @@
         <v>9</v>
       </c>
       <c r="E200" t="n">
-        <v>55.4130885337595</v>
+        <v>53.7242727535258</v>
       </c>
     </row>
     <row r="201">
@@ -3982,7 +3982,7 @@
         <v>5</v>
       </c>
       <c r="E201" t="n">
-        <v>65.8933910809399</v>
+        <v>64.6892081723556</v>
       </c>
     </row>
     <row r="202">
@@ -3999,7 +3999,7 @@
         <v>7</v>
       </c>
       <c r="E202" t="n">
-        <v>72.0093950077415</v>
+        <v>69.8910505607022</v>
       </c>
     </row>
     <row r="203">
@@ -4016,7 +4016,7 @@
         <v>8</v>
       </c>
       <c r="E203" t="n">
-        <v>67.3341746271314</v>
+        <v>68.3226150654489</v>
       </c>
     </row>
     <row r="204">
@@ -4033,7 +4033,7 @@
         <v>9</v>
       </c>
       <c r="E204" t="n">
-        <v>54.6234479076666</v>
+        <v>55.153127038182</v>
       </c>
     </row>
     <row r="205">
@@ -4050,7 +4050,7 @@
         <v>5</v>
       </c>
       <c r="E205" t="n">
-        <v>64.6556725141798</v>
+        <v>64.4555975547777</v>
       </c>
     </row>
     <row r="206">
@@ -4067,7 +4067,7 @@
         <v>7</v>
       </c>
       <c r="E206" t="n">
-        <v>70.6773931026219</v>
+        <v>68.5026299969747</v>
       </c>
     </row>
     <row r="207">
@@ -4084,7 +4084,7 @@
         <v>8</v>
       </c>
       <c r="E207" t="n">
-        <v>68.6578358333587</v>
+        <v>70.4135788517424</v>
       </c>
     </row>
     <row r="208">
@@ -4101,7 +4101,7 @@
         <v>9</v>
       </c>
       <c r="E208" t="n">
-        <v>56.5022491414922</v>
+        <v>59.8378416243175</v>
       </c>
     </row>
     <row r="209">
@@ -4118,7 +4118,7 @@
         <v>5</v>
       </c>
       <c r="E209" t="n">
-        <v>65.2791593591576</v>
+        <v>66.2513501576782</v>
       </c>
     </row>
     <row r="210">
@@ -4135,7 +4135,7 @@
         <v>7</v>
       </c>
       <c r="E210" t="n">
-        <v>69.8859442520846</v>
+        <v>67.5642930806803</v>
       </c>
     </row>
     <row r="211">
@@ -4152,7 +4152,7 @@
         <v>8</v>
       </c>
       <c r="E211" t="n">
-        <v>67.5488431855077</v>
+        <v>69.977261015583</v>
       </c>
     </row>
     <row r="212">
@@ -4169,7 +4169,7 @@
         <v>9</v>
       </c>
       <c r="E212" t="n">
-        <v>57.9350890693251</v>
+        <v>60.2005997208906</v>
       </c>
     </row>
     <row r="213">
@@ -4186,7 +4186,7 @@
         <v>5</v>
       </c>
       <c r="E213" t="n">
-        <v>65.1232921689725</v>
+        <v>65.9140512723846</v>
       </c>
     </row>
     <row r="214">
@@ -4203,7 +4203,7 @@
         <v>7</v>
       </c>
       <c r="E214" t="n">
-        <v>69.3895113624722</v>
+        <v>66.7185625150447</v>
       </c>
     </row>
     <row r="215">
@@ -4220,7 +4220,7 @@
         <v>8</v>
       </c>
       <c r="E215" t="n">
-        <v>63.3294615299972</v>
+        <v>65.4676974663442</v>
       </c>
     </row>
     <row r="216">
@@ -4237,7 +4237,7 @@
         <v>9</v>
       </c>
       <c r="E216" t="n">
-        <v>58.4121395095648</v>
+        <v>61.4719686790185</v>
       </c>
     </row>
     <row r="217">
@@ -4254,7 +4254,7 @@
         <v>5</v>
       </c>
       <c r="E217" t="n">
-        <v>63.710370800678</v>
+        <v>64.5527428868025</v>
       </c>
     </row>
     <row r="218">
@@ -4271,7 +4271,7 @@
         <v>7</v>
       </c>
       <c r="E218" t="n">
-        <v>74.4347871278533</v>
+        <v>73.4836643814034</v>
       </c>
     </row>
     <row r="219">
@@ -4288,7 +4288,7 @@
         <v>8</v>
       </c>
       <c r="E219" t="n">
-        <v>58.4973957235145</v>
+        <v>73.564637527817</v>
       </c>
     </row>
     <row r="220">
@@ -4305,7 +4305,7 @@
         <v>9</v>
       </c>
       <c r="E220" t="n">
-        <v>65.3925352261003</v>
+        <v>62.5472101832979</v>
       </c>
     </row>
     <row r="221">
@@ -4322,7 +4322,7 @@
         <v>5</v>
       </c>
       <c r="E221" t="n">
-        <v>66.108239359156</v>
+        <v>69.8651706975061</v>
       </c>
     </row>
     <row r="222">
@@ -4339,7 +4339,7 @@
         <v>7</v>
       </c>
       <c r="E222" t="n">
-        <v>76.8447405044162</v>
+        <v>75.9849671011536</v>
       </c>
     </row>
     <row r="223">
@@ -4356,7 +4356,7 @@
         <v>8</v>
       </c>
       <c r="E223" t="n">
-        <v>57.6193422019197</v>
+        <v>73.671593567322</v>
       </c>
     </row>
     <row r="224">
@@ -4373,7 +4373,7 @@
         <v>9</v>
       </c>
       <c r="E224" t="n">
-        <v>67.2231837574246</v>
+        <v>65.7514939837167</v>
       </c>
     </row>
     <row r="225">
@@ -4390,7 +4390,7 @@
         <v>5</v>
       </c>
       <c r="E225" t="n">
-        <v>67.2290888212535</v>
+        <v>71.8026848840641</v>
       </c>
     </row>
     <row r="226">
@@ -4407,7 +4407,7 @@
         <v>7</v>
       </c>
       <c r="E226" t="n">
-        <v>74.2695362011781</v>
+        <v>73.246122977249</v>
       </c>
     </row>
     <row r="227">
@@ -4424,7 +4424,7 @@
         <v>8</v>
       </c>
       <c r="E227" t="n">
-        <v>58.2871788989867</v>
+        <v>74.4975668906083</v>
       </c>
     </row>
     <row r="228">
@@ -4441,7 +4441,7 @@
         <v>9</v>
       </c>
       <c r="E228" t="n">
-        <v>66.2503993818826</v>
+        <v>65.5414427635799</v>
       </c>
     </row>
     <row r="229">
@@ -4458,7 +4458,7 @@
         <v>5</v>
       </c>
       <c r="E229" t="n">
-        <v>66.2690381606825</v>
+        <v>71.095044210479</v>
       </c>
     </row>
     <row r="230">
@@ -4475,7 +4475,7 @@
         <v>7</v>
       </c>
       <c r="E230" t="n">
-        <v>72.6267594254361</v>
+        <v>71.4414229834455</v>
       </c>
     </row>
     <row r="231">
@@ -4492,7 +4492,7 @@
         <v>8</v>
       </c>
       <c r="E231" t="n">
-        <v>59.0684647626877</v>
+        <v>75.8141028653985</v>
       </c>
     </row>
     <row r="232">
@@ -4509,7 +4509,7 @@
         <v>9</v>
       </c>
       <c r="E232" t="n">
-        <v>69.0315527809765</v>
+        <v>75.3820478824186</v>
       </c>
     </row>
     <row r="233">
@@ -4526,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="E233" t="n">
-        <v>66.9089256563668</v>
+        <v>74.2125245770875</v>
       </c>
     </row>
     <row r="234">
@@ -4543,7 +4543,7 @@
         <v>7</v>
       </c>
       <c r="E234" t="n">
-        <v>66.5828921369578</v>
+        <v>64.5099264951583</v>
       </c>
     </row>
     <row r="235">
@@ -4560,7 +4560,7 @@
         <v>8</v>
       </c>
       <c r="E235" t="n">
-        <v>58.1935616016312</v>
+        <v>75.6903944873934</v>
       </c>
     </row>
     <row r="236">
@@ -4577,7 +4577,7 @@
         <v>9</v>
       </c>
       <c r="E236" t="n">
-        <v>69.9030842434727</v>
+        <v>74.3637765964775</v>
       </c>
     </row>
     <row r="237">
@@ -4594,7 +4594,7 @@
         <v>5</v>
       </c>
       <c r="E237" t="n">
-        <v>64.8931793273539</v>
+        <v>71.5213658596764</v>
       </c>
     </row>
     <row r="238">
@@ -4611,7 +4611,7 @@
         <v>7</v>
       </c>
       <c r="E238" t="n">
-        <v>67.6144006146314</v>
+        <v>65.6923387035441</v>
       </c>
     </row>
     <row r="239">
@@ -4628,7 +4628,7 @@
         <v>8</v>
       </c>
       <c r="E239" t="n">
-        <v>49.8589622441403</v>
+        <v>68.4107678920946</v>
       </c>
     </row>
     <row r="240">
@@ -4645,7 +4645,7 @@
         <v>9</v>
       </c>
       <c r="E240" t="n">
-        <v>70.5913023448009</v>
+        <v>75.6439424101464</v>
       </c>
     </row>
     <row r="241">
@@ -4662,7 +4662,7 @@
         <v>5</v>
       </c>
       <c r="E241" t="n">
-        <v>62.6882217345242</v>
+        <v>69.9156830019284</v>
       </c>
     </row>
     <row r="242">
@@ -4679,7 +4679,7 @@
         <v>7</v>
       </c>
       <c r="E242" t="n">
-        <v>76.450640400613</v>
+        <v>73.2754945360262</v>
       </c>
     </row>
     <row r="243">
@@ -4696,7 +4696,7 @@
         <v>8</v>
       </c>
       <c r="E243" t="n">
-        <v>66.3423598050057</v>
+        <v>66.7007487711774</v>
       </c>
     </row>
     <row r="244">
@@ -4713,7 +4713,7 @@
         <v>9</v>
       </c>
       <c r="E244" t="n">
-        <v>51.026464924106</v>
+        <v>48.2269657795475</v>
       </c>
     </row>
     <row r="245">
@@ -4730,7 +4730,7 @@
         <v>5</v>
       </c>
       <c r="E245" t="n">
-        <v>64.6064883765749</v>
+        <v>62.734403028917</v>
       </c>
     </row>
     <row r="246">
@@ -4747,7 +4747,7 @@
         <v>7</v>
       </c>
       <c r="E246" t="n">
-        <v>76.932844680592</v>
+        <v>74.4487110220132</v>
       </c>
     </row>
     <row r="247">
@@ -4764,7 +4764,7 @@
         <v>8</v>
       </c>
       <c r="E247" t="n">
-        <v>67.6350569493919</v>
+        <v>67.2401089908573</v>
       </c>
     </row>
     <row r="248">
@@ -4781,7 +4781,7 @@
         <v>9</v>
       </c>
       <c r="E248" t="n">
-        <v>52.8953270188487</v>
+        <v>51.6080259738792</v>
       </c>
     </row>
     <row r="249">
@@ -4798,7 +4798,7 @@
         <v>5</v>
       </c>
       <c r="E249" t="n">
-        <v>65.8210762162775</v>
+        <v>64.4322819955832</v>
       </c>
     </row>
     <row r="250">
@@ -4815,7 +4815,7 @@
         <v>7</v>
       </c>
       <c r="E250" t="n">
-        <v>77.5007374699793</v>
+        <v>75.3855373587274</v>
       </c>
     </row>
     <row r="251">
@@ -4832,7 +4832,7 @@
         <v>8</v>
       </c>
       <c r="E251" t="n">
-        <v>65.094144039074</v>
+        <v>65.7379300171505</v>
       </c>
     </row>
     <row r="252">
@@ -4849,7 +4849,7 @@
         <v>9</v>
       </c>
       <c r="E252" t="n">
-        <v>51.8135300662586</v>
+        <v>50.9978548964355</v>
       </c>
     </row>
     <row r="253">
@@ -4866,7 +4866,7 @@
         <v>5</v>
       </c>
       <c r="E253" t="n">
-        <v>64.8028038584373</v>
+        <v>64.0404407574378</v>
       </c>
     </row>
     <row r="254">
@@ -4883,7 +4883,7 @@
         <v>7</v>
       </c>
       <c r="E254" t="n">
-        <v>73.8793604018942</v>
+        <v>71.4728772842208</v>
       </c>
     </row>
     <row r="255">
@@ -4900,7 +4900,7 @@
         <v>8</v>
       </c>
       <c r="E255" t="n">
-        <v>68.2140396401511</v>
+        <v>67.7923575356999</v>
       </c>
     </row>
     <row r="256">
@@ -4917,7 +4917,7 @@
         <v>9</v>
       </c>
       <c r="E256" t="n">
-        <v>52.4295672211404</v>
+        <v>55.2672175497756</v>
       </c>
     </row>
     <row r="257">
@@ -4934,7 +4934,7 @@
         <v>5</v>
       </c>
       <c r="E257" t="n">
-        <v>64.8409890877286</v>
+        <v>64.8441507898987</v>
       </c>
     </row>
     <row r="258">
@@ -4951,7 +4951,7 @@
         <v>7</v>
       </c>
       <c r="E258" t="n">
-        <v>74.4411126198266</v>
+        <v>72.3394433961417</v>
       </c>
     </row>
     <row r="259">
@@ -4968,7 +4968,7 @@
         <v>8</v>
       </c>
       <c r="E259" t="n">
-        <v>67.0293860224945</v>
+        <v>66.8070687515867</v>
       </c>
     </row>
     <row r="260">
@@ -4985,7 +4985,7 @@
         <v>9</v>
       </c>
       <c r="E260" t="n">
-        <v>54.5391055735581</v>
+        <v>57.5195524660179</v>
       </c>
     </row>
     <row r="261">
@@ -5002,7 +5002,7 @@
         <v>5</v>
       </c>
       <c r="E261" t="n">
-        <v>65.3365347386264</v>
+        <v>65.5553548712488</v>
       </c>
     </row>
     <row r="262">
@@ -5019,7 +5019,7 @@
         <v>7</v>
       </c>
       <c r="E262" t="n">
-        <v>74.9476465302027</v>
+        <v>71.9224366069548</v>
       </c>
     </row>
     <row r="263">
@@ -5036,7 +5036,7 @@
         <v>8</v>
       </c>
       <c r="E263" t="n">
-        <v>65.1503787786642</v>
+        <v>64.3577579311729</v>
       </c>
     </row>
     <row r="264">
@@ -5053,7 +5053,7 @@
         <v>9</v>
       </c>
       <c r="E264" t="n">
-        <v>55.7281883149426</v>
+        <v>59.7462360798383</v>
       </c>
     </row>
     <row r="265">
@@ -5070,7 +5070,7 @@
         <v>5</v>
       </c>
       <c r="E265" t="n">
-        <v>65.2754045412698</v>
+        <v>65.342143539322</v>
       </c>
     </row>
     <row r="266">
@@ -5087,7 +5087,7 @@
         <v>7</v>
       </c>
       <c r="E266" t="n">
-        <v>58.93432905541</v>
+        <v>56.0771548280649</v>
       </c>
     </row>
     <row r="267">
@@ -5104,7 +5104,7 @@
         <v>8</v>
       </c>
       <c r="E267" t="n">
-        <v>64.7953838030245</v>
+        <v>66.5072245533493</v>
       </c>
     </row>
     <row r="268">
@@ -5121,7 +5121,7 @@
         <v>9</v>
       </c>
       <c r="E268" t="n">
-        <v>47.0210649699842</v>
+        <v>43.5743913860209</v>
       </c>
     </row>
     <row r="269">
@@ -5138,7 +5138,7 @@
         <v>5</v>
       </c>
       <c r="E269" t="n">
-        <v>56.9169259428063</v>
+        <v>55.3862569224784</v>
       </c>
     </row>
     <row r="270">
@@ -5155,7 +5155,7 @@
         <v>7</v>
       </c>
       <c r="E270" t="n">
-        <v>75.1850238665887</v>
+        <v>72.6448149024517</v>
       </c>
     </row>
     <row r="271">
@@ -5172,7 +5172,7 @@
         <v>8</v>
       </c>
       <c r="E271" t="n">
-        <v>62.5405866372089</v>
+        <v>64.9016909257577</v>
       </c>
     </row>
     <row r="272">
@@ -5189,7 +5189,7 @@
         <v>9</v>
       </c>
       <c r="E272" t="n">
-        <v>48.7003081956017</v>
+        <v>46.5434175228416</v>
       </c>
     </row>
     <row r="273">
@@ -5206,7 +5206,7 @@
         <v>5</v>
       </c>
       <c r="E273" t="n">
-        <v>62.1419728997997</v>
+        <v>61.3633077836837</v>
       </c>
     </row>
     <row r="274">
@@ -5223,7 +5223,7 @@
         <v>7</v>
       </c>
       <c r="E274" t="n">
-        <v>72.2281296115121</v>
+        <v>69.8181854615773</v>
       </c>
     </row>
     <row r="275">
@@ -5240,7 +5240,7 @@
         <v>8</v>
       </c>
       <c r="E275" t="n">
-        <v>62.6480240210751</v>
+        <v>64.9130251478935</v>
       </c>
     </row>
     <row r="276">
@@ -5257,7 +5257,7 @@
         <v>9</v>
       </c>
       <c r="E276" t="n">
-        <v>49.1761839424381</v>
+        <v>49.4112040716941</v>
       </c>
     </row>
     <row r="277">
@@ -5274,7 +5274,7 @@
         <v>5</v>
       </c>
       <c r="E277" t="n">
-        <v>61.3507791916751</v>
+        <v>61.3808048937216</v>
       </c>
     </row>
     <row r="278">
@@ -5291,7 +5291,7 @@
         <v>7</v>
       </c>
       <c r="E278" t="n">
-        <v>72.7383362630454</v>
+        <v>70.743617098594</v>
       </c>
     </row>
     <row r="279">
@@ -5308,7 +5308,7 @@
         <v>8</v>
       </c>
       <c r="E279" t="n">
-        <v>63.7553703490938</v>
+        <v>65.4379648575613</v>
       </c>
     </row>
     <row r="280">
@@ -5325,7 +5325,7 @@
         <v>9</v>
       </c>
       <c r="E280" t="n">
-        <v>50.5430654207126</v>
+        <v>53.0143012725181</v>
       </c>
     </row>
     <row r="281">
@@ -5342,7 +5342,7 @@
         <v>5</v>
       </c>
       <c r="E281" t="n">
-        <v>62.3455906776173</v>
+        <v>63.0652944095578</v>
       </c>
     </row>
     <row r="282">
@@ -5359,7 +5359,7 @@
         <v>7</v>
       </c>
       <c r="E282" t="n">
-        <v>71.4343946647164</v>
+        <v>69.4359878521405</v>
       </c>
     </row>
     <row r="283">
@@ -5376,7 +5376,7 @@
         <v>8</v>
       </c>
       <c r="E283" t="n">
-        <v>62.7045689168059</v>
+        <v>64.4610437593725</v>
       </c>
     </row>
     <row r="284">
@@ -5393,7 +5393,7 @@
         <v>9</v>
       </c>
       <c r="E284" t="n">
-        <v>52.4225806251068</v>
+        <v>52.772986147691</v>
       </c>
     </row>
     <row r="285">
@@ -5410,7 +5410,7 @@
         <v>5</v>
       </c>
       <c r="E285" t="n">
-        <v>62.1871814022097</v>
+        <v>62.223339253068</v>
       </c>
     </row>
     <row r="286">
@@ -5427,7 +5427,7 @@
         <v>7</v>
       </c>
       <c r="E286" t="n">
-        <v>69.2414571240263</v>
+        <v>67.2228549414161</v>
       </c>
     </row>
     <row r="287">
@@ -5444,7 +5444,7 @@
         <v>8</v>
       </c>
       <c r="E287" t="n">
-        <v>58.5318681511989</v>
+        <v>59.9419000131537</v>
       </c>
     </row>
     <row r="288">
@@ -5461,7 +5461,7 @@
         <v>9</v>
       </c>
       <c r="E288" t="n">
-        <v>53.1655600635509</v>
+        <v>53.9729777959241</v>
       </c>
     </row>
     <row r="289">
@@ -5478,7 +5478,7 @@
         <v>5</v>
       </c>
       <c r="E289" t="n">
-        <v>60.312961779592</v>
+        <v>60.3792442501646</v>
       </c>
     </row>
     <row r="290">
@@ -5495,7 +5495,7 @@
         <v>7</v>
       </c>
       <c r="E290" t="n">
-        <v>43.7958468488105</v>
+        <v>33.4239401876858</v>
       </c>
     </row>
     <row r="291">
@@ -5512,7 +5512,7 @@
         <v>8</v>
       </c>
       <c r="E291" t="n">
-        <v>55.9371661293644</v>
+        <v>55.5226502722953</v>
       </c>
     </row>
     <row r="292">
@@ -5529,7 +5529,7 @@
         <v>9</v>
       </c>
       <c r="E292" t="n">
-        <v>42.5015369060501</v>
+        <v>37.5671715395473</v>
       </c>
     </row>
     <row r="293">
@@ -5546,7 +5546,7 @@
         <v>5</v>
       </c>
       <c r="E293" t="n">
-        <v>47.411516628075</v>
+        <v>42.1712539998428</v>
       </c>
     </row>
     <row r="294">
@@ -5563,7 +5563,7 @@
         <v>7</v>
       </c>
       <c r="E294" t="n">
-        <v>43.8209908813394</v>
+        <v>33.6990637052518</v>
       </c>
     </row>
     <row r="295">
@@ -5580,7 +5580,7 @@
         <v>8</v>
       </c>
       <c r="E295" t="n">
-        <v>57.0579489805306</v>
+        <v>56.8637758527867</v>
       </c>
     </row>
     <row r="296">
@@ -5597,7 +5597,7 @@
         <v>9</v>
       </c>
       <c r="E296" t="n">
-        <v>43.2634201719325</v>
+        <v>38.7577163033523</v>
       </c>
     </row>
     <row r="297">
@@ -5614,7 +5614,7 @@
         <v>5</v>
       </c>
       <c r="E297" t="n">
-        <v>48.0474533446008</v>
+        <v>43.1068519537969</v>
       </c>
     </row>
     <row r="298">
@@ -5631,7 +5631,7 @@
         <v>7</v>
       </c>
       <c r="E298" t="n">
-        <v>45.4806283051132</v>
+        <v>36.4009976353207</v>
       </c>
     </row>
     <row r="299">
@@ -5648,7 +5648,7 @@
         <v>8</v>
       </c>
       <c r="E299" t="n">
-        <v>55.9835575060504</v>
+        <v>56.095562948822</v>
       </c>
     </row>
     <row r="300">
@@ -5665,7 +5665,7 @@
         <v>9</v>
       </c>
       <c r="E300" t="n">
-        <v>43.9924981905755</v>
+        <v>39.8308612909762</v>
       </c>
     </row>
     <row r="301">
@@ -5682,7 +5682,7 @@
         <v>5</v>
       </c>
       <c r="E301" t="n">
-        <v>48.485561333913</v>
+        <v>44.1091406250396</v>
       </c>
     </row>
     <row r="302">
@@ -5699,7 +5699,7 @@
         <v>7</v>
       </c>
       <c r="E302" t="n">
-        <v>47.4878920944642</v>
+        <v>37.9395965554546</v>
       </c>
     </row>
     <row r="303">
@@ -5716,7 +5716,7 @@
         <v>8</v>
       </c>
       <c r="E303" t="n">
-        <v>57.2459422216034</v>
+        <v>56.9974353195836</v>
       </c>
     </row>
     <row r="304">
@@ -5733,7 +5733,7 @@
         <v>9</v>
       </c>
       <c r="E304" t="n">
-        <v>44.3825825196488</v>
+        <v>41.6013443227485</v>
       </c>
     </row>
     <row r="305">
@@ -5750,7 +5750,7 @@
         <v>5</v>
       </c>
       <c r="E305" t="n">
-        <v>49.7054722785721</v>
+        <v>45.5127920659289</v>
       </c>
     </row>
     <row r="306">
@@ -5767,7 +5767,7 @@
         <v>7</v>
       </c>
       <c r="E306" t="n">
-        <v>50.3004189255404</v>
+        <v>41.8956003297268</v>
       </c>
     </row>
     <row r="307">
@@ -5784,7 +5784,7 @@
         <v>8</v>
       </c>
       <c r="E307" t="n">
-        <v>55.6901237827709</v>
+        <v>55.6886925599422</v>
       </c>
     </row>
     <row r="308">
@@ -5801,7 +5801,7 @@
         <v>9</v>
       </c>
       <c r="E308" t="n">
-        <v>44.7297437456798</v>
+        <v>41.4902019266009</v>
       </c>
     </row>
     <row r="309">
@@ -5818,7 +5818,7 @@
         <v>5</v>
       </c>
       <c r="E309" t="n">
-        <v>50.2400954846637</v>
+        <v>46.3581649387566</v>
       </c>
     </row>
     <row r="310">
@@ -5835,7 +5835,7 @@
         <v>7</v>
       </c>
       <c r="E310" t="n">
-        <v>50.846088350562</v>
+        <v>42.5012315135534</v>
       </c>
     </row>
     <row r="311">
@@ -5852,7 +5852,7 @@
         <v>8</v>
       </c>
       <c r="E311" t="n">
-        <v>53.2226776102805</v>
+        <v>51.3042547221867</v>
       </c>
     </row>
     <row r="312">
@@ -5869,7 +5869,7 @@
         <v>9</v>
       </c>
       <c r="E312" t="n">
-        <v>46.6659984885354</v>
+        <v>46.2555701815727</v>
       </c>
     </row>
     <row r="313">
@@ -5886,7 +5886,7 @@
         <v>5</v>
       </c>
       <c r="E313" t="n">
-        <v>50.2449214831259</v>
+        <v>46.6870188057709</v>
       </c>
     </row>
     <row r="314">
@@ -5903,7 +5903,7 @@
         <v>7</v>
       </c>
       <c r="E314" t="n">
-        <v>68.9154215295802</v>
+        <v>64.6366406892227</v>
       </c>
     </row>
     <row r="315">
@@ -5920,7 +5920,7 @@
         <v>8</v>
       </c>
       <c r="E315" t="n">
-        <v>62.4530868146464</v>
+        <v>65.0131224456894</v>
       </c>
     </row>
     <row r="316">
@@ -5937,7 +5937,7 @@
         <v>9</v>
       </c>
       <c r="E316" t="n">
-        <v>51.7898841106438</v>
+        <v>46.292996990601</v>
       </c>
     </row>
     <row r="317">
@@ -5954,7 +5954,7 @@
         <v>5</v>
       </c>
       <c r="E317" t="n">
-        <v>61.0527974849568</v>
+        <v>58.6475867085044</v>
       </c>
     </row>
     <row r="318">
@@ -5971,7 +5971,7 @@
         <v>7</v>
       </c>
       <c r="E318" t="n">
-        <v>69.4830306131203</v>
+        <v>65.5380915374505</v>
       </c>
     </row>
     <row r="319">
@@ -5988,7 +5988,7 @@
         <v>8</v>
       </c>
       <c r="E319" t="n">
-        <v>64.3088979447314</v>
+        <v>66.6363126166074</v>
       </c>
     </row>
     <row r="320">
@@ -6005,7 +6005,7 @@
         <v>9</v>
       </c>
       <c r="E320" t="n">
-        <v>52.6441738946101</v>
+        <v>47.5956345476522</v>
       </c>
     </row>
     <row r="321">
@@ -6022,7 +6022,7 @@
         <v>5</v>
       </c>
       <c r="E321" t="n">
-        <v>62.1453674841539</v>
+        <v>59.9233462339033</v>
       </c>
     </row>
     <row r="322">
@@ -6039,7 +6039,7 @@
         <v>7</v>
       </c>
       <c r="E322" t="n">
-        <v>72.4343351650593</v>
+        <v>67.9705929455489</v>
       </c>
     </row>
     <row r="323">
@@ -6056,7 +6056,7 @@
         <v>8</v>
       </c>
       <c r="E323" t="n">
-        <v>60.3599257223072</v>
+        <v>63.7487528332654</v>
       </c>
     </row>
     <row r="324">
@@ -6073,7 +6073,7 @@
         <v>9</v>
       </c>
       <c r="E324" t="n">
-        <v>50.4952325169262</v>
+        <v>47.9991379787726</v>
       </c>
     </row>
     <row r="325">
@@ -6090,7 +6090,7 @@
         <v>5</v>
       </c>
       <c r="E325" t="n">
-        <v>61.0964978014309</v>
+        <v>59.906161252529</v>
       </c>
     </row>
     <row r="326">
@@ -6107,7 +6107,7 @@
         <v>7</v>
       </c>
       <c r="E326" t="n">
-        <v>72.5054440680601</v>
+        <v>67.8756565801322</v>
       </c>
     </row>
     <row r="327">
@@ -6124,7 +6124,7 @@
         <v>8</v>
       </c>
       <c r="E327" t="n">
-        <v>60.8637328021411</v>
+        <v>64.6042836050971</v>
       </c>
     </row>
     <row r="328">
@@ -6141,7 +6141,7 @@
         <v>9</v>
       </c>
       <c r="E328" t="n">
-        <v>52.5338141653627</v>
+        <v>52.0267776631951</v>
       </c>
     </row>
     <row r="329">
@@ -6158,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="E329" t="n">
-        <v>61.9676636785213</v>
+        <v>61.5022392828081</v>
       </c>
     </row>
     <row r="330">
@@ -6175,7 +6175,7 @@
         <v>7</v>
       </c>
       <c r="E330" t="n">
-        <v>71.3775757949858</v>
+        <v>66.5943998233989</v>
       </c>
     </row>
     <row r="331">
@@ -6192,7 +6192,7 @@
         <v>8</v>
       </c>
       <c r="E331" t="n">
-        <v>61.065099648958</v>
+        <v>65.1826749685311</v>
       </c>
     </row>
     <row r="332">
@@ -6209,7 +6209,7 @@
         <v>9</v>
       </c>
       <c r="E332" t="n">
-        <v>53.4487663065837</v>
+        <v>54.3027681126</v>
       </c>
     </row>
     <row r="333">
@@ -6226,7 +6226,7 @@
         <v>5</v>
       </c>
       <c r="E333" t="n">
-        <v>61.9638139168425</v>
+        <v>62.02661430151</v>
       </c>
     </row>
     <row r="334">
@@ -6243,7 +6243,7 @@
         <v>7</v>
       </c>
       <c r="E334" t="n">
-        <v>71.5129806287756</v>
+        <v>67.3553046125782</v>
       </c>
     </row>
     <row r="335">
@@ -6260,7 +6260,7 @@
         <v>8</v>
       </c>
       <c r="E335" t="n">
-        <v>58.8667514381167</v>
+        <v>62.7208764501734</v>
       </c>
     </row>
     <row r="336">
@@ -6277,7 +6277,7 @@
         <v>9</v>
       </c>
       <c r="E336" t="n">
-        <v>53.9279321975514</v>
+        <v>56.1021978352654</v>
       </c>
     </row>
     <row r="337">
@@ -6294,7 +6294,7 @@
         <v>5</v>
       </c>
       <c r="E337" t="n">
-        <v>61.4358880881479</v>
+        <v>62.0594596326723</v>
       </c>
     </row>
     <row r="338">
@@ -6311,7 +6311,7 @@
         <v>7</v>
       </c>
       <c r="E338" t="n">
-        <v>77.841857430302</v>
+        <v>75.9715595865156</v>
       </c>
     </row>
     <row r="339">
@@ -6328,7 +6328,7 @@
         <v>8</v>
       </c>
       <c r="E339" t="n">
-        <v>69.67373017768</v>
+        <v>71.5430984279315</v>
       </c>
     </row>
     <row r="340">
@@ -6345,7 +6345,7 @@
         <v>9</v>
       </c>
       <c r="E340" t="n">
-        <v>55.1244513291158</v>
+        <v>53.2516191181672</v>
       </c>
     </row>
     <row r="341">
@@ -6362,7 +6362,7 @@
         <v>5</v>
       </c>
       <c r="E341" t="n">
-        <v>67.5466796456993</v>
+        <v>66.9220923775381</v>
       </c>
     </row>
     <row r="342">
@@ -6379,7 +6379,7 @@
         <v>7</v>
       </c>
       <c r="E342" t="n">
-        <v>78.6349882335187</v>
+        <v>77.2777113729646</v>
       </c>
     </row>
     <row r="343">
@@ -6396,7 +6396,7 @@
         <v>8</v>
       </c>
       <c r="E343" t="n">
-        <v>69.6852065072093</v>
+        <v>70.9226558542634</v>
       </c>
     </row>
     <row r="344">
@@ -6413,7 +6413,7 @@
         <v>9</v>
       </c>
       <c r="E344" t="n">
-        <v>54.9253141578506</v>
+        <v>53.2113012108231</v>
       </c>
     </row>
     <row r="345">
@@ -6430,7 +6430,7 @@
         <v>5</v>
       </c>
       <c r="E345" t="n">
-        <v>67.7485029661928</v>
+        <v>67.1372228126837</v>
       </c>
     </row>
     <row r="346">
@@ -6447,7 +6447,7 @@
         <v>7</v>
       </c>
       <c r="E346" t="n">
-        <v>78.044735271271</v>
+        <v>76.8445133993246</v>
       </c>
     </row>
     <row r="347">
@@ -6464,7 +6464,7 @@
         <v>8</v>
       </c>
       <c r="E347" t="n">
-        <v>68.274634189948</v>
+        <v>69.9472910048452</v>
       </c>
     </row>
     <row r="348">
@@ -6481,7 +6481,7 @@
         <v>9</v>
       </c>
       <c r="E348" t="n">
-        <v>55.0364902640644</v>
+        <v>54.2199233922187</v>
       </c>
     </row>
     <row r="349">
@@ -6498,7 +6498,7 @@
         <v>5</v>
       </c>
       <c r="E349" t="n">
-        <v>67.1186199084278</v>
+        <v>67.0039092654628</v>
       </c>
     </row>
     <row r="350">
@@ -6515,7 +6515,7 @@
         <v>7</v>
       </c>
       <c r="E350" t="n">
-        <v>75.5852176585832</v>
+        <v>74.2848205353726</v>
       </c>
     </row>
     <row r="351">
@@ -6532,7 +6532,7 @@
         <v>8</v>
       </c>
       <c r="E351" t="n">
-        <v>70.5937298326116</v>
+        <v>72.047789272072</v>
       </c>
     </row>
     <row r="352">
@@ -6549,7 +6549,7 @@
         <v>9</v>
       </c>
       <c r="E352" t="n">
-        <v>56.5178236502997</v>
+        <v>60.9812779796286</v>
       </c>
     </row>
     <row r="353">
@@ -6566,7 +6566,7 @@
         <v>5</v>
       </c>
       <c r="E353" t="n">
-        <v>67.5655903804982</v>
+        <v>69.1046292623577</v>
       </c>
     </row>
     <row r="354">
@@ -6583,7 +6583,7 @@
         <v>7</v>
       </c>
       <c r="E354" t="n">
-        <v>75.717833125371</v>
+        <v>74.5126223834097</v>
       </c>
     </row>
     <row r="355">
@@ -6600,7 +6600,7 @@
         <v>8</v>
       </c>
       <c r="E355" t="n">
-        <v>70.1957995010471</v>
+        <v>72.0771497946342</v>
       </c>
     </row>
     <row r="356">
@@ -6617,7 +6617,7 @@
         <v>9</v>
       </c>
       <c r="E356" t="n">
-        <v>57.0240490908137</v>
+        <v>61.1740685184843</v>
       </c>
     </row>
     <row r="357">
@@ -6634,7 +6634,7 @@
         <v>5</v>
       </c>
       <c r="E357" t="n">
-        <v>67.645893905744</v>
+        <v>69.2546135655094</v>
       </c>
     </row>
     <row r="358">
@@ -6651,7 +6651,7 @@
         <v>7</v>
       </c>
       <c r="E358" t="n">
-        <v>75.1677754939806</v>
+        <v>73.6778274530046</v>
       </c>
     </row>
     <row r="359">
@@ -6668,7 +6668,7 @@
         <v>8</v>
       </c>
       <c r="E359" t="n">
-        <v>66.6137251517311</v>
+        <v>68.8174230457897</v>
       </c>
     </row>
     <row r="360">
@@ -6685,7 +6685,7 @@
         <v>9</v>
       </c>
       <c r="E360" t="n">
-        <v>58.6552687566078</v>
+        <v>64.0004486778873</v>
       </c>
     </row>
     <row r="361">
@@ -6702,7 +6702,7 @@
         <v>5</v>
       </c>
       <c r="E361" t="n">
-        <v>66.8122564674399</v>
+        <v>68.8318997255605</v>
       </c>
     </row>
     <row r="362">
@@ -6719,7 +6719,7 @@
         <v>7</v>
       </c>
       <c r="E362" t="n">
-        <v>66.5629494434065</v>
+        <v>64.4985515397275</v>
       </c>
     </row>
     <row r="363">
@@ -6736,7 +6736,7 @@
         <v>8</v>
       </c>
       <c r="E363" t="n">
-        <v>64.7848123463723</v>
+        <v>68.6654139563634</v>
       </c>
     </row>
     <row r="364">
@@ -6753,7 +6753,7 @@
         <v>9</v>
       </c>
       <c r="E364" t="n">
-        <v>49.031094127113</v>
+        <v>47.3659262065582</v>
       </c>
     </row>
     <row r="365">
@@ -6770,7 +6770,7 @@
         <v>5</v>
       </c>
       <c r="E365" t="n">
-        <v>60.1262853056306</v>
+        <v>60.1766305675497</v>
       </c>
     </row>
     <row r="366">
@@ -6787,7 +6787,7 @@
         <v>7</v>
       </c>
       <c r="E366" t="n">
-        <v>65.2263306640715</v>
+        <v>63.4104786935224</v>
       </c>
     </row>
     <row r="367">
@@ -6804,7 +6804,7 @@
         <v>8</v>
       </c>
       <c r="E367" t="n">
-        <v>63.1848575565629</v>
+        <v>67.4954819636282</v>
       </c>
     </row>
     <row r="368">
@@ -6821,7 +6821,7 @@
         <v>9</v>
       </c>
       <c r="E368" t="n">
-        <v>50.582816222238</v>
+        <v>49.0943068274957</v>
       </c>
     </row>
     <row r="369">
@@ -6838,7 +6838,7 @@
         <v>5</v>
       </c>
       <c r="E369" t="n">
-        <v>59.6646681476241</v>
+        <v>60.0000891615487</v>
       </c>
     </row>
     <row r="370">
@@ -6855,7 +6855,7 @@
         <v>7</v>
       </c>
       <c r="E370" t="n">
-        <v>68.7936286828638</v>
+        <v>67.1236594571038</v>
       </c>
     </row>
     <row r="371">
@@ -6872,7 +6872,7 @@
         <v>8</v>
       </c>
       <c r="E371" t="n">
-        <v>61.4356604395521</v>
+        <v>66.4646520689583</v>
       </c>
     </row>
     <row r="372">
@@ -6889,7 +6889,7 @@
         <v>9</v>
       </c>
       <c r="E372" t="n">
-        <v>52.448254644422</v>
+        <v>52.5287735797873</v>
       </c>
     </row>
     <row r="373">
@@ -6906,7 +6906,7 @@
         <v>5</v>
       </c>
       <c r="E373" t="n">
-        <v>60.892514588946</v>
+        <v>62.0390283686164</v>
       </c>
     </row>
     <row r="374">
@@ -6923,7 +6923,7 @@
         <v>7</v>
       </c>
       <c r="E374" t="n">
-        <v>67.2868686942299</v>
+        <v>65.2589218593192</v>
       </c>
     </row>
     <row r="375">
@@ -6940,7 +6940,7 @@
         <v>8</v>
       </c>
       <c r="E375" t="n">
-        <v>62.5189684886003</v>
+        <v>67.8186321076884</v>
       </c>
     </row>
     <row r="376">
@@ -6957,7 +6957,7 @@
         <v>9</v>
       </c>
       <c r="E376" t="n">
-        <v>53.7310387009781</v>
+        <v>55.8918389433551</v>
       </c>
     </row>
     <row r="377">
@@ -6974,7 +6974,7 @@
         <v>5</v>
       </c>
       <c r="E377" t="n">
-        <v>61.1789586279361</v>
+        <v>62.9897976367876</v>
       </c>
     </row>
     <row r="378">
@@ -6991,7 +6991,7 @@
         <v>7</v>
       </c>
       <c r="E378" t="n">
-        <v>67.8025800210607</v>
+        <v>65.9481970789202</v>
       </c>
     </row>
     <row r="379">
@@ -7008,7 +7008,7 @@
         <v>8</v>
       </c>
       <c r="E379" t="n">
-        <v>61.3989536760807</v>
+        <v>67.2930685186991</v>
       </c>
     </row>
     <row r="380">
@@ -7025,7 +7025,7 @@
         <v>9</v>
       </c>
       <c r="E380" t="n">
-        <v>54.4638615462766</v>
+        <v>56.2287997070159</v>
       </c>
     </row>
     <row r="381">
@@ -7042,7 +7042,7 @@
         <v>5</v>
       </c>
       <c r="E381" t="n">
-        <v>61.2217984144727</v>
+        <v>63.1566884348784</v>
       </c>
     </row>
     <row r="382">
@@ -7059,7 +7059,7 @@
         <v>7</v>
       </c>
       <c r="E382" t="n">
-        <v>66.5140586326669</v>
+        <v>64.4084141627667</v>
       </c>
     </row>
     <row r="383">
@@ -7076,7 +7076,7 @@
         <v>8</v>
       </c>
       <c r="E383" t="n">
-        <v>53.6870600900004</v>
+        <v>58.5779557973393</v>
       </c>
     </row>
     <row r="384">
@@ -7093,7 +7093,7 @@
         <v>9</v>
       </c>
       <c r="E384" t="n">
-        <v>54.6976226524483</v>
+        <v>57.4070077966823</v>
       </c>
     </row>
     <row r="385">
@@ -7110,7 +7110,7 @@
         <v>5</v>
       </c>
       <c r="E385" t="n">
-        <v>58.2995804583719</v>
+        <v>60.1311259189294</v>
       </c>
     </row>
     <row r="386">
@@ -7127,7 +7127,7 @@
         <v>7</v>
       </c>
       <c r="E386" t="n">
-        <v>61.2517444439365</v>
+        <v>55.6410372280829</v>
       </c>
     </row>
     <row r="387">
@@ -7144,7 +7144,7 @@
         <v>8</v>
       </c>
       <c r="E387" t="n">
-        <v>60.1398650819015</v>
+        <v>60.9019704827398</v>
       </c>
     </row>
     <row r="388">
@@ -7161,7 +7161,7 @@
         <v>9</v>
       </c>
       <c r="E388" t="n">
-        <v>49.1361769460046</v>
+        <v>46.0657872652916</v>
       </c>
     </row>
     <row r="389">
@@ -7178,7 +7178,7 @@
         <v>5</v>
       </c>
       <c r="E389" t="n">
-        <v>56.8425954906142</v>
+        <v>54.2029316587048</v>
       </c>
     </row>
     <row r="390">
@@ -7195,7 +7195,7 @@
         <v>7</v>
       </c>
       <c r="E390" t="n">
-        <v>66.7242773962876</v>
+        <v>61.1482742342206</v>
       </c>
     </row>
     <row r="391">
@@ -7212,7 +7212,7 @@
         <v>8</v>
       </c>
       <c r="E391" t="n">
-        <v>61.6556416228246</v>
+        <v>61.443495067419</v>
       </c>
     </row>
     <row r="392">
@@ -7229,7 +7229,7 @@
         <v>9</v>
       </c>
       <c r="E392" t="n">
-        <v>50.0769559644668</v>
+        <v>47.1176852609146</v>
       </c>
     </row>
     <row r="393">
@@ -7246,7 +7246,7 @@
         <v>5</v>
       </c>
       <c r="E393" t="n">
-        <v>59.4856249945263</v>
+        <v>56.569818187518</v>
       </c>
     </row>
     <row r="394">
@@ -7263,7 +7263,7 @@
         <v>7</v>
       </c>
       <c r="E394" t="n">
-        <v>64.8398334563352</v>
+        <v>60.132250710776</v>
       </c>
     </row>
     <row r="395">
@@ -7280,7 +7280,7 @@
         <v>8</v>
       </c>
       <c r="E395" t="n">
-        <v>60.4858178898953</v>
+        <v>60.9185347050579</v>
       </c>
     </row>
     <row r="396">
@@ -7297,7 +7297,7 @@
         <v>9</v>
       </c>
       <c r="E396" t="n">
-        <v>49.9010297047044</v>
+        <v>49.0127927415023</v>
       </c>
     </row>
     <row r="397">
@@ -7314,7 +7314,7 @@
         <v>5</v>
       </c>
       <c r="E397" t="n">
-        <v>58.408893683645</v>
+        <v>56.6878593857787</v>
       </c>
     </row>
     <row r="398">
@@ -7331,7 +7331,7 @@
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>64.4066226927693</v>
+        <v>59.6970493510417</v>
       </c>
     </row>
     <row r="399">
@@ -7348,7 +7348,7 @@
         <v>8</v>
       </c>
       <c r="E399" t="n">
-        <v>62.5926254486146</v>
+        <v>62.6804730195379</v>
       </c>
     </row>
     <row r="400">
@@ -7365,7 +7365,7 @@
         <v>9</v>
       </c>
       <c r="E400" t="n">
-        <v>50.757164917371</v>
+        <v>52.3999108192424</v>
       </c>
     </row>
     <row r="401">
@@ -7382,7 +7382,7 @@
         <v>5</v>
       </c>
       <c r="E401" t="n">
-        <v>59.2521376862516</v>
+        <v>58.2591443966073</v>
       </c>
     </row>
     <row r="402">
@@ -7399,7 +7399,7 @@
         <v>7</v>
       </c>
       <c r="E402" t="n">
-        <v>66.8731998533625</v>
+        <v>62.9554669598692</v>
       </c>
     </row>
     <row r="403">
@@ -7416,7 +7416,7 @@
         <v>8</v>
       </c>
       <c r="E403" t="n">
-        <v>61.9529941899292</v>
+        <v>62.1385734015058</v>
       </c>
     </row>
     <row r="404">
@@ -7433,7 +7433,7 @@
         <v>9</v>
       </c>
       <c r="E404" t="n">
-        <v>51.44326511526</v>
+        <v>53.0060337505025</v>
       </c>
     </row>
     <row r="405">
@@ -7450,7 +7450,7 @@
         <v>5</v>
       </c>
       <c r="E405" t="n">
-        <v>60.0898197195172</v>
+        <v>59.3666913706258</v>
       </c>
     </row>
     <row r="406">
@@ -7467,7 +7467,7 @@
         <v>7</v>
       </c>
       <c r="E406" t="n">
-        <v>66.1336758449886</v>
+        <v>62.8067772859499</v>
       </c>
     </row>
     <row r="407">
@@ -7484,7 +7484,7 @@
         <v>8</v>
       </c>
       <c r="E407" t="n">
-        <v>57.4398741455713</v>
+        <v>56.900792673608</v>
       </c>
     </row>
     <row r="408">
@@ -7501,7 +7501,7 @@
         <v>9</v>
       </c>
       <c r="E408" t="n">
-        <v>51.7985309890594</v>
+        <v>53.1987020565217</v>
       </c>
     </row>
     <row r="409">
@@ -7518,7 +7518,7 @@
         <v>5</v>
       </c>
       <c r="E409" t="n">
-        <v>58.4573603265398</v>
+        <v>57.6354240053599</v>
       </c>
     </row>
     <row r="410">
@@ -7535,7 +7535,7 @@
         <v>7</v>
       </c>
       <c r="E410" t="n">
-        <v>58.9250906749687</v>
+        <v>55.6902340798122</v>
       </c>
     </row>
     <row r="411">
@@ -7552,7 +7552,7 @@
         <v>8</v>
       </c>
       <c r="E411" t="n">
-        <v>59.6571719780603</v>
+        <v>65.2881575333486</v>
       </c>
     </row>
     <row r="412">
@@ -7569,7 +7569,7 @@
         <v>9</v>
       </c>
       <c r="E412" t="n">
-        <v>52.8144234693216</v>
+        <v>50.8295222580419</v>
       </c>
     </row>
     <row r="413">
@@ -7586,7 +7586,7 @@
         <v>5</v>
       </c>
       <c r="E413" t="n">
-        <v>57.1322287074502</v>
+        <v>57.2693046237342</v>
       </c>
     </row>
     <row r="414">
@@ -7603,7 +7603,7 @@
         <v>7</v>
       </c>
       <c r="E414" t="n">
-        <v>61.1056858558846</v>
+        <v>58.5160312324691</v>
       </c>
     </row>
     <row r="415">
@@ -7620,7 +7620,7 @@
         <v>8</v>
       </c>
       <c r="E415" t="n">
-        <v>59.4188134624514</v>
+        <v>64.4807895743338</v>
       </c>
     </row>
     <row r="416">
@@ -7637,7 +7637,7 @@
         <v>9</v>
       </c>
       <c r="E416" t="n">
-        <v>52.7673339400152</v>
+        <v>50.716463788404</v>
       </c>
     </row>
     <row r="417">
@@ -7654,7 +7654,7 @@
         <v>5</v>
       </c>
       <c r="E417" t="n">
-        <v>57.7639444194504</v>
+        <v>57.9044281984023</v>
       </c>
     </row>
     <row r="418">
@@ -7671,7 +7671,7 @@
         <v>7</v>
       </c>
       <c r="E418" t="n">
-        <v>61.9138841561606</v>
+        <v>59.407827984032</v>
       </c>
     </row>
     <row r="419">
@@ -7688,7 +7688,7 @@
         <v>8</v>
       </c>
       <c r="E419" t="n">
-        <v>57.9313076997882</v>
+        <v>62.9878837072589</v>
       </c>
     </row>
     <row r="420">
@@ -7705,7 +7705,7 @@
         <v>9</v>
       </c>
       <c r="E420" t="n">
-        <v>51.7165215223095</v>
+        <v>50.5262717096306</v>
       </c>
     </row>
     <row r="421">
@@ -7722,7 +7722,7 @@
         <v>5</v>
       </c>
       <c r="E421" t="n">
-        <v>57.1872377927528</v>
+        <v>57.6406611336405</v>
       </c>
     </row>
     <row r="422">
@@ -7739,7 +7739,7 @@
         <v>7</v>
       </c>
       <c r="E422" t="n">
-        <v>62.7560250931672</v>
+        <v>60.5867984400783</v>
       </c>
     </row>
     <row r="423">
@@ -7756,7 +7756,7 @@
         <v>8</v>
       </c>
       <c r="E423" t="n">
-        <v>60.202009038086</v>
+        <v>65.1224111734233</v>
       </c>
     </row>
     <row r="424">
@@ -7773,7 +7773,7 @@
         <v>9</v>
       </c>
       <c r="E424" t="n">
-        <v>53.3337054191199</v>
+        <v>54.7977787542888</v>
       </c>
     </row>
     <row r="425">
@@ -7790,7 +7790,7 @@
         <v>5</v>
       </c>
       <c r="E425" t="n">
-        <v>58.7639131834577</v>
+        <v>60.1689961225968</v>
       </c>
     </row>
     <row r="426">
@@ -7807,7 +7807,7 @@
         <v>7</v>
       </c>
       <c r="E426" t="n">
-        <v>60.4207162038437</v>
+        <v>57.9850406507839</v>
       </c>
     </row>
     <row r="427">
@@ -7824,7 +7824,7 @@
         <v>8</v>
       </c>
       <c r="E427" t="n">
-        <v>59.2451638658682</v>
+        <v>64.588943402026</v>
       </c>
     </row>
     <row r="428">
@@ -7841,7 +7841,7 @@
         <v>9</v>
       </c>
       <c r="E428" t="n">
-        <v>55.226952254888</v>
+        <v>56.6708348829971</v>
       </c>
     </row>
     <row r="429">
@@ -7858,7 +7858,7 @@
         <v>5</v>
       </c>
       <c r="E429" t="n">
-        <v>58.2976107748666</v>
+        <v>59.7482729786023</v>
       </c>
     </row>
     <row r="430">
@@ -7875,7 +7875,7 @@
         <v>7</v>
       </c>
       <c r="E430" t="n">
-        <v>61.6986251540516</v>
+        <v>59.1771883052197</v>
       </c>
     </row>
     <row r="431">
@@ -7892,7 +7892,7 @@
         <v>8</v>
       </c>
       <c r="E431" t="n">
-        <v>55.4735295923984</v>
+        <v>59.5277366070506</v>
       </c>
     </row>
     <row r="432">
@@ -7909,7 +7909,7 @@
         <v>9</v>
       </c>
       <c r="E432" t="n">
-        <v>56.1621277986704</v>
+        <v>57.8821379584927</v>
       </c>
     </row>
     <row r="433">
@@ -7926,7 +7926,7 @@
         <v>5</v>
       </c>
       <c r="E433" t="n">
-        <v>57.7780941817068</v>
+        <v>58.8623542902543</v>
       </c>
     </row>
     <row r="434">
@@ -7943,7 +7943,7 @@
         <v>7</v>
       </c>
       <c r="E434" t="n">
-        <v>68.6734692897052</v>
+        <v>65.8472599893617</v>
       </c>
     </row>
     <row r="435">
@@ -7960,7 +7960,7 @@
         <v>8</v>
       </c>
       <c r="E435" t="n">
-        <v>63.7202491629985</v>
+        <v>65.1131047600429</v>
       </c>
     </row>
     <row r="436">
@@ -7977,7 +7977,7 @@
         <v>9</v>
       </c>
       <c r="E436" t="n">
-        <v>54.8926604327883</v>
+        <v>52.3970988597518</v>
       </c>
     </row>
     <row r="437">
@@ -7994,7 +7994,7 @@
         <v>5</v>
       </c>
       <c r="E437" t="n">
-        <v>62.4287929618307</v>
+        <v>61.1191545363855</v>
       </c>
     </row>
     <row r="438">
@@ -8011,7 +8011,7 @@
         <v>7</v>
       </c>
       <c r="E438" t="n">
-        <v>73.9695853633724</v>
+        <v>71.6380507960671</v>
       </c>
     </row>
     <row r="439">
@@ -8028,7 +8028,7 @@
         <v>8</v>
       </c>
       <c r="E439" t="n">
-        <v>65.0872445809176</v>
+        <v>65.679157746872</v>
       </c>
     </row>
     <row r="440">
@@ -8045,7 +8045,7 @@
         <v>9</v>
       </c>
       <c r="E440" t="n">
-        <v>54.2267449433511</v>
+        <v>51.4831211569633</v>
       </c>
     </row>
     <row r="441">
@@ -8062,7 +8062,7 @@
         <v>5</v>
       </c>
       <c r="E441" t="n">
-        <v>64.4278582958804</v>
+        <v>62.9334432333008</v>
       </c>
     </row>
     <row r="442">
@@ -8079,7 +8079,7 @@
         <v>7</v>
       </c>
       <c r="E442" t="n">
-        <v>72.0722564434272</v>
+        <v>70.4162913193128</v>
       </c>
     </row>
     <row r="443">
@@ -8096,7 +8096,7 @@
         <v>8</v>
       </c>
       <c r="E443" t="n">
-        <v>61.3791406209611</v>
+        <v>62.30210844003</v>
       </c>
     </row>
     <row r="444">
@@ -8113,7 +8113,7 @@
         <v>9</v>
       </c>
       <c r="E444" t="n">
-        <v>52.2196994156946</v>
+        <v>51.8434089535571</v>
       </c>
     </row>
     <row r="445">
@@ -8130,7 +8130,7 @@
         <v>5</v>
       </c>
       <c r="E445" t="n">
-        <v>61.890365493361</v>
+        <v>61.5206029043</v>
       </c>
     </row>
     <row r="446">
@@ -8147,7 +8147,7 @@
         <v>7</v>
       </c>
       <c r="E446" t="n">
-        <v>68.3114787771966</v>
+        <v>66.5366440455295</v>
       </c>
     </row>
     <row r="447">
@@ -8164,7 +8164,7 @@
         <v>8</v>
       </c>
       <c r="E447" t="n">
-        <v>64.6506778755455</v>
+        <v>65.2461609135435</v>
       </c>
     </row>
     <row r="448">
@@ -8181,7 +8181,7 @@
         <v>9</v>
       </c>
       <c r="E448" t="n">
-        <v>53.3008404171202</v>
+        <v>56.1561057049506</v>
       </c>
     </row>
     <row r="449">
@@ -8198,7 +8198,7 @@
         <v>5</v>
       </c>
       <c r="E449" t="n">
-        <v>62.0876656899541</v>
+        <v>62.6463035546745</v>
       </c>
     </row>
     <row r="450">
@@ -8215,7 +8215,7 @@
         <v>7</v>
       </c>
       <c r="E450" t="n">
-        <v>72.1079846184698</v>
+        <v>70.4449528422815</v>
       </c>
     </row>
     <row r="451">
@@ -8232,7 +8232,7 @@
         <v>8</v>
       </c>
       <c r="E451" t="n">
-        <v>62.991857127039</v>
+        <v>63.6733400325024</v>
       </c>
     </row>
     <row r="452">
@@ -8249,7 +8249,7 @@
         <v>9</v>
       </c>
       <c r="E452" t="n">
-        <v>54.4421823997397</v>
+        <v>56.9464971086609</v>
       </c>
     </row>
     <row r="453">
@@ -8266,7 +8266,7 @@
         <v>5</v>
       </c>
       <c r="E453" t="n">
-        <v>63.1806747150828</v>
+        <v>63.6882633278149</v>
       </c>
     </row>
     <row r="454">
@@ -8283,7 +8283,7 @@
         <v>7</v>
       </c>
       <c r="E454" t="n">
-        <v>72.5868625814932</v>
+        <v>70.0581322191739</v>
       </c>
     </row>
     <row r="455">
@@ -8300,7 +8300,7 @@
         <v>8</v>
       </c>
       <c r="E455" t="n">
-        <v>61.6967658204849</v>
+        <v>60.8333339780486</v>
       </c>
     </row>
     <row r="456">
@@ -8317,7 +8317,7 @@
         <v>9</v>
       </c>
       <c r="E456" t="n">
-        <v>55.4760426163196</v>
+        <v>59.112220519517</v>
       </c>
     </row>
     <row r="457">
@@ -8334,7 +8334,7 @@
         <v>5</v>
       </c>
       <c r="E457" t="n">
-        <v>63.2532236727659</v>
+        <v>63.3345622389132</v>
       </c>
     </row>
     <row r="458">
@@ -8351,7 +8351,7 @@
         <v>7</v>
       </c>
       <c r="E458" t="n">
-        <v>82.0672689890906</v>
+        <v>80.6962439903834</v>
       </c>
     </row>
     <row r="459">
@@ -8368,7 +8368,7 @@
         <v>8</v>
       </c>
       <c r="E459" t="n">
-        <v>67.468670486368</v>
+        <v>72.2716918844712</v>
       </c>
     </row>
     <row r="460">
@@ -8385,7 +8385,7 @@
         <v>9</v>
       </c>
       <c r="E460" t="n">
-        <v>59.697567302114</v>
+        <v>62.097770129846</v>
       </c>
     </row>
     <row r="461">
@@ -8402,7 +8402,7 @@
         <v>5</v>
       </c>
       <c r="E461" t="n">
-        <v>69.7445022591908</v>
+        <v>71.6885686682335</v>
       </c>
     </row>
     <row r="462">
@@ -8419,7 +8419,7 @@
         <v>7</v>
       </c>
       <c r="E462" t="n">
-        <v>79.8739623479149</v>
+        <v>78.6736276930058</v>
       </c>
     </row>
     <row r="463">
@@ -8436,7 +8436,7 @@
         <v>8</v>
       </c>
       <c r="E463" t="n">
-        <v>66.9647496570921</v>
+        <v>71.3668716366714</v>
       </c>
     </row>
     <row r="464">
@@ -8453,7 +8453,7 @@
         <v>9</v>
       </c>
       <c r="E464" t="n">
-        <v>58.5753526464754</v>
+        <v>59.8665165748013</v>
       </c>
     </row>
     <row r="465">
@@ -8470,7 +8470,7 @@
         <v>5</v>
       </c>
       <c r="E465" t="n">
-        <v>68.4713548838275</v>
+        <v>69.9690053014928</v>
       </c>
     </row>
     <row r="466">
@@ -8487,7 +8487,7 @@
         <v>7</v>
       </c>
       <c r="E466" t="n">
-        <v>80.1430205173365</v>
+        <v>78.9009032188009</v>
       </c>
     </row>
     <row r="467">
@@ -8504,7 +8504,7 @@
         <v>8</v>
       </c>
       <c r="E467" t="n">
-        <v>66.430441025838</v>
+        <v>70.9063107462975</v>
       </c>
     </row>
     <row r="468">
@@ -8521,7 +8521,7 @@
         <v>9</v>
       </c>
       <c r="E468" t="n">
-        <v>58.5763748720567</v>
+        <v>60.5315742850663</v>
       </c>
     </row>
     <row r="469">
@@ -8538,7 +8538,7 @@
         <v>5</v>
       </c>
       <c r="E469" t="n">
-        <v>68.3832788050771</v>
+        <v>70.1129294167216</v>
       </c>
     </row>
     <row r="470">
@@ -8555,7 +8555,7 @@
         <v>7</v>
       </c>
       <c r="E470" t="n">
-        <v>79.7468922052155</v>
+        <v>78.3937053562307</v>
       </c>
     </row>
     <row r="471">
@@ -8572,7 +8572,7 @@
         <v>8</v>
       </c>
       <c r="E471" t="n">
-        <v>68.1515376368039</v>
+        <v>72.053436211709</v>
       </c>
     </row>
     <row r="472">
@@ -8589,7 +8589,7 @@
         <v>9</v>
       </c>
       <c r="E472" t="n">
-        <v>61.0141102695734</v>
+        <v>65.6415820267851</v>
       </c>
     </row>
     <row r="473">
@@ -8606,7 +8606,7 @@
         <v>5</v>
       </c>
       <c r="E473" t="n">
-        <v>69.6375133705309</v>
+        <v>72.0295745315749</v>
       </c>
     </row>
     <row r="474">
@@ -8623,7 +8623,7 @@
         <v>7</v>
       </c>
       <c r="E474" t="n">
-        <v>78.687956905031</v>
+        <v>77.187323683984</v>
       </c>
     </row>
     <row r="475">
@@ -8640,7 +8640,7 @@
         <v>8</v>
       </c>
       <c r="E475" t="n">
-        <v>68.6946692313892</v>
+        <v>73.1870172012725</v>
       </c>
     </row>
     <row r="476">
@@ -8657,7 +8657,7 @@
         <v>9</v>
       </c>
       <c r="E476" t="n">
-        <v>62.3512917110152</v>
+        <v>66.1821743867822</v>
       </c>
     </row>
     <row r="477">
@@ -8674,7 +8674,7 @@
         <v>5</v>
       </c>
       <c r="E477" t="n">
-        <v>69.9113059491451</v>
+        <v>72.1855050906796</v>
       </c>
     </row>
     <row r="478">
@@ -8691,7 +8691,7 @@
         <v>7</v>
       </c>
       <c r="E478" t="n">
-        <v>80.3468163768104</v>
+        <v>78.8996985568772</v>
       </c>
     </row>
     <row r="479">
@@ -8708,7 +8708,7 @@
         <v>8</v>
       </c>
       <c r="E479" t="n">
-        <v>65.8448795878375</v>
+        <v>71.692322175449</v>
       </c>
     </row>
     <row r="480">
@@ -8725,7 +8725,7 @@
         <v>9</v>
       </c>
       <c r="E480" t="n">
-        <v>63.9363437973664</v>
+        <v>68.3743634275734</v>
       </c>
     </row>
     <row r="481">
@@ -8742,7 +8742,7 @@
         <v>5</v>
       </c>
       <c r="E481" t="n">
-        <v>70.0426799206715</v>
+        <v>72.9887947199665</v>
       </c>
     </row>
     <row r="482">
@@ -8759,7 +8759,7 @@
         <v>7</v>
       </c>
       <c r="E482" t="n">
-        <v>61.5957749096535</v>
+        <v>50.0717394660252</v>
       </c>
     </row>
     <row r="483">
@@ -8776,7 +8776,7 @@
         <v>8</v>
       </c>
       <c r="E483" t="n">
-        <v>57.4326760247558</v>
+        <v>58.3737891207703</v>
       </c>
     </row>
     <row r="484">
@@ -8793,7 +8793,7 @@
         <v>9</v>
       </c>
       <c r="E484" t="n">
-        <v>44.0295404309574</v>
+        <v>38.4376668204786</v>
       </c>
     </row>
     <row r="485">
@@ -8810,7 +8810,7 @@
         <v>5</v>
       </c>
       <c r="E485" t="n">
-        <v>54.3526637884556</v>
+        <v>48.961065135758</v>
       </c>
     </row>
     <row r="486">
@@ -8827,7 +8827,7 @@
         <v>7</v>
       </c>
       <c r="E486" t="n">
-        <v>58.874075033481</v>
+        <v>46.4574911539083</v>
       </c>
     </row>
     <row r="487">
@@ -8844,7 +8844,7 @@
         <v>8</v>
       </c>
       <c r="E487" t="n">
-        <v>54.0510394476007</v>
+        <v>55.9456607577732</v>
       </c>
     </row>
     <row r="488">
@@ -8861,7 +8861,7 @@
         <v>9</v>
       </c>
       <c r="E488" t="n">
-        <v>45.2426015185176</v>
+        <v>39.7554538117157</v>
       </c>
     </row>
     <row r="489">
@@ -8878,7 +8878,7 @@
         <v>5</v>
       </c>
       <c r="E489" t="n">
-        <v>52.7225719998664</v>
+        <v>47.386201907799</v>
       </c>
     </row>
     <row r="490">
@@ -8895,7 +8895,7 @@
         <v>7</v>
       </c>
       <c r="E490" t="n">
-        <v>58.7246243835052</v>
+        <v>47.4773460929092</v>
       </c>
     </row>
     <row r="491">
@@ -8912,7 +8912,7 @@
         <v>8</v>
       </c>
       <c r="E491" t="n">
-        <v>56.320788746535</v>
+        <v>58.1548251919668</v>
       </c>
     </row>
     <row r="492">
@@ -8929,7 +8929,7 @@
         <v>9</v>
       </c>
       <c r="E492" t="n">
-        <v>43.5607676702004</v>
+        <v>40.1244689560052</v>
       </c>
     </row>
     <row r="493">
@@ -8946,7 +8946,7 @@
         <v>5</v>
       </c>
       <c r="E493" t="n">
-        <v>52.8687269334135</v>
+        <v>48.5855467469604</v>
       </c>
     </row>
     <row r="494">
@@ -8963,7 +8963,7 @@
         <v>7</v>
       </c>
       <c r="E494" t="n">
-        <v>59.0480586264832</v>
+        <v>47.8895828273609</v>
       </c>
     </row>
     <row r="495">
@@ -8980,7 +8980,7 @@
         <v>8</v>
       </c>
       <c r="E495" t="n">
-        <v>55.6488254216732</v>
+        <v>57.1730353260569</v>
       </c>
     </row>
     <row r="496">
@@ -8997,7 +8997,7 @@
         <v>9</v>
       </c>
       <c r="E496" t="n">
-        <v>44.9862684829329</v>
+        <v>44.9321962995757</v>
       </c>
     </row>
     <row r="497">
@@ -9014,7 +9014,7 @@
         <v>5</v>
       </c>
       <c r="E497" t="n">
-        <v>53.2277175103631</v>
+        <v>49.9982714843311</v>
       </c>
     </row>
     <row r="498">
@@ -9031,7 +9031,7 @@
         <v>7</v>
       </c>
       <c r="E498" t="n">
-        <v>65.33648204863</v>
+        <v>55.3928594578399</v>
       </c>
     </row>
     <row r="499">
@@ -9048,7 +9048,7 @@
         <v>8</v>
       </c>
       <c r="E499" t="n">
-        <v>54.727301126157</v>
+        <v>56.9135469962935</v>
       </c>
     </row>
     <row r="500">
@@ -9065,7 +9065,7 @@
         <v>9</v>
       </c>
       <c r="E500" t="n">
-        <v>47.0998178549386</v>
+        <v>46.0562225514065</v>
       </c>
     </row>
     <row r="501">
@@ -9082,7 +9082,7 @@
         <v>5</v>
       </c>
       <c r="E501" t="n">
-        <v>55.7212003432419</v>
+        <v>52.7875430018467</v>
       </c>
     </row>
     <row r="502">
@@ -9099,7 +9099,7 @@
         <v>7</v>
       </c>
       <c r="E502" t="n">
-        <v>64.2251223520383</v>
+        <v>54.1827066206223</v>
       </c>
     </row>
     <row r="503">
@@ -9116,7 +9116,7 @@
         <v>8</v>
       </c>
       <c r="E503" t="n">
-        <v>48.1538514192657</v>
+        <v>50.1968551460541</v>
       </c>
     </row>
     <row r="504">
@@ -9133,7 +9133,7 @@
         <v>9</v>
       </c>
       <c r="E504" t="n">
-        <v>48.6094539120852</v>
+        <v>49.3129552589526</v>
       </c>
     </row>
     <row r="505">
@@ -9150,7 +9150,7 @@
         <v>5</v>
       </c>
       <c r="E505" t="n">
-        <v>53.6628092277964</v>
+        <v>51.230839008543</v>
       </c>
     </row>
     <row r="506">
@@ -9167,7 +9167,7 @@
         <v>7</v>
       </c>
       <c r="E506" t="n">
-        <v>60.0514664586323</v>
+        <v>54.4633908843764</v>
       </c>
     </row>
     <row r="507">
@@ -9184,7 +9184,7 @@
         <v>8</v>
       </c>
       <c r="E507" t="n">
-        <v>61.8421196751785</v>
+        <v>63.2754372002089</v>
       </c>
     </row>
     <row r="508">
@@ -9201,7 +9201,7 @@
         <v>9</v>
       </c>
       <c r="E508" t="n">
-        <v>51.1465264231413</v>
+        <v>46.509889636448</v>
       </c>
     </row>
     <row r="509">
@@ -9218,7 +9218,7 @@
         <v>5</v>
       </c>
       <c r="E509" t="n">
-        <v>57.680037518984</v>
+        <v>54.7495725736777</v>
       </c>
     </row>
     <row r="510">
@@ -9235,7 +9235,7 @@
         <v>7</v>
       </c>
       <c r="E510" t="n">
-        <v>62.8166624650317</v>
+        <v>57.7540813886158</v>
       </c>
     </row>
     <row r="511">
@@ -9252,7 +9252,7 @@
         <v>8</v>
       </c>
       <c r="E511" t="n">
-        <v>60.5287748425834</v>
+        <v>62.3978199233395</v>
       </c>
     </row>
     <row r="512">
@@ -9269,7 +9269,7 @@
         <v>9</v>
       </c>
       <c r="E512" t="n">
-        <v>51.5534327674976</v>
+        <v>47.288499477002</v>
       </c>
     </row>
     <row r="513">
@@ -9286,7 +9286,7 @@
         <v>5</v>
       </c>
       <c r="E513" t="n">
-        <v>58.2996233583709</v>
+        <v>55.8134669296524</v>
       </c>
     </row>
     <row r="514">
@@ -9303,7 +9303,7 @@
         <v>7</v>
       </c>
       <c r="E514" t="n">
-        <v>66.1807748188432</v>
+        <v>60.9382151614342</v>
       </c>
     </row>
     <row r="515">
@@ -9320,7 +9320,7 @@
         <v>8</v>
       </c>
       <c r="E515" t="n">
-        <v>58.3606376943914</v>
+        <v>60.9728171016268</v>
       </c>
     </row>
     <row r="516">
@@ -9337,7 +9337,7 @@
         <v>9</v>
       </c>
       <c r="E516" t="n">
-        <v>50.4707046105913</v>
+        <v>48.3623919311977</v>
       </c>
     </row>
     <row r="517">
@@ -9354,7 +9354,7 @@
         <v>5</v>
       </c>
       <c r="E517" t="n">
-        <v>58.3373723746087</v>
+        <v>56.7578080647529</v>
       </c>
     </row>
     <row r="518">
@@ -9371,7 +9371,7 @@
         <v>7</v>
       </c>
       <c r="E518" t="n">
-        <v>65.2711007716345</v>
+        <v>59.9999533984746</v>
       </c>
     </row>
     <row r="519">
@@ -9388,7 +9388,7 @@
         <v>8</v>
       </c>
       <c r="E519" t="n">
-        <v>59.934869811952</v>
+        <v>62.2103051598723</v>
       </c>
     </row>
     <row r="520">
@@ -9405,7 +9405,7 @@
         <v>9</v>
       </c>
       <c r="E520" t="n">
-        <v>53.1485494906309</v>
+        <v>54.6415650511674</v>
       </c>
     </row>
     <row r="521">
@@ -9422,7 +9422,7 @@
         <v>5</v>
       </c>
       <c r="E521" t="n">
-        <v>59.4515066914058</v>
+        <v>58.9506078698381</v>
       </c>
     </row>
     <row r="522">
@@ -9439,7 +9439,7 @@
         <v>7</v>
       </c>
       <c r="E522" t="n">
-        <v>64.6515211693695</v>
+        <v>59.3969963691556</v>
       </c>
     </row>
     <row r="523">
@@ -9456,7 +9456,7 @@
         <v>8</v>
       </c>
       <c r="E523" t="n">
-        <v>59.3995275068078</v>
+        <v>61.663128260813</v>
       </c>
     </row>
     <row r="524">
@@ -9473,7 +9473,7 @@
         <v>9</v>
       </c>
       <c r="E524" t="n">
-        <v>55.1618125228378</v>
+        <v>55.197119814304</v>
       </c>
     </row>
     <row r="525">
@@ -9490,7 +9490,7 @@
         <v>5</v>
       </c>
       <c r="E525" t="n">
-        <v>59.7376203996717</v>
+        <v>58.7524148147575</v>
       </c>
     </row>
     <row r="526">
@@ -9507,7 +9507,7 @@
         <v>7</v>
       </c>
       <c r="E526" t="n">
-        <v>63.348842545864</v>
+        <v>58.4964404802606</v>
       </c>
     </row>
     <row r="527">
@@ -9524,7 +9524,7 @@
         <v>8</v>
       </c>
       <c r="E527" t="n">
-        <v>52.8417245675264</v>
+        <v>54.8922352263148</v>
       </c>
     </row>
     <row r="528">
@@ -9541,7 +9541,7 @@
         <v>9</v>
       </c>
       <c r="E528" t="n">
-        <v>54.9302397903678</v>
+        <v>55.996287771084</v>
       </c>
     </row>
     <row r="529">
@@ -9558,7 +9558,7 @@
         <v>5</v>
       </c>
       <c r="E529" t="n">
-        <v>57.0402689679194</v>
+        <v>56.4616544925531</v>
       </c>
     </row>
     <row r="530">
@@ -9575,7 +9575,7 @@
         <v>7</v>
       </c>
       <c r="E530" t="n">
-        <v>81.6340902818744</v>
+        <v>79.5047593157295</v>
       </c>
     </row>
     <row r="531">
@@ -9592,7 +9592,7 @@
         <v>8</v>
       </c>
       <c r="E531" t="n">
-        <v>71.723717130688</v>
+        <v>74.255021770182</v>
       </c>
     </row>
     <row r="532">
@@ -9609,7 +9609,7 @@
         <v>9</v>
       </c>
       <c r="E532" t="n">
-        <v>57.4260144715141</v>
+        <v>54.3985379527714</v>
       </c>
     </row>
     <row r="533">
@@ -9626,7 +9626,7 @@
         <v>5</v>
       </c>
       <c r="E533" t="n">
-        <v>70.2612739613589</v>
+        <v>69.3861063462276</v>
       </c>
     </row>
     <row r="534">
@@ -9643,7 +9643,7 @@
         <v>7</v>
       </c>
       <c r="E534" t="n">
-        <v>79.7556877085664</v>
+        <v>77.5463724270522</v>
       </c>
     </row>
     <row r="535">
@@ -9660,7 +9660,7 @@
         <v>8</v>
       </c>
       <c r="E535" t="n">
-        <v>70.1007933360952</v>
+        <v>72.9812462084954</v>
       </c>
     </row>
     <row r="536">
@@ -9677,7 +9677,7 @@
         <v>9</v>
       </c>
       <c r="E536" t="n">
-        <v>58.3700792534375</v>
+        <v>55.2144349999032</v>
       </c>
     </row>
     <row r="537">
@@ -9694,7 +9694,7 @@
         <v>5</v>
       </c>
       <c r="E537" t="n">
-        <v>69.4088534326997</v>
+        <v>68.5806845451503</v>
       </c>
     </row>
     <row r="538">
@@ -9711,7 +9711,7 @@
         <v>7</v>
       </c>
       <c r="E538" t="n">
-        <v>80.3632354807932</v>
+        <v>78.3549255621741</v>
       </c>
     </row>
     <row r="539">
@@ -9728,7 +9728,7 @@
         <v>8</v>
       </c>
       <c r="E539" t="n">
-        <v>70.1988359774267</v>
+        <v>73.0595683796646</v>
       </c>
     </row>
     <row r="540">
@@ -9745,7 +9745,7 @@
         <v>9</v>
       </c>
       <c r="E540" t="n">
-        <v>57.0304441893915</v>
+        <v>55.8145082614715</v>
       </c>
     </row>
     <row r="541">
@@ -9762,7 +9762,7 @@
         <v>5</v>
       </c>
       <c r="E541" t="n">
-        <v>69.1975052158705</v>
+        <v>69.07633406777</v>
       </c>
     </row>
     <row r="542">
@@ -9779,7 +9779,7 @@
         <v>7</v>
       </c>
       <c r="E542" t="n">
-        <v>76.8902652415251</v>
+        <v>74.591237855513</v>
       </c>
     </row>
     <row r="543">
@@ -9796,7 +9796,7 @@
         <v>8</v>
       </c>
       <c r="E543" t="n">
-        <v>70.6968220314362</v>
+        <v>74.1276689230659</v>
       </c>
     </row>
     <row r="544">
@@ -9813,7 +9813,7 @@
         <v>9</v>
       </c>
       <c r="E544" t="n">
-        <v>58.341713641829</v>
+        <v>59.9422781098053</v>
       </c>
     </row>
     <row r="545">
@@ -9830,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="E545" t="n">
-        <v>68.6429336382634</v>
+        <v>69.553728296128</v>
       </c>
     </row>
     <row r="546">
@@ -9847,7 +9847,7 @@
         <v>7</v>
       </c>
       <c r="E546" t="n">
-        <v>76.6215514092188</v>
+        <v>74.0911830014256</v>
       </c>
     </row>
     <row r="547">
@@ -9864,7 +9864,7 @@
         <v>8</v>
       </c>
       <c r="E547" t="n">
-        <v>70.0037622521812</v>
+        <v>73.8741517315957</v>
       </c>
     </row>
     <row r="548">
@@ -9881,7 +9881,7 @@
         <v>9</v>
       </c>
       <c r="E548" t="n">
-        <v>59.6385421571486</v>
+        <v>60.4763275285692</v>
       </c>
     </row>
     <row r="549">
@@ -9898,7 +9898,7 @@
         <v>5</v>
       </c>
       <c r="E549" t="n">
-        <v>68.7546186061829</v>
+        <v>69.4805540871968</v>
       </c>
     </row>
     <row r="550">
@@ -9915,7 +9915,7 @@
         <v>7</v>
       </c>
       <c r="E550" t="n">
-        <v>76.8063078885074</v>
+        <v>74.7314161070854</v>
       </c>
     </row>
     <row r="551">
@@ -9932,7 +9932,7 @@
         <v>8</v>
       </c>
       <c r="E551" t="n">
-        <v>67.0490373844134</v>
+        <v>72.432928099506</v>
       </c>
     </row>
     <row r="552">
@@ -9949,7 +9949,7 @@
         <v>9</v>
       </c>
       <c r="E552" t="n">
-        <v>61.5648561923571</v>
+        <v>64.0095101950721</v>
       </c>
     </row>
     <row r="553">
@@ -9966,7 +9966,7 @@
         <v>5</v>
       </c>
       <c r="E553" t="n">
-        <v>68.473400488426</v>
+        <v>70.3912848005545</v>
       </c>
     </row>
     <row r="554">
@@ -9983,7 +9983,7 @@
         <v>7</v>
       </c>
       <c r="E554" t="n">
-        <v>78.2380083838795</v>
+        <v>75.8223476653771</v>
       </c>
     </row>
     <row r="555">
@@ -10000,7 +10000,7 @@
         <v>8</v>
       </c>
       <c r="E555" t="n">
-        <v>69.2550327663436</v>
+        <v>71.5501309878444</v>
       </c>
     </row>
     <row r="556">
@@ -10017,7 +10017,7 @@
         <v>9</v>
       </c>
       <c r="E556" t="n">
-        <v>52.8511483496194</v>
+        <v>50.4429342466162</v>
       </c>
     </row>
     <row r="557">
@@ -10034,7 +10034,7 @@
         <v>5</v>
       </c>
       <c r="E557" t="n">
-        <v>66.7813964999475</v>
+        <v>65.9384709666126</v>
       </c>
     </row>
     <row r="558">
@@ -10051,7 +10051,7 @@
         <v>7</v>
       </c>
       <c r="E558" t="n">
-        <v>77.1245476846874</v>
+        <v>74.5933116141969</v>
       </c>
     </row>
     <row r="559">
@@ -10068,7 +10068,7 @@
         <v>8</v>
       </c>
       <c r="E559" t="n">
-        <v>68.9460837257788</v>
+        <v>71.6895041416344</v>
       </c>
     </row>
     <row r="560">
@@ -10085,7 +10085,7 @@
         <v>9</v>
       </c>
       <c r="E560" t="n">
-        <v>53.9463731831999</v>
+        <v>51.9964075830564</v>
       </c>
     </row>
     <row r="561">
@@ -10102,7 +10102,7 @@
         <v>5</v>
       </c>
       <c r="E561" t="n">
-        <v>66.6723348645554</v>
+        <v>66.0930744462959</v>
       </c>
     </row>
     <row r="562">
@@ -10119,7 +10119,7 @@
         <v>7</v>
       </c>
       <c r="E562" t="n">
-        <v>77.9338507650271</v>
+        <v>75.5575711177639</v>
       </c>
     </row>
     <row r="563">
@@ -10136,7 +10136,7 @@
         <v>8</v>
       </c>
       <c r="E563" t="n">
-        <v>68.611337038724</v>
+        <v>72.0593222141666</v>
       </c>
     </row>
     <row r="564">
@@ -10153,7 +10153,7 @@
         <v>9</v>
       </c>
       <c r="E564" t="n">
-        <v>51.8789829378858</v>
+        <v>51.8257090353736</v>
       </c>
     </row>
     <row r="565">
@@ -10170,7 +10170,7 @@
         <v>5</v>
       </c>
       <c r="E565" t="n">
-        <v>66.1413902472123</v>
+        <v>66.4808674557681</v>
       </c>
     </row>
     <row r="566">
@@ -10187,7 +10187,7 @@
         <v>7</v>
       </c>
       <c r="E566" t="n">
-        <v>72.8621212434106</v>
+        <v>70.3927471934938</v>
       </c>
     </row>
     <row r="567">
@@ -10204,7 +10204,7 @@
         <v>8</v>
       </c>
       <c r="E567" t="n">
-        <v>70.171164160408</v>
+        <v>73.5553743287344</v>
       </c>
     </row>
     <row r="568">
@@ -10221,7 +10221,7 @@
         <v>9</v>
       </c>
       <c r="E568" t="n">
-        <v>52.1577180258842</v>
+        <v>56.1617299817326</v>
       </c>
     </row>
     <row r="569">
@@ -10238,7 +10238,7 @@
         <v>5</v>
       </c>
       <c r="E569" t="n">
-        <v>65.0636678099009</v>
+        <v>66.7032838346536</v>
       </c>
     </row>
     <row r="570">
@@ -10255,7 +10255,7 @@
         <v>7</v>
       </c>
       <c r="E570" t="n">
-        <v>70.9071407800101</v>
+        <v>68.3489021432245</v>
       </c>
     </row>
     <row r="571">
@@ -10272,7 +10272,7 @@
         <v>8</v>
       </c>
       <c r="E571" t="n">
-        <v>69.5790041616257</v>
+        <v>73.8322754517607</v>
       </c>
     </row>
     <row r="572">
@@ -10289,7 +10289,7 @@
         <v>9</v>
       </c>
       <c r="E572" t="n">
-        <v>54.7068852596858</v>
+        <v>57.805616172159</v>
       </c>
     </row>
     <row r="573">
@@ -10306,7 +10306,7 @@
         <v>5</v>
       </c>
       <c r="E573" t="n">
-        <v>65.0643434004406</v>
+        <v>66.6622645890481</v>
       </c>
     </row>
     <row r="574">
@@ -10323,7 +10323,7 @@
         <v>7</v>
       </c>
       <c r="E574" t="n">
-        <v>72.5315730793555</v>
+        <v>69.8856990599837</v>
       </c>
     </row>
     <row r="575">
@@ -10340,7 +10340,7 @@
         <v>8</v>
       </c>
       <c r="E575" t="n">
-        <v>64.1362503455555</v>
+        <v>71.6620873911296</v>
       </c>
     </row>
     <row r="576">
@@ -10357,7 +10357,7 @@
         <v>9</v>
       </c>
       <c r="E576" t="n">
-        <v>55.4078865838356</v>
+        <v>58.0019910070792</v>
       </c>
     </row>
     <row r="577">
@@ -10374,7 +10374,7 @@
         <v>5</v>
       </c>
       <c r="E577" t="n">
-        <v>64.0252366695822</v>
+        <v>66.5165924860642</v>
       </c>
     </row>
     <row r="578">
@@ -10391,7 +10391,7 @@
         <v>7</v>
       </c>
       <c r="E578" t="n">
-        <v>71.8944921726928</v>
+        <v>65.3119311785224</v>
       </c>
     </row>
     <row r="579">
@@ -10408,7 +10408,7 @@
         <v>8</v>
       </c>
       <c r="E579" t="n">
-        <v>60.3856371194952</v>
+        <v>63.1661813736054</v>
       </c>
     </row>
     <row r="580">
@@ -10425,7 +10425,7 @@
         <v>9</v>
       </c>
       <c r="E580" t="n">
-        <v>53.1842541386342</v>
+        <v>52.1105695615005</v>
       </c>
     </row>
     <row r="581">
@@ -10442,7 +10442,7 @@
         <v>5</v>
       </c>
       <c r="E581" t="n">
-        <v>61.8214611436074</v>
+        <v>60.1962273712094</v>
       </c>
     </row>
     <row r="582">
@@ -10459,7 +10459,7 @@
         <v>7</v>
       </c>
       <c r="E582" t="n">
-        <v>73.1634028000403</v>
+        <v>67.0629373353714</v>
       </c>
     </row>
     <row r="583">
@@ -10476,7 +10476,7 @@
         <v>8</v>
       </c>
       <c r="E583" t="n">
-        <v>61.2037631886971</v>
+        <v>63.9981493037836</v>
       </c>
     </row>
     <row r="584">
@@ -10493,7 +10493,7 @@
         <v>9</v>
       </c>
       <c r="E584" t="n">
-        <v>53.4309782287122</v>
+        <v>51.4757260940107</v>
       </c>
     </row>
     <row r="585">
@@ -10510,7 +10510,7 @@
         <v>5</v>
       </c>
       <c r="E585" t="n">
-        <v>62.5993814058165</v>
+        <v>60.8456042443886</v>
       </c>
     </row>
     <row r="586">
@@ -10527,7 +10527,7 @@
         <v>7</v>
       </c>
       <c r="E586" t="n">
-        <v>71.3126667492148</v>
+        <v>66.7649512217275</v>
       </c>
     </row>
     <row r="587">
@@ -10544,7 +10544,7 @@
         <v>8</v>
       </c>
       <c r="E587" t="n">
-        <v>58.0822543459567</v>
+        <v>61.7860636968518</v>
       </c>
     </row>
     <row r="588">
@@ -10561,7 +10561,7 @@
         <v>9</v>
       </c>
       <c r="E588" t="n">
-        <v>52.0653257472184</v>
+        <v>50.9903967353206</v>
       </c>
     </row>
     <row r="589">
@@ -10578,7 +10578,7 @@
         <v>5</v>
       </c>
       <c r="E589" t="n">
-        <v>60.4867489474633</v>
+        <v>59.8471372179666</v>
       </c>
     </row>
     <row r="590">
@@ -10595,7 +10595,7 @@
         <v>7</v>
       </c>
       <c r="E590" t="n">
-        <v>72.767898002137</v>
+        <v>68.0968956207535</v>
       </c>
     </row>
     <row r="591">
@@ -10612,7 +10612,7 @@
         <v>8</v>
       </c>
       <c r="E591" t="n">
-        <v>58.3805093934095</v>
+        <v>61.8385241176533</v>
       </c>
     </row>
     <row r="592">
@@ -10629,7 +10629,7 @@
         <v>9</v>
       </c>
       <c r="E592" t="n">
-        <v>52.9988317091292</v>
+        <v>55.8361665793182</v>
       </c>
     </row>
     <row r="593">
@@ -10646,7 +10646,7 @@
         <v>5</v>
       </c>
       <c r="E593" t="n">
-        <v>61.3824130348919</v>
+        <v>61.9238621059083</v>
       </c>
     </row>
     <row r="594">
@@ -10663,7 +10663,7 @@
         <v>7</v>
       </c>
       <c r="E594" t="n">
-        <v>71.1821780497597</v>
+        <v>66.4622797400021</v>
       </c>
     </row>
     <row r="595">
@@ -10680,7 +10680,7 @@
         <v>8</v>
       </c>
       <c r="E595" t="n">
-        <v>57.861422008264</v>
+        <v>61.7079795559504</v>
       </c>
     </row>
     <row r="596">
@@ -10697,7 +10697,7 @@
         <v>9</v>
       </c>
       <c r="E596" t="n">
-        <v>54.2843326424688</v>
+        <v>57.2540159771668</v>
       </c>
     </row>
     <row r="597">
@@ -10714,7 +10714,7 @@
         <v>5</v>
       </c>
       <c r="E597" t="n">
-        <v>61.1093109001642</v>
+        <v>61.8080917577065</v>
       </c>
     </row>
     <row r="598">
@@ -10731,7 +10731,7 @@
         <v>7</v>
       </c>
       <c r="E598" t="n">
-        <v>68.9633126842174</v>
+        <v>63.5630275823774</v>
       </c>
     </row>
     <row r="599">
@@ -10748,7 +10748,7 @@
         <v>8</v>
       </c>
       <c r="E599" t="n">
-        <v>52.4513846233436</v>
+        <v>55.810871282141</v>
       </c>
     </row>
     <row r="600">
@@ -10765,7 +10765,7 @@
         <v>9</v>
       </c>
       <c r="E600" t="n">
-        <v>55.2868135140848</v>
+        <v>59.0696543914716</v>
       </c>
     </row>
     <row r="601">
@@ -10782,7 +10782,7 @@
         <v>5</v>
       </c>
       <c r="E601" t="n">
-        <v>58.9005036072153</v>
+        <v>59.4811844186633</v>
       </c>
     </row>
     <row r="602">
@@ -10799,7 +10799,7 @@
         <v>7</v>
       </c>
       <c r="E602" t="n">
-        <v>75.0218597697902</v>
+        <v>72.29704677071</v>
       </c>
     </row>
     <row r="603">
@@ -10816,7 +10816,7 @@
         <v>8</v>
       </c>
       <c r="E603" t="n">
-        <v>69.2410163786374</v>
+        <v>71.0428834747703</v>
       </c>
     </row>
     <row r="604">
@@ -10833,7 +10833,7 @@
         <v>9</v>
       </c>
       <c r="E604" t="n">
-        <v>56.1862993941368</v>
+        <v>53.4966586197704</v>
       </c>
     </row>
     <row r="605">
@@ -10850,7 +10850,7 @@
         <v>5</v>
       </c>
       <c r="E605" t="n">
-        <v>66.8163918475215</v>
+        <v>65.6121962884169</v>
       </c>
     </row>
     <row r="606">
@@ -10867,7 +10867,7 @@
         <v>7</v>
       </c>
       <c r="E606" t="n">
-        <v>73.6899731588984</v>
+        <v>71.0971597055455</v>
       </c>
     </row>
     <row r="607">
@@ -10884,7 +10884,7 @@
         <v>8</v>
       </c>
       <c r="E607" t="n">
-        <v>68.3394453838048</v>
+        <v>70.1596570480869</v>
       </c>
     </row>
     <row r="608">
@@ -10901,7 +10901,7 @@
         <v>9</v>
       </c>
       <c r="E608" t="n">
-        <v>57.5361563133451</v>
+        <v>54.7756667777903</v>
       </c>
     </row>
     <row r="609">
@@ -10918,7 +10918,7 @@
         <v>5</v>
       </c>
       <c r="E609" t="n">
-        <v>66.5218582853494</v>
+        <v>65.3441611771409</v>
       </c>
     </row>
     <row r="610">
@@ -10935,7 +10935,7 @@
         <v>7</v>
       </c>
       <c r="E610" t="n">
-        <v>76.7849259080745</v>
+        <v>74.4861398510583</v>
       </c>
     </row>
     <row r="611">
@@ -10952,7 +10952,7 @@
         <v>8</v>
       </c>
       <c r="E611" t="n">
-        <v>67.0918852935765</v>
+        <v>69.846160401335</v>
       </c>
     </row>
     <row r="612">
@@ -10969,7 +10969,7 @@
         <v>9</v>
       </c>
       <c r="E612" t="n">
-        <v>57.4373737152024</v>
+        <v>59.5299294528692</v>
       </c>
     </row>
     <row r="613">
@@ -10986,7 +10986,7 @@
         <v>5</v>
       </c>
       <c r="E613" t="n">
-        <v>67.1047283056178</v>
+        <v>67.9540765684208</v>
       </c>
     </row>
     <row r="614">
@@ -11003,7 +11003,7 @@
         <v>7</v>
       </c>
       <c r="E614" t="n">
-        <v>75.5411089957262</v>
+        <v>73.2653029783902</v>
       </c>
     </row>
     <row r="615">
@@ -11020,7 +11020,7 @@
         <v>8</v>
       </c>
       <c r="E615" t="n">
-        <v>67.9723482762438</v>
+        <v>70.6162095116558</v>
       </c>
     </row>
     <row r="616">
@@ -11037,7 +11037,7 @@
         <v>9</v>
       </c>
       <c r="E616" t="n">
-        <v>58.678572284787</v>
+        <v>61.0204181212759</v>
       </c>
     </row>
     <row r="617">
@@ -11054,7 +11054,7 @@
         <v>5</v>
       </c>
       <c r="E617" t="n">
-        <v>67.3973431855857</v>
+        <v>68.3006435371073</v>
       </c>
     </row>
     <row r="618">
@@ -11071,7 +11071,7 @@
         <v>7</v>
       </c>
       <c r="E618" t="n">
-        <v>78.618483778277</v>
+        <v>76.5981599875101</v>
       </c>
     </row>
     <row r="619">
@@ -11088,7 +11088,7 @@
         <v>8</v>
       </c>
       <c r="E619" t="n">
-        <v>67.0818888750835</v>
+        <v>70.254171185781</v>
       </c>
     </row>
     <row r="620">
@@ -11105,7 +11105,7 @@
         <v>9</v>
       </c>
       <c r="E620" t="n">
-        <v>59.2552056246782</v>
+        <v>60.7227282669962</v>
       </c>
     </row>
     <row r="621">
@@ -11122,7 +11122,7 @@
         <v>5</v>
       </c>
       <c r="E621" t="n">
-        <v>68.3185260926796</v>
+        <v>69.1916864800958</v>
       </c>
     </row>
     <row r="622">
@@ -11139,7 +11139,7 @@
         <v>7</v>
       </c>
       <c r="E622" t="n">
-        <v>80.2006478237825</v>
+        <v>78.1720584299887</v>
       </c>
     </row>
     <row r="623">
@@ -11156,7 +11156,7 @@
         <v>8</v>
       </c>
       <c r="E623" t="n">
-        <v>65.3071119780061</v>
+        <v>67.5797337684712</v>
       </c>
     </row>
     <row r="624">
@@ -11173,7 +11173,7 @@
         <v>9</v>
       </c>
       <c r="E624" t="n">
-        <v>61.0881501776232</v>
+        <v>64.2035923188732</v>
       </c>
     </row>
     <row r="625">
@@ -11190,7 +11190,7 @@
         <v>5</v>
       </c>
       <c r="E625" t="n">
-        <v>68.8653033264706</v>
+        <v>69.9851281724444</v>
       </c>
     </row>
     <row r="626">
@@ -11207,7 +11207,7 @@
         <v>7</v>
       </c>
       <c r="E626" t="n">
-        <v>76.2777919613977</v>
+        <v>73.8592988425503</v>
       </c>
     </row>
     <row r="627">
@@ -11224,7 +11224,7 @@
         <v>8</v>
       </c>
       <c r="E627" t="n">
-        <v>69.1565331153701</v>
+        <v>71.4483001332618</v>
       </c>
     </row>
     <row r="628">
@@ -11241,7 +11241,7 @@
         <v>9</v>
       </c>
       <c r="E628" t="n">
-        <v>57.0246590688616</v>
+        <v>57.286011991197</v>
       </c>
     </row>
     <row r="629">
@@ -11258,7 +11258,7 @@
         <v>5</v>
       </c>
       <c r="E629" t="n">
-        <v>67.4863280485432</v>
+        <v>67.5312036556697</v>
       </c>
     </row>
     <row r="630">
@@ -11275,7 +11275,7 @@
         <v>7</v>
       </c>
       <c r="E630" t="n">
-        <v>76.2918156907162</v>
+        <v>74.2582612124164</v>
       </c>
     </row>
     <row r="631">
@@ -11292,7 +11292,7 @@
         <v>8</v>
       </c>
       <c r="E631" t="n">
-        <v>69.9103864047835</v>
+        <v>71.933204992598</v>
       </c>
     </row>
     <row r="632">
@@ -11309,7 +11309,7 @@
         <v>9</v>
       </c>
       <c r="E632" t="n">
-        <v>57.3659786133027</v>
+        <v>57.2458334574264</v>
       </c>
     </row>
     <row r="633">
@@ -11326,7 +11326,7 @@
         <v>5</v>
       </c>
       <c r="E633" t="n">
-        <v>67.8560602362675</v>
+        <v>67.8124332208136</v>
       </c>
     </row>
     <row r="634">
@@ -11343,7 +11343,7 @@
         <v>7</v>
       </c>
       <c r="E634" t="n">
-        <v>78.376880034378</v>
+        <v>77.0157992276933</v>
       </c>
     </row>
     <row r="635">
@@ -11360,7 +11360,7 @@
         <v>8</v>
       </c>
       <c r="E635" t="n">
-        <v>69.9968338839046</v>
+        <v>70.899272541428</v>
       </c>
     </row>
     <row r="636">
@@ -11377,7 +11377,7 @@
         <v>9</v>
       </c>
       <c r="E636" t="n">
-        <v>55.9859714984161</v>
+        <v>58.3250339560669</v>
       </c>
     </row>
     <row r="637">
@@ -11394,7 +11394,7 @@
         <v>5</v>
       </c>
       <c r="E637" t="n">
-        <v>68.1198951388996</v>
+        <v>68.7467019083961</v>
       </c>
     </row>
     <row r="638">
@@ -11411,7 +11411,7 @@
         <v>7</v>
       </c>
       <c r="E638" t="n">
-        <v>79.4177379031393</v>
+        <v>78.1016443278731</v>
       </c>
     </row>
     <row r="639">
@@ -11428,7 +11428,7 @@
         <v>8</v>
       </c>
       <c r="E639" t="n">
-        <v>70.4546915459438</v>
+        <v>71.7008835937505</v>
       </c>
     </row>
     <row r="640">
@@ -11445,7 +11445,7 @@
         <v>9</v>
       </c>
       <c r="E640" t="n">
-        <v>57.2542125904629</v>
+        <v>61.6806815202575</v>
       </c>
     </row>
     <row r="641">
@@ -11462,7 +11462,7 @@
         <v>5</v>
       </c>
       <c r="E641" t="n">
-        <v>69.042214013182</v>
+        <v>70.4944031472937</v>
       </c>
     </row>
     <row r="642">
@@ -11479,7 +11479,7 @@
         <v>7</v>
       </c>
       <c r="E642" t="n">
-        <v>77.0110772303084</v>
+        <v>75.5334056269027</v>
       </c>
     </row>
     <row r="643">
@@ -11496,7 +11496,7 @@
         <v>8</v>
       </c>
       <c r="E643" t="n">
-        <v>69.4678543624721</v>
+        <v>71.1120781187744</v>
       </c>
     </row>
     <row r="644">
@@ -11513,7 +11513,7 @@
         <v>9</v>
       </c>
       <c r="E644" t="n">
-        <v>59.0419686772023</v>
+        <v>62.0178459260772</v>
       </c>
     </row>
     <row r="645">
@@ -11530,7 +11530,7 @@
         <v>5</v>
       </c>
       <c r="E645" t="n">
-        <v>68.5069667566609</v>
+        <v>69.5544432239181</v>
       </c>
     </row>
     <row r="646">
@@ -11547,7 +11547,7 @@
         <v>7</v>
       </c>
       <c r="E646" t="n">
-        <v>75.904881050411</v>
+        <v>74.1608469821911</v>
       </c>
     </row>
     <row r="647">
@@ -11564,7 +11564,7 @@
         <v>8</v>
       </c>
       <c r="E647" t="n">
-        <v>65.9012767430959</v>
+        <v>66.885103179828</v>
       </c>
     </row>
     <row r="648">
@@ -11581,7 +11581,7 @@
         <v>9</v>
       </c>
       <c r="E648" t="n">
-        <v>61.0953621429168</v>
+        <v>65.2470860487625</v>
       </c>
     </row>
     <row r="649">
@@ -11598,7 +11598,7 @@
         <v>5</v>
       </c>
       <c r="E649" t="n">
-        <v>67.6338399788079</v>
+        <v>68.7643454035939</v>
       </c>
     </row>
     <row r="650">
@@ -11615,7 +11615,7 @@
         <v>7</v>
       </c>
       <c r="E650" t="n">
-        <v>66.0479672842183</v>
+        <v>57.8529342676791</v>
       </c>
     </row>
     <row r="651">
@@ -11632,7 +11632,7 @@
         <v>8</v>
       </c>
       <c r="E651" t="n">
-        <v>58.3059907354325</v>
+        <v>60.4688811313889</v>
       </c>
     </row>
     <row r="652">
@@ -11649,7 +11649,7 @@
         <v>9</v>
       </c>
       <c r="E652" t="n">
-        <v>52.57864736138</v>
+        <v>48.6644847862406</v>
       </c>
     </row>
     <row r="653">
@@ -11666,7 +11666,7 @@
         <v>5</v>
       </c>
       <c r="E653" t="n">
-        <v>58.9775351270103</v>
+        <v>55.6621000617696</v>
       </c>
     </row>
     <row r="654">
@@ -11683,7 +11683,7 @@
         <v>7</v>
       </c>
       <c r="E654" t="n">
-        <v>67.0638291842619</v>
+        <v>59.7050283283891</v>
       </c>
     </row>
     <row r="655">
@@ -11700,7 +11700,7 @@
         <v>8</v>
       </c>
       <c r="E655" t="n">
-        <v>58.2085628482959</v>
+        <v>59.8570511637224</v>
       </c>
     </row>
     <row r="656">
@@ -11717,7 +11717,7 @@
         <v>9</v>
       </c>
       <c r="E656" t="n">
-        <v>53.0636810523346</v>
+        <v>49.3168522837172</v>
       </c>
     </row>
     <row r="657">
@@ -11734,7 +11734,7 @@
         <v>5</v>
       </c>
       <c r="E657" t="n">
-        <v>59.4453576949642</v>
+        <v>56.2929772586096</v>
       </c>
     </row>
     <row r="658">
@@ -11751,7 +11751,7 @@
         <v>7</v>
       </c>
       <c r="E658" t="n">
-        <v>66.3337229670034</v>
+        <v>59.0987277099664</v>
       </c>
     </row>
     <row r="659">
@@ -11768,7 +11768,7 @@
         <v>8</v>
       </c>
       <c r="E659" t="n">
-        <v>56.2014769093261</v>
+        <v>58.268127090714</v>
       </c>
     </row>
     <row r="660">
@@ -11785,7 +11785,7 @@
         <v>9</v>
       </c>
       <c r="E660" t="n">
-        <v>51.4967394213238</v>
+        <v>50.8001800483592</v>
       </c>
     </row>
     <row r="661">
@@ -11802,7 +11802,7 @@
         <v>5</v>
       </c>
       <c r="E661" t="n">
-        <v>58.0106464325511</v>
+        <v>56.0556782830132</v>
       </c>
     </row>
     <row r="662">
@@ -11819,7 +11819,7 @@
         <v>7</v>
       </c>
       <c r="E662" t="n">
-        <v>65.6016432288401</v>
+        <v>58.2111876821059</v>
       </c>
     </row>
     <row r="663">
@@ -11836,7 +11836,7 @@
         <v>8</v>
       </c>
       <c r="E663" t="n">
-        <v>54.8395743768574</v>
+        <v>57.1944613420037</v>
       </c>
     </row>
     <row r="664">
@@ -11853,7 +11853,7 @@
         <v>9</v>
       </c>
       <c r="E664" t="n">
-        <v>51.3483508273562</v>
+        <v>51.6885501408319</v>
       </c>
     </row>
     <row r="665">
@@ -11870,7 +11870,7 @@
         <v>5</v>
       </c>
       <c r="E665" t="n">
-        <v>57.2631894776845</v>
+        <v>55.6980663883138</v>
       </c>
     </row>
     <row r="666">
@@ -11887,7 +11887,7 @@
         <v>7</v>
       </c>
       <c r="E666" t="n">
-        <v>66.2405883887092</v>
+        <v>59.0145691200371</v>
       </c>
     </row>
     <row r="667">
@@ -11904,7 +11904,7 @@
         <v>8</v>
       </c>
       <c r="E667" t="n">
-        <v>53.210222544744</v>
+        <v>55.8062137103654</v>
       </c>
     </row>
     <row r="668">
@@ -11921,7 +11921,7 @@
         <v>9</v>
       </c>
       <c r="E668" t="n">
-        <v>53.3278521505715</v>
+        <v>53.5229160447081</v>
       </c>
     </row>
     <row r="669">
@@ -11938,7 +11938,7 @@
         <v>5</v>
       </c>
       <c r="E669" t="n">
-        <v>57.5928876946749</v>
+        <v>56.1145662917035</v>
       </c>
     </row>
     <row r="670">
@@ -11955,7 +11955,7 @@
         <v>7</v>
       </c>
       <c r="E670" t="n">
-        <v>67.7296844959713</v>
+        <v>61.0069188402924</v>
       </c>
     </row>
     <row r="671">
@@ -11972,7 +11972,7 @@
         <v>8</v>
       </c>
       <c r="E671" t="n">
-        <v>49.5514214606263</v>
+        <v>49.5207630259162</v>
       </c>
     </row>
     <row r="672">
@@ -11989,7 +11989,7 @@
         <v>9</v>
       </c>
       <c r="E672" t="n">
-        <v>55.4273818551586</v>
+        <v>58.0687120503279</v>
       </c>
     </row>
     <row r="673">
@@ -12006,7 +12006,7 @@
         <v>5</v>
       </c>
       <c r="E673" t="n">
-        <v>57.5694959372521</v>
+        <v>56.1987979721788</v>
       </c>
     </row>
     <row r="674">
@@ -12023,7 +12023,7 @@
         <v>7</v>
       </c>
       <c r="E674" t="n">
-        <v>74.3855873782594</v>
+        <v>71.7094550026163</v>
       </c>
     </row>
     <row r="675">
@@ -12040,7 +12040,7 @@
         <v>8</v>
       </c>
       <c r="E675" t="n">
-        <v>63.1964282780372</v>
+        <v>65.5109532932623</v>
       </c>
     </row>
     <row r="676">
@@ -12057,7 +12057,7 @@
         <v>9</v>
       </c>
       <c r="E676" t="n">
-        <v>54.590339275948</v>
+        <v>53.2447327202577</v>
       </c>
     </row>
     <row r="677">
@@ -12074,7 +12074,7 @@
         <v>5</v>
       </c>
       <c r="E677" t="n">
-        <v>64.0574516440815</v>
+        <v>63.4883803387121</v>
       </c>
     </row>
     <row r="678">
@@ -12091,7 +12091,7 @@
         <v>7</v>
       </c>
       <c r="E678" t="n">
-        <v>75.8946715002177</v>
+        <v>73.3743698243698</v>
       </c>
     </row>
     <row r="679">
@@ -12108,7 +12108,7 @@
         <v>8</v>
       </c>
       <c r="E679" t="n">
-        <v>64.1789881896213</v>
+        <v>65.9392257515712</v>
       </c>
     </row>
     <row r="680">
@@ -12125,7 +12125,7 @@
         <v>9</v>
       </c>
       <c r="E680" t="n">
-        <v>53.9874408689676</v>
+        <v>52.8658718193249</v>
       </c>
     </row>
     <row r="681">
@@ -12142,7 +12142,7 @@
         <v>5</v>
       </c>
       <c r="E681" t="n">
-        <v>64.6870335196022</v>
+        <v>64.0598224650886</v>
       </c>
     </row>
     <row r="682">
@@ -12159,7 +12159,7 @@
         <v>7</v>
       </c>
       <c r="E682" t="n">
-        <v>75.6788152709389</v>
+        <v>73.3784056301213</v>
       </c>
     </row>
     <row r="683">
@@ -12176,7 +12176,7 @@
         <v>8</v>
       </c>
       <c r="E683" t="n">
-        <v>63.1796423782588</v>
+        <v>65.0335960818995</v>
       </c>
     </row>
     <row r="684">
@@ -12193,7 +12193,7 @@
         <v>9</v>
       </c>
       <c r="E684" t="n">
-        <v>54.8084848317213</v>
+        <v>53.8806925271174</v>
       </c>
     </row>
     <row r="685">
@@ -12210,7 +12210,7 @@
         <v>5</v>
       </c>
       <c r="E685" t="n">
-        <v>64.5556474936396</v>
+        <v>64.0975647463794</v>
       </c>
     </row>
     <row r="686">
@@ -12227,7 +12227,7 @@
         <v>7</v>
       </c>
       <c r="E686" t="n">
-        <v>77.1787830404045</v>
+        <v>75.1105555527156</v>
       </c>
     </row>
     <row r="687">
@@ -12244,7 +12244,7 @@
         <v>8</v>
       </c>
       <c r="E687" t="n">
-        <v>64.3897290917059</v>
+        <v>66.3702462653976</v>
       </c>
     </row>
     <row r="688">
@@ -12261,7 +12261,7 @@
         <v>9</v>
       </c>
       <c r="E688" t="n">
-        <v>56.5010374192791</v>
+        <v>60.0316798400448</v>
       </c>
     </row>
     <row r="689">
@@ -12278,7 +12278,7 @@
         <v>5</v>
       </c>
       <c r="E689" t="n">
-        <v>66.0231831837965</v>
+        <v>67.170827219386</v>
       </c>
     </row>
     <row r="690">
@@ -12295,7 +12295,7 @@
         <v>7</v>
       </c>
       <c r="E690" t="n">
-        <v>77.7544881786597</v>
+        <v>75.5846833617593</v>
       </c>
     </row>
     <row r="691">
@@ -12312,7 +12312,7 @@
         <v>8</v>
       </c>
       <c r="E691" t="n">
-        <v>63.9882751388797</v>
+        <v>66.3904071148299</v>
       </c>
     </row>
     <row r="692">
@@ -12329,7 +12329,7 @@
         <v>9</v>
       </c>
       <c r="E692" t="n">
-        <v>57.564055466211</v>
+        <v>61.3161863797394</v>
       </c>
     </row>
     <row r="693">
@@ -12346,7 +12346,7 @@
         <v>5</v>
       </c>
       <c r="E693" t="n">
-        <v>66.4356062612501</v>
+        <v>67.7637589521095</v>
       </c>
     </row>
     <row r="694">
@@ -12363,7 +12363,7 @@
         <v>7</v>
       </c>
       <c r="E694" t="n">
-        <v>78.6226190952468</v>
+        <v>76.7768062225978</v>
       </c>
     </row>
     <row r="695">
@@ -12380,7 +12380,7 @@
         <v>8</v>
       </c>
       <c r="E695" t="n">
-        <v>60.4974739941842</v>
+        <v>62.0417278781014</v>
       </c>
     </row>
     <row r="696">
@@ -12397,7 +12397,7 @@
         <v>9</v>
       </c>
       <c r="E696" t="n">
-        <v>59.2898514803992</v>
+        <v>65.0571744782767</v>
       </c>
     </row>
     <row r="697">
@@ -12414,7 +12414,7 @@
         <v>5</v>
       </c>
       <c r="E697" t="n">
-        <v>66.1366481899434</v>
+        <v>67.9585695263253</v>
       </c>
     </row>
     <row r="698">
@@ -12431,7 +12431,7 @@
         <v>7</v>
       </c>
       <c r="E698" t="n">
-        <v>71.9604097782767</v>
+        <v>69.9570613066752</v>
       </c>
     </row>
     <row r="699">
@@ -12448,7 +12448,7 @@
         <v>8</v>
       </c>
       <c r="E699" t="n">
-        <v>61.7610164919865</v>
+        <v>63.912157408661</v>
       </c>
     </row>
     <row r="700">
@@ -12465,7 +12465,7 @@
         <v>9</v>
       </c>
       <c r="E700" t="n">
-        <v>49.7371385763015</v>
+        <v>49.6771951652603</v>
       </c>
     </row>
     <row r="701">
@@ -12482,7 +12482,7 @@
         <v>5</v>
       </c>
       <c r="E701" t="n">
-        <v>61.1528549488549</v>
+        <v>61.1821379601988</v>
       </c>
     </row>
     <row r="702">
@@ -12499,7 +12499,7 @@
         <v>7</v>
       </c>
       <c r="E702" t="n">
-        <v>69.6512441444038</v>
+        <v>67.7008881090472</v>
       </c>
     </row>
     <row r="703">
@@ -12516,7 +12516,7 @@
         <v>8</v>
       </c>
       <c r="E703" t="n">
-        <v>60.8237836006701</v>
+        <v>63.0859024341338</v>
       </c>
     </row>
     <row r="704">
@@ -12533,7 +12533,7 @@
         <v>9</v>
       </c>
       <c r="E704" t="n">
-        <v>49.3322714224689</v>
+        <v>48.8597234071822</v>
       </c>
     </row>
     <row r="705">
@@ -12550,7 +12550,7 @@
         <v>5</v>
       </c>
       <c r="E705" t="n">
-        <v>59.9357663891809</v>
+        <v>59.8821713167878</v>
       </c>
     </row>
     <row r="706">
@@ -12567,7 +12567,7 @@
         <v>7</v>
       </c>
       <c r="E706" t="n">
-        <v>69.4670810443071</v>
+        <v>67.7945294553211</v>
       </c>
     </row>
     <row r="707">
@@ -12584,7 +12584,7 @@
         <v>8</v>
       </c>
       <c r="E707" t="n">
-        <v>58.2929494947323</v>
+        <v>61.2407113540445</v>
       </c>
     </row>
     <row r="708">
@@ -12601,7 +12601,7 @@
         <v>9</v>
       </c>
       <c r="E708" t="n">
-        <v>50.5585221487706</v>
+        <v>51.2967127179503</v>
       </c>
     </row>
     <row r="709">
@@ -12618,7 +12618,7 @@
         <v>5</v>
       </c>
       <c r="E709" t="n">
-        <v>59.4395175626033</v>
+        <v>60.110651175772</v>
       </c>
     </row>
     <row r="710">
@@ -12635,7 +12635,7 @@
         <v>7</v>
       </c>
       <c r="E710" t="n">
-        <v>69.85446839954</v>
+        <v>68.0190260399621</v>
       </c>
     </row>
     <row r="711">
@@ -12652,7 +12652,7 @@
         <v>8</v>
       </c>
       <c r="E711" t="n">
-        <v>60.1975930858666</v>
+        <v>63.0866229669517</v>
       </c>
     </row>
     <row r="712">
@@ -12669,7 +12669,7 @@
         <v>9</v>
       </c>
       <c r="E712" t="n">
-        <v>52.1808274610537</v>
+        <v>54.4482063264312</v>
       </c>
     </row>
     <row r="713">
@@ -12686,7 +12686,7 @@
         <v>5</v>
       </c>
       <c r="E713" t="n">
-        <v>60.7442963154868</v>
+        <v>61.851285111115</v>
       </c>
     </row>
     <row r="714">
@@ -12703,7 +12703,7 @@
         <v>7</v>
       </c>
       <c r="E714" t="n">
-        <v>68.8175266523223</v>
+        <v>67.1332497611052</v>
       </c>
     </row>
     <row r="715">
@@ -12720,7 +12720,7 @@
         <v>8</v>
       </c>
       <c r="E715" t="n">
-        <v>60.402079065182</v>
+        <v>63.8507154548335</v>
       </c>
     </row>
     <row r="716">
@@ -12737,7 +12737,7 @@
         <v>9</v>
       </c>
       <c r="E716" t="n">
-        <v>53.4395269209608</v>
+        <v>54.9199167450191</v>
       </c>
     </row>
     <row r="717">
@@ -12754,7 +12754,7 @@
         <v>5</v>
       </c>
       <c r="E717" t="n">
-        <v>60.886377546155</v>
+        <v>61.9679606536526</v>
       </c>
     </row>
     <row r="718">
@@ -12771,7 +12771,7 @@
         <v>7</v>
       </c>
       <c r="E718" t="n">
-        <v>67.4583739064313</v>
+        <v>65.7870660823131</v>
       </c>
     </row>
     <row r="719">
@@ -12788,7 +12788,7 @@
         <v>8</v>
       </c>
       <c r="E719" t="n">
-        <v>53.4075769531177</v>
+        <v>55.8353930766296</v>
       </c>
     </row>
     <row r="720">
@@ -12805,7 +12805,7 @@
         <v>9</v>
       </c>
       <c r="E720" t="n">
-        <v>54.2377389593003</v>
+        <v>57.3876787207596</v>
       </c>
     </row>
     <row r="721">
@@ -12822,7 +12822,7 @@
         <v>5</v>
       </c>
       <c r="E721" t="n">
-        <v>58.3678966062831</v>
+        <v>59.6700459599008</v>
       </c>
     </row>
     <row r="722">
@@ -12839,7 +12839,7 @@
         <v>7</v>
       </c>
       <c r="E722" t="n">
-        <v>72.3795172446882</v>
+        <v>64.5613708634063</v>
       </c>
     </row>
     <row r="723">
@@ -12856,7 +12856,7 @@
         <v>8</v>
       </c>
       <c r="E723" t="n">
-        <v>54.0600443494447</v>
+        <v>57.8666443409444</v>
       </c>
     </row>
     <row r="724">
@@ -12873,7 +12873,7 @@
         <v>9</v>
       </c>
       <c r="E724" t="n">
-        <v>49.9421914698891</v>
+        <v>44.8838127303717</v>
       </c>
     </row>
     <row r="725">
@@ -12890,7 +12890,7 @@
         <v>5</v>
       </c>
       <c r="E725" t="n">
-        <v>58.7939176880073</v>
+        <v>55.7706093115741</v>
       </c>
     </row>
     <row r="726">
@@ -12907,7 +12907,7 @@
         <v>7</v>
       </c>
       <c r="E726" t="n">
-        <v>71.8253176104032</v>
+        <v>63.852308735987</v>
       </c>
     </row>
     <row r="727">
@@ -12924,7 +12924,7 @@
         <v>8</v>
       </c>
       <c r="E727" t="n">
-        <v>48.7733936843204</v>
+        <v>53.534336760234</v>
       </c>
     </row>
     <row r="728">
@@ -12941,7 +12941,7 @@
         <v>9</v>
       </c>
       <c r="E728" t="n">
-        <v>50.3710757159834</v>
+        <v>45.2745955999113</v>
       </c>
     </row>
     <row r="729">
@@ -12958,7 +12958,7 @@
         <v>5</v>
       </c>
       <c r="E729" t="n">
-        <v>56.989929003569</v>
+        <v>54.2204136987108</v>
       </c>
     </row>
     <row r="730">
@@ -12975,7 +12975,7 @@
         <v>7</v>
       </c>
       <c r="E730" t="n">
-        <v>70.4558284367735</v>
+        <v>63.8582931745229</v>
       </c>
     </row>
     <row r="731">
@@ -12992,7 +12992,7 @@
         <v>8</v>
       </c>
       <c r="E731" t="n">
-        <v>50.5682922456821</v>
+        <v>55.162138422948</v>
       </c>
     </row>
     <row r="732">
@@ -13009,7 +13009,7 @@
         <v>9</v>
       </c>
       <c r="E732" t="n">
-        <v>48.5311350286536</v>
+        <v>46.2912008865012</v>
       </c>
     </row>
     <row r="733">
@@ -13026,7 +13026,7 @@
         <v>5</v>
       </c>
       <c r="E733" t="n">
-        <v>56.5184185703697</v>
+        <v>55.1038774946574</v>
       </c>
     </row>
     <row r="734">
@@ -13043,7 +13043,7 @@
         <v>7</v>
       </c>
       <c r="E734" t="n">
-        <v>71.0695330369337</v>
+        <v>64.6877028859928</v>
       </c>
     </row>
     <row r="735">
@@ -13060,7 +13060,7 @@
         <v>8</v>
       </c>
       <c r="E735" t="n">
-        <v>50.3729707821517</v>
+        <v>54.8160195300732</v>
       </c>
     </row>
     <row r="736">
@@ -13077,7 +13077,7 @@
         <v>9</v>
       </c>
       <c r="E736" t="n">
-        <v>49.2646860716804</v>
+        <v>49.9544997923579</v>
       </c>
     </row>
     <row r="737">
@@ -13094,7 +13094,7 @@
         <v>5</v>
       </c>
       <c r="E737" t="n">
-        <v>56.9023966302553</v>
+        <v>56.4860740694746</v>
       </c>
     </row>
     <row r="738">
@@ -13111,7 +13111,7 @@
         <v>7</v>
       </c>
       <c r="E738" t="n">
-        <v>69.1936900841394</v>
+        <v>62.5631763822673</v>
       </c>
     </row>
     <row r="739">
@@ -13128,7 +13128,7 @@
         <v>8</v>
       </c>
       <c r="E739" t="n">
-        <v>48.863754781491</v>
+        <v>53.3088179125952</v>
       </c>
     </row>
     <row r="740">
@@ -13145,7 +13145,7 @@
         <v>9</v>
       </c>
       <c r="E740" t="n">
-        <v>50.3270984319586</v>
+        <v>49.5971183731175</v>
       </c>
     </row>
     <row r="741">
@@ -13162,7 +13162,7 @@
         <v>5</v>
       </c>
       <c r="E741" t="n">
-        <v>56.1281810991964</v>
+        <v>55.1563708893266</v>
       </c>
     </row>
     <row r="742">
@@ -13179,7 +13179,7 @@
         <v>7</v>
       </c>
       <c r="E742" t="n">
-        <v>70.3739224902791</v>
+        <v>64.3618059441544</v>
       </c>
     </row>
     <row r="743">
@@ -13196,7 +13196,7 @@
         <v>8</v>
       </c>
       <c r="E743" t="n">
-        <v>43.6860399862235</v>
+        <v>45.948756010808</v>
       </c>
     </row>
     <row r="744">
@@ -13213,7 +13213,7 @@
         <v>9</v>
       </c>
       <c r="E744" t="n">
-        <v>52.0358412540618</v>
+        <v>53.202967123062</v>
       </c>
     </row>
     <row r="745">
@@ -13230,7 +13230,7 @@
         <v>5</v>
       </c>
       <c r="E745" t="n">
-        <v>55.3652679101881</v>
+        <v>54.5045096926748</v>
       </c>
     </row>
     <row r="746">
@@ -13247,7 +13247,7 @@
         <v>7</v>
       </c>
       <c r="E746" t="n">
-        <v>84.7419358868027</v>
+        <v>77.1898138511143</v>
       </c>
     </row>
     <row r="747">
@@ -13264,7 +13264,7 @@
         <v>8</v>
       </c>
       <c r="E747" t="n">
-        <v>60.6822750235192</v>
+        <v>65.1194461168999</v>
       </c>
     </row>
     <row r="748">
@@ -13281,7 +13281,7 @@
         <v>9</v>
       </c>
       <c r="E748" t="n">
-        <v>55.5564673564414</v>
+        <v>54.0924043754537</v>
       </c>
     </row>
     <row r="749">
@@ -13298,7 +13298,7 @@
         <v>5</v>
       </c>
       <c r="E749" t="n">
-        <v>66.9935594222544</v>
+        <v>65.4672214478226</v>
       </c>
     </row>
     <row r="750">
@@ -13315,7 +13315,7 @@
         <v>7</v>
       </c>
       <c r="E750" t="n">
-        <v>84.0900757540137</v>
+        <v>76.8610883596996</v>
       </c>
     </row>
     <row r="751">
@@ -13332,7 +13332,7 @@
         <v>8</v>
       </c>
       <c r="E751" t="n">
-        <v>61.2672822677153</v>
+        <v>65.7870320345675</v>
       </c>
     </row>
     <row r="752">
@@ -13349,7 +13349,7 @@
         <v>9</v>
       </c>
       <c r="E752" t="n">
-        <v>56.0724613024376</v>
+        <v>55.1443441989295</v>
       </c>
     </row>
     <row r="753">
@@ -13366,7 +13366,7 @@
         <v>5</v>
       </c>
       <c r="E753" t="n">
-        <v>67.1432731080556</v>
+        <v>65.9308215310655</v>
       </c>
     </row>
     <row r="754">
@@ -13383,7 +13383,7 @@
         <v>7</v>
       </c>
       <c r="E754" t="n">
-        <v>87.2985803575804</v>
+        <v>80.7391653908956</v>
       </c>
     </row>
     <row r="755">
@@ -13400,7 +13400,7 @@
         <v>8</v>
       </c>
       <c r="E755" t="n">
-        <v>60.9902280010642</v>
+        <v>65.9261968153551</v>
       </c>
     </row>
     <row r="756">
@@ -13417,7 +13417,7 @@
         <v>9</v>
       </c>
       <c r="E756" t="n">
-        <v>55.962552105129</v>
+        <v>57.160603148109</v>
       </c>
     </row>
     <row r="757">
@@ -13434,7 +13434,7 @@
         <v>5</v>
       </c>
       <c r="E757" t="n">
-        <v>68.0837868212579</v>
+        <v>67.9419884514532</v>
       </c>
     </row>
     <row r="758">
@@ -13451,7 +13451,7 @@
         <v>7</v>
       </c>
       <c r="E758" t="n">
-        <v>83.1117682277447</v>
+        <v>76.4906121816886</v>
       </c>
     </row>
     <row r="759">
@@ -13468,7 +13468,7 @@
         <v>8</v>
       </c>
       <c r="E759" t="n">
-        <v>61.665680737104</v>
+        <v>66.7166572071335</v>
       </c>
     </row>
     <row r="760">
@@ -13485,7 +13485,7 @@
         <v>9</v>
       </c>
       <c r="E760" t="n">
-        <v>56.5126983696404</v>
+        <v>59.5298397076857</v>
       </c>
     </row>
     <row r="761">
@@ -13502,7 +13502,7 @@
         <v>5</v>
       </c>
       <c r="E761" t="n">
-        <v>67.096715778163</v>
+        <v>67.5790363655026</v>
       </c>
     </row>
     <row r="762">
@@ -13519,7 +13519,7 @@
         <v>7</v>
       </c>
       <c r="E762" t="n">
-        <v>86.2316978184872</v>
+        <v>79.6583411017544</v>
       </c>
     </row>
     <row r="763">
@@ -13536,7 +13536,7 @@
         <v>8</v>
       </c>
       <c r="E763" t="n">
-        <v>60.624010749297</v>
+        <v>66.2655542344348</v>
       </c>
     </row>
     <row r="764">
@@ -13553,7 +13553,7 @@
         <v>9</v>
       </c>
       <c r="E764" t="n">
-        <v>58.6054759215978</v>
+        <v>60.8995886813349</v>
       </c>
     </row>
     <row r="765">
@@ -13570,7 +13570,7 @@
         <v>5</v>
       </c>
       <c r="E765" t="n">
-        <v>68.4870614964607</v>
+        <v>68.9411613391747</v>
       </c>
     </row>
     <row r="766">
@@ -13587,7 +13587,7 @@
         <v>7</v>
       </c>
       <c r="E766" t="n">
-        <v>86.479859229487</v>
+        <v>81.3014776105106</v>
       </c>
     </row>
     <row r="767">
@@ -13604,7 +13604,7 @@
         <v>8</v>
       </c>
       <c r="E767" t="n">
-        <v>57.169659173775</v>
+        <v>64.3355062552222</v>
       </c>
     </row>
     <row r="768">
@@ -13621,7 +13621,7 @@
         <v>9</v>
       </c>
       <c r="E768" t="n">
-        <v>60.6885039181822</v>
+        <v>63.6053049078397</v>
       </c>
     </row>
     <row r="769">
@@ -13638,7 +13638,7 @@
         <v>5</v>
       </c>
       <c r="E769" t="n">
-        <v>68.1126741071481</v>
+        <v>69.7474295911908</v>
       </c>
     </row>
     <row r="770">
@@ -13655,7 +13655,7 @@
         <v>7</v>
       </c>
       <c r="E770" t="n">
-        <v>64.7866645385254</v>
+        <v>61.263087155272</v>
       </c>
     </row>
     <row r="771">
@@ -13672,7 +13672,7 @@
         <v>8</v>
       </c>
       <c r="E771" t="n">
-        <v>60.4727739891353</v>
+        <v>62.2409047120218</v>
       </c>
     </row>
     <row r="772">
@@ -13689,7 +13689,7 @@
         <v>9</v>
       </c>
       <c r="E772" t="n">
-        <v>52.0972473300258</v>
+        <v>48.1136616640329</v>
       </c>
     </row>
     <row r="773">
@@ -13706,7 +13706,7 @@
         <v>5</v>
       </c>
       <c r="E773" t="n">
-        <v>59.1188952858955</v>
+        <v>57.2058845104422</v>
       </c>
     </row>
     <row r="774">
@@ -13723,7 +13723,7 @@
         <v>7</v>
       </c>
       <c r="E774" t="n">
-        <v>65.0466493855818</v>
+        <v>61.8898781279654</v>
       </c>
     </row>
     <row r="775">
@@ -13740,7 +13740,7 @@
         <v>8</v>
       </c>
       <c r="E775" t="n">
-        <v>60.0442242395972</v>
+        <v>61.4947741410894</v>
       </c>
     </row>
     <row r="776">
@@ -13757,7 +13757,7 @@
         <v>9</v>
       </c>
       <c r="E776" t="n">
-        <v>53.577305386763</v>
+        <v>51.0472333356257</v>
       </c>
     </row>
     <row r="777">
@@ -13774,7 +13774,7 @@
         <v>5</v>
       </c>
       <c r="E777" t="n">
-        <v>59.5560596706473</v>
+        <v>58.1439618682268</v>
       </c>
     </row>
     <row r="778">
@@ -13791,7 +13791,7 @@
         <v>7</v>
       </c>
       <c r="E778" t="n">
-        <v>62.1619520547141</v>
+        <v>59.2468996948346</v>
       </c>
     </row>
     <row r="779">
@@ -13808,7 +13808,7 @@
         <v>8</v>
       </c>
       <c r="E779" t="n">
-        <v>60.7485005483827</v>
+        <v>61.6153457155947</v>
       </c>
     </row>
     <row r="780">
@@ -13825,7 +13825,7 @@
         <v>9</v>
       </c>
       <c r="E780" t="n">
-        <v>52.4279133837534</v>
+        <v>50.6827080044105</v>
       </c>
     </row>
     <row r="781">
@@ -13842,7 +13842,7 @@
         <v>5</v>
       </c>
       <c r="E781" t="n">
-        <v>58.4461219956167</v>
+        <v>57.18165113828</v>
       </c>
     </row>
     <row r="782">
@@ -13859,7 +13859,7 @@
         <v>7</v>
       </c>
       <c r="E782" t="n">
-        <v>60.6101835388889</v>
+        <v>57.6041831204555</v>
       </c>
     </row>
     <row r="783">
@@ -13876,7 +13876,7 @@
         <v>8</v>
       </c>
       <c r="E783" t="n">
-        <v>62.8392124531426</v>
+        <v>63.4478523777782</v>
       </c>
     </row>
     <row r="784">
@@ -13893,7 +13893,7 @@
         <v>9</v>
       </c>
       <c r="E784" t="n">
-        <v>54.0626692973068</v>
+        <v>56.661545156064</v>
       </c>
     </row>
     <row r="785">
@@ -13910,7 +13910,7 @@
         <v>5</v>
       </c>
       <c r="E785" t="n">
-        <v>59.1706884297794</v>
+        <v>59.2378602180992</v>
       </c>
     </row>
     <row r="786">
@@ -13927,7 +13927,7 @@
         <v>7</v>
       </c>
       <c r="E786" t="n">
-        <v>63.3757313469406</v>
+        <v>61.1191886608307</v>
       </c>
     </row>
     <row r="787">
@@ -13944,7 +13944,7 @@
         <v>8</v>
       </c>
       <c r="E787" t="n">
-        <v>63.1549376528228</v>
+        <v>64.0274175262908</v>
       </c>
     </row>
     <row r="788">
@@ -13961,7 +13961,7 @@
         <v>9</v>
       </c>
       <c r="E788" t="n">
-        <v>54.1193432659603</v>
+        <v>56.9358441548949</v>
       </c>
     </row>
     <row r="789">
@@ -13978,7 +13978,7 @@
         <v>5</v>
       </c>
       <c r="E789" t="n">
-        <v>60.2166707552412</v>
+        <v>60.6941501140055</v>
       </c>
     </row>
     <row r="790">
@@ -13995,7 +13995,7 @@
         <v>7</v>
       </c>
       <c r="E790" t="n">
-        <v>59.8998342374137</v>
+        <v>57.8084891628842</v>
       </c>
     </row>
     <row r="791">
@@ -14012,7 +14012,7 @@
         <v>8</v>
       </c>
       <c r="E791" t="n">
-        <v>61.2204956507375</v>
+        <v>60.8401446242885</v>
       </c>
     </row>
     <row r="792">
@@ -14029,7 +14029,7 @@
         <v>9</v>
       </c>
       <c r="E792" t="n">
-        <v>54.6786259976612</v>
+        <v>58.2809601268235</v>
       </c>
     </row>
     <row r="793">
@@ -14046,7 +14046,7 @@
         <v>5</v>
       </c>
       <c r="E793" t="n">
-        <v>58.5996519619374</v>
+        <v>58.9765313046654</v>
       </c>
     </row>
     <row r="794">
@@ -14061,7 +14061,7 @@
         <v>7</v>
       </c>
       <c r="E794" t="n">
-        <v>99.6599792375541</v>
+        <v>100</v>
       </c>
     </row>
     <row r="795">
@@ -14106,7 +14106,7 @@
         <v>5</v>
       </c>
       <c r="E797" t="n">
-        <v>99.8866597458513</v>
+        <v>100</v>
       </c>
     </row>
     <row r="798">

--- a/03_ips_clean/10_IPS_COMPLETE.xlsx
+++ b/03_ips_clean/10_IPS_COMPLETE.xlsx
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>65.9807230309219</v>
+        <v>70.8724587121269</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>66.5289310962143</v>
+        <v>65.5319361444398</v>
       </c>
     </row>
     <row r="4">
@@ -633,7 +633,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>50.0543895672622</v>
+        <v>50.044175646975</v>
       </c>
     </row>
     <row r="5">
@@ -650,7 +650,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>60.8546812314661</v>
+        <v>62.1495235011806</v>
       </c>
     </row>
     <row r="6">
@@ -667,7 +667,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>66.6483305905023</v>
+        <v>71.4735565864467</v>
       </c>
     </row>
     <row r="7">
@@ -684,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>65.9115103658542</v>
+        <v>65.2064300778594</v>
       </c>
     </row>
     <row r="8">
@@ -701,7 +701,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>51.0985619911541</v>
+        <v>51.0809686090481</v>
       </c>
     </row>
     <row r="9">
@@ -718,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>61.2194676491702</v>
+        <v>62.586985091118</v>
       </c>
     </row>
     <row r="10">
@@ -735,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>67.1473606172223</v>
+        <v>71.6622813389833</v>
       </c>
     </row>
     <row r="11">
@@ -752,7 +752,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>65.3785115841933</v>
+        <v>64.5895951937894</v>
       </c>
     </row>
     <row r="12">
@@ -769,7 +769,7 @@
         <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>52.4129669321921</v>
+        <v>52.4031387996698</v>
       </c>
     </row>
     <row r="13">
@@ -786,7 +786,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>61.6462797112026</v>
+        <v>62.8850051108142</v>
       </c>
     </row>
     <row r="14">
@@ -803,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>66.2966029913639</v>
+        <v>70.7447768199256</v>
       </c>
     </row>
     <row r="15">
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>66.2670550771273</v>
+        <v>64.8996681159666</v>
       </c>
     </row>
     <row r="16">
@@ -837,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>56.5626521406369</v>
+        <v>56.5595103659808</v>
       </c>
     </row>
     <row r="17">
@@ -854,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>63.0421034030427</v>
+        <v>64.0679851006243</v>
       </c>
     </row>
     <row r="18">
@@ -871,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>66.6504596097719</v>
+        <v>69.9656696600252</v>
       </c>
     </row>
     <row r="19">
@@ -888,7 +888,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>65.880398296791</v>
+        <v>64.5801948099532</v>
       </c>
     </row>
     <row r="20">
@@ -905,7 +905,7 @@
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>57.0488663411566</v>
+        <v>57.0515370987437</v>
       </c>
     </row>
     <row r="21">
@@ -922,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>63.1932414159065</v>
+        <v>63.8658005229074</v>
       </c>
     </row>
     <row r="22">
@@ -939,7 +939,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>68.4643894469527</v>
+        <v>69.4891585927678</v>
       </c>
     </row>
     <row r="23">
@@ -956,7 +956,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>60.5419450002076</v>
+        <v>61.7240734513672</v>
       </c>
     </row>
     <row r="24">
@@ -973,7 +973,7 @@
         <v>9</v>
       </c>
       <c r="E24" t="n">
-        <v>59.2759778357967</v>
+        <v>59.2795555936218</v>
       </c>
     </row>
     <row r="25">
@@ -990,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>62.7607707609857</v>
+        <v>63.4975958792523</v>
       </c>
     </row>
     <row r="26">
@@ -1007,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>80.7364421843257</v>
+        <v>83.5903944054927</v>
       </c>
     </row>
     <row r="27">
@@ -1024,7 +1024,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>69.5357234243354</v>
+        <v>68.1587023962588</v>
       </c>
     </row>
     <row r="28">
@@ -1041,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>53.9910374768901</v>
+        <v>53.9491349666636</v>
       </c>
     </row>
     <row r="29">
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>68.0877343618504</v>
+        <v>68.5660772561384</v>
       </c>
     </row>
     <row r="30">
@@ -1075,7 +1075,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>81.8944598943494</v>
+        <v>84.3157809749717</v>
       </c>
     </row>
     <row r="31">
@@ -1092,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>69.5600779030043</v>
+        <v>67.8382470070513</v>
       </c>
     </row>
     <row r="32">
@@ -1109,7 +1109,7 @@
         <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>53.9533872842193</v>
+        <v>53.9211351620083</v>
       </c>
     </row>
     <row r="33">
@@ -1126,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>68.4693083605243</v>
+        <v>68.6917210480104</v>
       </c>
     </row>
     <row r="34">
@@ -1143,7 +1143,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>81.5806768656836</v>
+        <v>84.0808348647809</v>
       </c>
     </row>
     <row r="35">
@@ -1160,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>68.5810458865765</v>
+        <v>66.4988226023921</v>
       </c>
     </row>
     <row r="36">
@@ -1177,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>54.7323474956311</v>
+        <v>54.7307220087037</v>
       </c>
     </row>
     <row r="37">
@@ -1194,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>68.2980234159637</v>
+        <v>68.4367931586255</v>
       </c>
     </row>
     <row r="38">
@@ -1211,7 +1211,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>79.8060145853586</v>
+        <v>81.8275466621555</v>
       </c>
     </row>
     <row r="39">
@@ -1228,7 +1228,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>71.2989696983998</v>
+        <v>68.3222004432225</v>
       </c>
     </row>
     <row r="40">
@@ -1245,7 +1245,7 @@
         <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>61.5498697491339</v>
+        <v>61.5479903445256</v>
       </c>
     </row>
     <row r="41">
@@ -1262,7 +1262,7 @@
         <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>70.8849513442974</v>
+        <v>70.5659124833012</v>
       </c>
     </row>
     <row r="42">
@@ -1279,7 +1279,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>79.9338296818985</v>
+        <v>82.2339163924599</v>
       </c>
     </row>
     <row r="43">
@@ -1296,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>71.3359631671105</v>
+        <v>68.4264944192609</v>
       </c>
     </row>
     <row r="44">
@@ -1313,7 +1313,7 @@
         <v>9</v>
       </c>
       <c r="E44" t="n">
-        <v>62.1083714883968</v>
+        <v>62.090189307208</v>
       </c>
     </row>
     <row r="45">
@@ -1330,7 +1330,7 @@
         <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>71.1260547791353</v>
+        <v>70.9168667063096</v>
       </c>
     </row>
     <row r="46">
@@ -1347,7 +1347,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>79.8782044909395</v>
+        <v>78.5151041991986</v>
       </c>
     </row>
     <row r="47">
@@ -1364,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>70.240395819854</v>
+        <v>67.9686672010056</v>
       </c>
     </row>
     <row r="48">
@@ -1381,7 +1381,7 @@
         <v>9</v>
       </c>
       <c r="E48" t="n">
-        <v>65.1500767231105</v>
+        <v>65.1333931545448</v>
       </c>
     </row>
     <row r="49">
@@ -1398,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>71.756225677968</v>
+        <v>70.539054851583</v>
       </c>
     </row>
     <row r="50">
@@ -1415,7 +1415,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>73.1660804333569</v>
+        <v>76.2363098430811</v>
       </c>
     </row>
     <row r="51">
@@ -1432,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>74.4966988386492</v>
+        <v>71.7094586220144</v>
       </c>
     </row>
     <row r="52">
@@ -1449,7 +1449,7 @@
         <v>9</v>
       </c>
       <c r="E52" t="n">
-        <v>53.6763606980892</v>
+        <v>53.6704168584077</v>
       </c>
     </row>
     <row r="53">
@@ -1466,7 +1466,7 @@
         <v>5</v>
       </c>
       <c r="E53" t="n">
-        <v>67.1130466566985</v>
+        <v>67.2053951078344</v>
       </c>
     </row>
     <row r="54">
@@ -1483,7 +1483,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>75.476507782749</v>
+        <v>78.0918976499516</v>
       </c>
     </row>
     <row r="55">
@@ -1500,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>74.0087640867848</v>
+        <v>71.9658873957698</v>
       </c>
     </row>
     <row r="56">
@@ -1517,7 +1517,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="n">
-        <v>55.6784176386497</v>
+        <v>55.6603040799097</v>
       </c>
     </row>
     <row r="57">
@@ -1534,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>68.3878965027278</v>
+        <v>68.5726963752104</v>
       </c>
     </row>
     <row r="58">
@@ -1551,7 +1551,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>72.5128907376251</v>
+        <v>75.8505181020626</v>
       </c>
     </row>
     <row r="59">
@@ -1568,7 +1568,7 @@
         <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>72.847271422954</v>
+        <v>70.8404885046548</v>
       </c>
     </row>
     <row r="60">
@@ -1585,7 +1585,7 @@
         <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>56.4814480619458</v>
+        <v>56.4728053008772</v>
       </c>
     </row>
     <row r="61">
@@ -1602,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="E61" t="n">
-        <v>67.2805367408416</v>
+        <v>67.7212706358649</v>
       </c>
     </row>
     <row r="62">
@@ -1619,7 +1619,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>69.2321781118223</v>
+        <v>72.5154405486918</v>
       </c>
     </row>
     <row r="63">
@@ -1636,7 +1636,7 @@
         <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>73.2360418883285</v>
+        <v>70.6228369944615</v>
       </c>
     </row>
     <row r="64">
@@ -1653,7 +1653,7 @@
         <v>9</v>
       </c>
       <c r="E64" t="n">
-        <v>60.7515009757568</v>
+        <v>60.7468396602092</v>
       </c>
     </row>
     <row r="65">
@@ -1670,7 +1670,7 @@
         <v>5</v>
       </c>
       <c r="E65" t="n">
-        <v>67.7399069919692</v>
+        <v>67.9617057344542</v>
       </c>
     </row>
     <row r="66">
@@ -1687,7 +1687,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>69.6395737224438</v>
+        <v>72.2114808951945</v>
       </c>
     </row>
     <row r="67">
@@ -1704,7 +1704,7 @@
         <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>73.2066583709357</v>
+        <v>70.6256566810688</v>
       </c>
     </row>
     <row r="68">
@@ -1721,7 +1721,7 @@
         <v>9</v>
       </c>
       <c r="E68" t="n">
-        <v>61.4278913337493</v>
+        <v>61.4267930085897</v>
       </c>
     </row>
     <row r="69">
@@ -1738,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="E69" t="n">
-        <v>68.0913744757096</v>
+        <v>68.0879768616177</v>
       </c>
     </row>
     <row r="70">
@@ -1755,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>69.4678846093493</v>
+        <v>70.6575515260343</v>
       </c>
     </row>
     <row r="71">
@@ -1772,7 +1772,7 @@
         <v>8</v>
       </c>
       <c r="E71" t="n">
-        <v>68.9757877512965</v>
+        <v>68.3123983611799</v>
       </c>
     </row>
     <row r="72">
@@ -1789,7 +1789,7 @@
         <v>9</v>
       </c>
       <c r="E72" t="n">
-        <v>65.9054255213463</v>
+        <v>65.896217105696</v>
       </c>
     </row>
     <row r="73">
@@ -1806,7 +1806,7 @@
         <v>5</v>
       </c>
       <c r="E73" t="n">
-        <v>68.116365960664</v>
+        <v>68.2887223309701</v>
       </c>
     </row>
     <row r="74">
@@ -1823,7 +1823,7 @@
         <v>7</v>
       </c>
       <c r="E74" t="n">
-        <v>62.1365031792519</v>
+        <v>64.8651061909402</v>
       </c>
     </row>
     <row r="75">
@@ -1840,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>76.374042207033</v>
+        <v>73.2715180401798</v>
       </c>
     </row>
     <row r="76">
@@ -1857,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="E76" t="n">
-        <v>53.7424412057329</v>
+        <v>53.7273437799</v>
       </c>
     </row>
     <row r="77">
@@ -1874,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>64.084328864006</v>
+        <v>63.9546560036733</v>
       </c>
     </row>
     <row r="78">
@@ -1891,7 +1891,7 @@
         <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>63.8607181420148</v>
+        <v>66.1108542303113</v>
       </c>
     </row>
     <row r="79">
@@ -1908,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>74.1698176692435</v>
+        <v>71.1726976574549</v>
       </c>
     </row>
     <row r="80">
@@ -1925,7 +1925,7 @@
         <v>9</v>
       </c>
       <c r="E80" t="n">
-        <v>55.4046943627445</v>
+        <v>55.3880767508747</v>
       </c>
     </row>
     <row r="81">
@@ -1942,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>64.4784100580009</v>
+        <v>64.2238762128803</v>
       </c>
     </row>
     <row r="82">
@@ -1959,7 +1959,7 @@
         <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>55.0410619918794</v>
+        <v>56.9342046572561</v>
       </c>
     </row>
     <row r="83">
@@ -1976,7 +1976,7 @@
         <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>74.2669847927122</v>
+        <v>71.1755046566544</v>
       </c>
     </row>
     <row r="84">
@@ -1993,7 +1993,7 @@
         <v>9</v>
       </c>
       <c r="E84" t="n">
-        <v>57.7010174283867</v>
+        <v>57.6869690099256</v>
       </c>
     </row>
     <row r="85">
@@ -2010,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="E85" t="n">
-        <v>62.3363547376594</v>
+        <v>61.9322261079454</v>
       </c>
     </row>
     <row r="86">
@@ -2027,7 +2027,7 @@
         <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>57.6823761600597</v>
+        <v>60.9069622762906</v>
       </c>
     </row>
     <row r="87">
@@ -2044,7 +2044,7 @@
         <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>72.6672989797922</v>
+        <v>69.6079655461348</v>
       </c>
     </row>
     <row r="88">
@@ -2061,7 +2061,7 @@
         <v>9</v>
       </c>
       <c r="E88" t="n">
-        <v>62.3649439470488</v>
+        <v>62.3468640518915</v>
       </c>
     </row>
     <row r="89">
@@ -2078,7 +2078,7 @@
         <v>5</v>
       </c>
       <c r="E89" t="n">
-        <v>64.2382063623002</v>
+        <v>64.2872639581056</v>
       </c>
     </row>
     <row r="90">
@@ -2095,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>58.0257541858845</v>
+        <v>61.3420349478029</v>
       </c>
     </row>
     <row r="91">
@@ -2112,7 +2112,7 @@
         <v>8</v>
       </c>
       <c r="E91" t="n">
-        <v>72.1770772437195</v>
+        <v>69.330115815825</v>
       </c>
     </row>
     <row r="92">
@@ -2129,7 +2129,7 @@
         <v>9</v>
       </c>
       <c r="E92" t="n">
-        <v>62.4703760134528</v>
+        <v>62.4674790055041</v>
       </c>
     </row>
     <row r="93">
@@ -2146,7 +2146,7 @@
         <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>64.2244024810189</v>
+        <v>64.3798765897106</v>
       </c>
     </row>
     <row r="94">
@@ -2163,7 +2163,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>57.6462864178564</v>
+        <v>60.6803904478008</v>
       </c>
     </row>
     <row r="95">
@@ -2180,7 +2180,7 @@
         <v>8</v>
       </c>
       <c r="E95" t="n">
-        <v>71.4335915780717</v>
+        <v>69.0715495001794</v>
       </c>
     </row>
     <row r="96">
@@ -2197,7 +2197,7 @@
         <v>9</v>
       </c>
       <c r="E96" t="n">
-        <v>63.2141612468543</v>
+        <v>63.2163669583435</v>
       </c>
     </row>
     <row r="97">
@@ -2214,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="E97" t="n">
-        <v>64.0980130809275</v>
+        <v>64.3227689687746</v>
       </c>
     </row>
     <row r="98">
@@ -2231,7 +2231,7 @@
         <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>68.6648820899063</v>
+        <v>75.11866992478</v>
       </c>
     </row>
     <row r="99">
@@ -2248,7 +2248,7 @@
         <v>8</v>
       </c>
       <c r="E99" t="n">
-        <v>63.8579032642747</v>
+        <v>62.3887676877471</v>
       </c>
     </row>
     <row r="100">
@@ -2265,7 +2265,7 @@
         <v>9</v>
       </c>
       <c r="E100" t="n">
-        <v>51.3777652992979</v>
+        <v>51.3355543371653</v>
       </c>
     </row>
     <row r="101">
@@ -2282,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="E101" t="n">
-        <v>61.3001835511596</v>
+        <v>62.9476639832308</v>
       </c>
     </row>
     <row r="102">
@@ -2299,7 +2299,7 @@
         <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>71.1585888899038</v>
+        <v>76.11231569897</v>
       </c>
     </row>
     <row r="103">
@@ -2316,7 +2316,7 @@
         <v>8</v>
       </c>
       <c r="E103" t="n">
-        <v>60.0462488054446</v>
+        <v>59.8495843501884</v>
       </c>
     </row>
     <row r="104">
@@ -2333,7 +2333,7 @@
         <v>9</v>
       </c>
       <c r="E104" t="n">
-        <v>52.4055312870873</v>
+        <v>52.3595730679136</v>
       </c>
     </row>
     <row r="105">
@@ -2350,7 +2350,7 @@
         <v>5</v>
       </c>
       <c r="E105" t="n">
-        <v>61.2034563274785</v>
+        <v>62.7738243723573</v>
       </c>
     </row>
     <row r="106">
@@ -2367,7 +2367,7 @@
         <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>71.4343662173772</v>
+        <v>75.1873936513629</v>
       </c>
     </row>
     <row r="107">
@@ -2384,7 +2384,7 @@
         <v>8</v>
       </c>
       <c r="E107" t="n">
-        <v>61.4624782686777</v>
+        <v>60.5611625309535</v>
       </c>
     </row>
     <row r="108">
@@ -2401,7 +2401,7 @@
         <v>9</v>
       </c>
       <c r="E108" t="n">
-        <v>52.5316231635413</v>
+        <v>52.5094953277853</v>
       </c>
     </row>
     <row r="109">
@@ -2418,7 +2418,7 @@
         <v>5</v>
       </c>
       <c r="E109" t="n">
-        <v>61.8094892165321</v>
+        <v>62.7526838367005</v>
       </c>
     </row>
     <row r="110">
@@ -2435,7 +2435,7 @@
         <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>69.1859332154022</v>
+        <v>74.2983318859775</v>
       </c>
     </row>
     <row r="111">
@@ -2452,7 +2452,7 @@
         <v>8</v>
       </c>
       <c r="E111" t="n">
-        <v>60.1290181841121</v>
+        <v>59.1499103334261</v>
       </c>
     </row>
     <row r="112">
@@ -2469,7 +2469,7 @@
         <v>9</v>
       </c>
       <c r="E112" t="n">
-        <v>55.4331452362</v>
+        <v>55.4184852777537</v>
       </c>
     </row>
     <row r="113">
@@ -2486,7 +2486,7 @@
         <v>5</v>
       </c>
       <c r="E113" t="n">
-        <v>61.5826988785714</v>
+        <v>62.9555758323857</v>
       </c>
     </row>
     <row r="114">
@@ -2503,7 +2503,7 @@
         <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>69.4376188204052</v>
+        <v>72.4935248714821</v>
       </c>
     </row>
     <row r="115">
@@ -2520,7 +2520,7 @@
         <v>8</v>
       </c>
       <c r="E115" t="n">
-        <v>58.5889464384899</v>
+        <v>57.672501037403</v>
       </c>
     </row>
     <row r="116">
@@ -2537,7 +2537,7 @@
         <v>9</v>
       </c>
       <c r="E116" t="n">
-        <v>55.4132337714716</v>
+        <v>55.3979228219458</v>
       </c>
     </row>
     <row r="117">
@@ -2554,7 +2554,7 @@
         <v>5</v>
       </c>
       <c r="E117" t="n">
-        <v>61.1465996767889</v>
+        <v>61.8546495769436</v>
       </c>
     </row>
     <row r="118">
@@ -2571,7 +2571,7 @@
         <v>7</v>
       </c>
       <c r="E118" t="n">
-        <v>73.0846949041287</v>
+        <v>71.5702091712903</v>
       </c>
     </row>
     <row r="119">
@@ -2588,7 +2588,7 @@
         <v>8</v>
       </c>
       <c r="E119" t="n">
-        <v>52.870754967721</v>
+        <v>54.407448369358</v>
       </c>
     </row>
     <row r="120">
@@ -2605,7 +2605,7 @@
         <v>9</v>
       </c>
       <c r="E120" t="n">
-        <v>60.6441376832912</v>
+        <v>60.6298585223135</v>
       </c>
     </row>
     <row r="121">
@@ -2622,7 +2622,7 @@
         <v>5</v>
       </c>
       <c r="E121" t="n">
-        <v>62.1998625183803</v>
+        <v>62.2025053543206</v>
       </c>
     </row>
     <row r="122">
@@ -2639,7 +2639,7 @@
         <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>64.0652759856736</v>
+        <v>67.9783605961747</v>
       </c>
     </row>
     <row r="123">
@@ -2656,7 +2656,7 @@
         <v>8</v>
       </c>
       <c r="E123" t="n">
-        <v>64.8779509546318</v>
+        <v>64.5628241003924</v>
       </c>
     </row>
     <row r="124">
@@ -2673,7 +2673,7 @@
         <v>9</v>
       </c>
       <c r="E124" t="n">
-        <v>52.4590873237529</v>
+        <v>52.4500297590047</v>
       </c>
     </row>
     <row r="125">
@@ -2690,7 +2690,7 @@
         <v>5</v>
       </c>
       <c r="E125" t="n">
-        <v>60.4674380880194</v>
+        <v>61.6637381518572</v>
       </c>
     </row>
     <row r="126">
@@ -2707,7 +2707,7 @@
         <v>7</v>
       </c>
       <c r="E126" t="n">
-        <v>74.436473074623</v>
+        <v>79.1238955687266</v>
       </c>
     </row>
     <row r="127">
@@ -2724,7 +2724,7 @@
         <v>8</v>
       </c>
       <c r="E127" t="n">
-        <v>65.3577419121018</v>
+        <v>64.733275408531</v>
       </c>
     </row>
     <row r="128">
@@ -2741,7 +2741,7 @@
         <v>9</v>
       </c>
       <c r="E128" t="n">
-        <v>55.479972074375</v>
+        <v>55.4663976161862</v>
       </c>
     </row>
     <row r="129">
@@ -2758,7 +2758,7 @@
         <v>5</v>
       </c>
       <c r="E129" t="n">
-        <v>65.0913956870333</v>
+        <v>66.4411895311479</v>
       </c>
     </row>
     <row r="130">
@@ -2775,7 +2775,7 @@
         <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>75.2591445434702</v>
+        <v>79.5199185850546</v>
       </c>
     </row>
     <row r="131">
@@ -2792,7 +2792,7 @@
         <v>8</v>
       </c>
       <c r="E131" t="n">
-        <v>64.2209142503949</v>
+        <v>63.4734365931912</v>
       </c>
     </row>
     <row r="132">
@@ -2809,7 +2809,7 @@
         <v>9</v>
       </c>
       <c r="E132" t="n">
-        <v>56.3775767498045</v>
+        <v>56.3668978019833</v>
       </c>
     </row>
     <row r="133">
@@ -2826,7 +2826,7 @@
         <v>5</v>
       </c>
       <c r="E133" t="n">
-        <v>65.2858785145565</v>
+        <v>66.4534176600764</v>
       </c>
     </row>
     <row r="134">
@@ -2843,7 +2843,7 @@
         <v>7</v>
       </c>
       <c r="E134" t="n">
-        <v>74.509172442547</v>
+        <v>78.3820256293775</v>
       </c>
     </row>
     <row r="135">
@@ -2860,7 +2860,7 @@
         <v>8</v>
       </c>
       <c r="E135" t="n">
-        <v>65.4979809541404</v>
+        <v>63.6140560906933</v>
       </c>
     </row>
     <row r="136">
@@ -2877,7 +2877,7 @@
         <v>9</v>
       </c>
       <c r="E136" t="n">
-        <v>59.9761241121599</v>
+        <v>59.963058560468</v>
       </c>
     </row>
     <row r="137">
@@ -2894,7 +2894,7 @@
         <v>5</v>
       </c>
       <c r="E137" t="n">
-        <v>66.6610925029491</v>
+        <v>67.3197134268463</v>
       </c>
     </row>
     <row r="138">
@@ -2911,7 +2911,7 @@
         <v>7</v>
       </c>
       <c r="E138" t="n">
-        <v>74.6688147486159</v>
+        <v>77.9490196095518</v>
       </c>
     </row>
     <row r="139">
@@ -2928,7 +2928,7 @@
         <v>8</v>
       </c>
       <c r="E139" t="n">
-        <v>64.4502993909022</v>
+        <v>63.1006279999138</v>
       </c>
     </row>
     <row r="140">
@@ -2945,7 +2945,7 @@
         <v>9</v>
       </c>
       <c r="E140" t="n">
-        <v>61.8809222123498</v>
+        <v>61.8749755330965</v>
       </c>
     </row>
     <row r="141">
@@ -2962,7 +2962,7 @@
         <v>5</v>
       </c>
       <c r="E141" t="n">
-        <v>67.0000121172893</v>
+        <v>67.6415410475207</v>
       </c>
     </row>
     <row r="142">
@@ -2979,7 +2979,7 @@
         <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>75.4848802341961</v>
+        <v>76.6874204665782</v>
       </c>
     </row>
     <row r="143">
@@ -2996,7 +2996,7 @@
         <v>8</v>
       </c>
       <c r="E143" t="n">
-        <v>58.9697561303434</v>
+        <v>60.4228127244543</v>
       </c>
     </row>
     <row r="144">
@@ -3013,7 +3013,7 @@
         <v>9</v>
       </c>
       <c r="E144" t="n">
-        <v>64.086849795253</v>
+        <v>64.0798143727146</v>
       </c>
     </row>
     <row r="145">
@@ -3030,7 +3030,7 @@
         <v>5</v>
       </c>
       <c r="E145" t="n">
-        <v>66.1804953865975</v>
+        <v>67.0633491879157</v>
       </c>
     </row>
     <row r="146">
@@ -3047,7 +3047,7 @@
         <v>7</v>
       </c>
       <c r="E146" t="n">
-        <v>59.4124668626393</v>
+        <v>63.0590249690705</v>
       </c>
     </row>
     <row r="147">
@@ -3064,7 +3064,7 @@
         <v>8</v>
       </c>
       <c r="E147" t="n">
-        <v>67.1656714872813</v>
+        <v>67.1286944468684</v>
       </c>
     </row>
     <row r="148">
@@ -3081,7 +3081,7 @@
         <v>9</v>
       </c>
       <c r="E148" t="n">
-        <v>56.1986659196721</v>
+        <v>56.2008016021433</v>
       </c>
     </row>
     <row r="149">
@@ -3098,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="E149" t="n">
-        <v>60.9256014231976</v>
+        <v>62.1295070060274</v>
       </c>
     </row>
     <row r="150">
@@ -3115,7 +3115,7 @@
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>70.7285636438847</v>
+        <v>75.0771205801</v>
       </c>
     </row>
     <row r="151">
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="E151" t="n">
-        <v>67.8073005635331</v>
+        <v>66.9500727568176</v>
       </c>
     </row>
     <row r="152">
@@ -3149,7 +3149,7 @@
         <v>9</v>
       </c>
       <c r="E152" t="n">
-        <v>55.5514128022529</v>
+        <v>55.5489418375138</v>
       </c>
     </row>
     <row r="153">
@@ -3166,7 +3166,7 @@
         <v>5</v>
       </c>
       <c r="E153" t="n">
-        <v>64.6957590032236</v>
+        <v>65.8587117248105</v>
       </c>
     </row>
     <row r="154">
@@ -3183,7 +3183,7 @@
         <v>7</v>
       </c>
       <c r="E154" t="n">
-        <v>72.1416915719657</v>
+        <v>74.8206579755529</v>
       </c>
     </row>
     <row r="155">
@@ -3200,7 +3200,7 @@
         <v>8</v>
       </c>
       <c r="E155" t="n">
-        <v>67.463551166631</v>
+        <v>65.8591449886531</v>
       </c>
     </row>
     <row r="156">
@@ -3217,7 +3217,7 @@
         <v>9</v>
       </c>
       <c r="E156" t="n">
-        <v>55.0438575994034</v>
+        <v>55.0350636713494</v>
       </c>
     </row>
     <row r="157">
@@ -3234,7 +3234,7 @@
         <v>5</v>
       </c>
       <c r="E157" t="n">
-        <v>64.883033446</v>
+        <v>65.2382888785184</v>
       </c>
     </row>
     <row r="158">
@@ -3251,7 +3251,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>69.9542388627753</v>
+        <v>73.7711095146333</v>
       </c>
     </row>
     <row r="159">
@@ -3268,7 +3268,7 @@
         <v>8</v>
       </c>
       <c r="E159" t="n">
-        <v>68.195506332766</v>
+        <v>65.7235158341473</v>
       </c>
     </row>
     <row r="160">
@@ -3285,7 +3285,7 @@
         <v>9</v>
       </c>
       <c r="E160" t="n">
-        <v>61.4521963265511</v>
+        <v>61.4540998276333</v>
       </c>
     </row>
     <row r="161">
@@ -3302,7 +3302,7 @@
         <v>5</v>
       </c>
       <c r="E161" t="n">
-        <v>66.5339805073641</v>
+        <v>66.9829083921379</v>
       </c>
     </row>
     <row r="162">
@@ -3319,7 +3319,7 @@
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>66.2675122259364</v>
+        <v>69.2656225262376</v>
       </c>
     </row>
     <row r="163">
@@ -3336,7 +3336,7 @@
         <v>8</v>
       </c>
       <c r="E163" t="n">
-        <v>65.9513279859055</v>
+        <v>63.9088974159381</v>
       </c>
     </row>
     <row r="164">
@@ -3353,7 +3353,7 @@
         <v>9</v>
       </c>
       <c r="E164" t="n">
-        <v>60.5486734903707</v>
+        <v>60.5481711994259</v>
       </c>
     </row>
     <row r="165">
@@ -3370,7 +3370,7 @@
         <v>5</v>
       </c>
       <c r="E165" t="n">
-        <v>64.2558379007375</v>
+        <v>64.5742303805339</v>
       </c>
     </row>
     <row r="166">
@@ -3387,7 +3387,7 @@
         <v>7</v>
       </c>
       <c r="E166" t="n">
-        <v>68.4043911865699</v>
+        <v>71.1933881994698</v>
       </c>
     </row>
     <row r="167">
@@ -3404,7 +3404,7 @@
         <v>8</v>
       </c>
       <c r="E167" t="n">
-        <v>62.374425937772</v>
+        <v>62.5927758242299</v>
       </c>
     </row>
     <row r="168">
@@ -3421,7 +3421,7 @@
         <v>9</v>
       </c>
       <c r="E168" t="n">
-        <v>64.0204796494852</v>
+        <v>64.020279304593</v>
       </c>
     </row>
     <row r="169">
@@ -3438,7 +3438,7 @@
         <v>5</v>
       </c>
       <c r="E169" t="n">
-        <v>64.933098924609</v>
+        <v>65.9354811094309</v>
       </c>
     </row>
     <row r="170">
@@ -3455,7 +3455,7 @@
         <v>7</v>
       </c>
       <c r="E170" t="n">
-        <v>40.3239609261084</v>
+        <v>51.2453814959791</v>
       </c>
     </row>
     <row r="171">
@@ -3472,7 +3472,7 @@
         <v>8</v>
       </c>
       <c r="E171" t="n">
-        <v>57.7692475428492</v>
+        <v>55.9390870898687</v>
       </c>
     </row>
     <row r="172">
@@ -3489,7 +3489,7 @@
         <v>9</v>
       </c>
       <c r="E172" t="n">
-        <v>37.6799675650638</v>
+        <v>37.6881757465306</v>
       </c>
     </row>
     <row r="173">
@@ -3506,7 +3506,7 @@
         <v>5</v>
       </c>
       <c r="E173" t="n">
-        <v>45.2577253446738</v>
+        <v>48.2908814441261</v>
       </c>
     </row>
     <row r="174">
@@ -3523,7 +3523,7 @@
         <v>7</v>
       </c>
       <c r="E174" t="n">
-        <v>47.3853467394531</v>
+        <v>57.0060651289633</v>
       </c>
     </row>
     <row r="175">
@@ -3540,7 +3540,7 @@
         <v>8</v>
       </c>
       <c r="E175" t="n">
-        <v>59.3931842790242</v>
+        <v>57.8922368898019</v>
       </c>
     </row>
     <row r="176">
@@ -3557,7 +3557,7 @@
         <v>9</v>
       </c>
       <c r="E176" t="n">
-        <v>38.0555906651207</v>
+        <v>38.0476291303449</v>
       </c>
     </row>
     <row r="177">
@@ -3574,7 +3574,7 @@
         <v>5</v>
       </c>
       <c r="E177" t="n">
-        <v>48.2780405611993</v>
+        <v>50.9819770497034</v>
       </c>
     </row>
     <row r="178">
@@ -3591,7 +3591,7 @@
         <v>7</v>
       </c>
       <c r="E178" t="n">
-        <v>47.6546277425919</v>
+        <v>56.029248112909</v>
       </c>
     </row>
     <row r="179">
@@ -3608,7 +3608,7 @@
         <v>8</v>
       </c>
       <c r="E179" t="n">
-        <v>58.0052535462387</v>
+        <v>56.8053203388451</v>
       </c>
     </row>
     <row r="180">
@@ -3625,7 +3625,7 @@
         <v>9</v>
       </c>
       <c r="E180" t="n">
-        <v>42.5958511293345</v>
+        <v>42.5943970814233</v>
       </c>
     </row>
     <row r="181">
@@ -3642,7 +3642,7 @@
         <v>5</v>
       </c>
       <c r="E181" t="n">
-        <v>49.4185774727217</v>
+        <v>51.8096551777258</v>
       </c>
     </row>
     <row r="182">
@@ -3659,7 +3659,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>45.5386605600445</v>
+        <v>55.5295170086239</v>
       </c>
     </row>
     <row r="183">
@@ -3676,7 +3676,7 @@
         <v>8</v>
       </c>
       <c r="E183" t="n">
-        <v>60.0166378993773</v>
+        <v>58.6919788153999</v>
       </c>
     </row>
     <row r="184">
@@ -3693,7 +3693,7 @@
         <v>9</v>
       </c>
       <c r="E184" t="n">
-        <v>42.3628087225159</v>
+        <v>42.3709342311619</v>
       </c>
     </row>
     <row r="185">
@@ -3710,7 +3710,7 @@
         <v>5</v>
       </c>
       <c r="E185" t="n">
-        <v>49.3060357273126</v>
+        <v>52.1974766850619</v>
       </c>
     </row>
     <row r="186">
@@ -3727,7 +3727,7 @@
         <v>7</v>
       </c>
       <c r="E186" t="n">
-        <v>53.0234809162502</v>
+        <v>56.3648958134649</v>
       </c>
     </row>
     <row r="187">
@@ -3744,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="E187" t="n">
-        <v>59.8623976536765</v>
+        <v>58.4376622572378</v>
       </c>
     </row>
     <row r="188">
@@ -3761,7 +3761,7 @@
         <v>9</v>
       </c>
       <c r="E188" t="n">
-        <v>41.6268647884884</v>
+        <v>41.6491301772434</v>
       </c>
     </row>
     <row r="189">
@@ -3778,7 +3778,7 @@
         <v>5</v>
       </c>
       <c r="E189" t="n">
-        <v>51.5042477861384</v>
+        <v>52.1505627493154</v>
       </c>
     </row>
     <row r="190">
@@ -3795,7 +3795,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>52.0612596801404</v>
+        <v>53.1685504966934</v>
       </c>
     </row>
     <row r="191">
@@ -3812,7 +3812,7 @@
         <v>8</v>
       </c>
       <c r="E191" t="n">
-        <v>52.6752880950208</v>
+        <v>53.5703241354586</v>
       </c>
     </row>
     <row r="192">
@@ -3829,7 +3829,7 @@
         <v>9</v>
       </c>
       <c r="E192" t="n">
-        <v>44.3453256628931</v>
+        <v>44.3627396324977</v>
       </c>
     </row>
     <row r="193">
@@ -3846,7 +3846,7 @@
         <v>5</v>
       </c>
       <c r="E193" t="n">
-        <v>49.6939578126848</v>
+        <v>50.3672047548832</v>
       </c>
     </row>
     <row r="194">
@@ -3863,7 +3863,7 @@
         <v>7</v>
       </c>
       <c r="E194" t="n">
-        <v>64.2702961971085</v>
+        <v>68.8544425170481</v>
       </c>
     </row>
     <row r="195">
@@ -3880,7 +3880,7 @@
         <v>8</v>
       </c>
       <c r="E195" t="n">
-        <v>68.4062758225327</v>
+        <v>65.4729662712052</v>
       </c>
     </row>
     <row r="196">
@@ -3897,7 +3897,7 @@
         <v>9</v>
       </c>
       <c r="E196" t="n">
-        <v>52.0977805425001</v>
+        <v>52.1113972052363</v>
       </c>
     </row>
     <row r="197">
@@ -3914,7 +3914,7 @@
         <v>5</v>
       </c>
       <c r="E197" t="n">
-        <v>61.5914508540471</v>
+        <v>62.1462686644966</v>
       </c>
     </row>
     <row r="198">
@@ -3931,7 +3931,7 @@
         <v>7</v>
       </c>
       <c r="E198" t="n">
-        <v>72.1310159358559</v>
+        <v>76.4746464130983</v>
       </c>
     </row>
     <row r="199">
@@ -3948,7 +3948,7 @@
         <v>8</v>
       </c>
       <c r="E199" t="n">
-        <v>68.2123358276851</v>
+        <v>65.7392658224249</v>
       </c>
     </row>
     <row r="200">
@@ -3965,7 +3965,7 @@
         <v>9</v>
       </c>
       <c r="E200" t="n">
-        <v>53.7242727535258</v>
+        <v>53.6998535267885</v>
       </c>
     </row>
     <row r="201">
@@ -3982,7 +3982,7 @@
         <v>5</v>
       </c>
       <c r="E201" t="n">
-        <v>64.6892081723556</v>
+        <v>65.3045885874373</v>
       </c>
     </row>
     <row r="202">
@@ -3999,7 +3999,7 @@
         <v>7</v>
       </c>
       <c r="E202" t="n">
-        <v>69.8910505607022</v>
+        <v>74.6638121950999</v>
       </c>
     </row>
     <row r="203">
@@ -4016,7 +4016,7 @@
         <v>8</v>
       </c>
       <c r="E203" t="n">
-        <v>68.3226150654489</v>
+        <v>65.9792906753255</v>
       </c>
     </row>
     <row r="204">
@@ -4033,7 +4033,7 @@
         <v>9</v>
       </c>
       <c r="E204" t="n">
-        <v>55.153127038182</v>
+        <v>55.1404741848088</v>
       </c>
     </row>
     <row r="205">
@@ -4050,7 +4050,7 @@
         <v>5</v>
       </c>
       <c r="E205" t="n">
-        <v>64.4555975547777</v>
+        <v>65.2611923517447</v>
       </c>
     </row>
     <row r="206">
@@ -4067,7 +4067,7 @@
         <v>7</v>
       </c>
       <c r="E206" t="n">
-        <v>68.5026299969747</v>
+        <v>73.0204317475665</v>
       </c>
     </row>
     <row r="207">
@@ -4084,7 +4084,7 @@
         <v>8</v>
       </c>
       <c r="E207" t="n">
-        <v>70.4135788517424</v>
+        <v>66.6915614737962</v>
       </c>
     </row>
     <row r="208">
@@ -4101,7 +4101,7 @@
         <v>9</v>
       </c>
       <c r="E208" t="n">
-        <v>59.8378416243175</v>
+        <v>59.8286787896065</v>
       </c>
     </row>
     <row r="209">
@@ -4118,7 +4118,7 @@
         <v>5</v>
       </c>
       <c r="E209" t="n">
-        <v>66.2513501576782</v>
+        <v>66.5135573369897</v>
       </c>
     </row>
     <row r="210">
@@ -4135,7 +4135,7 @@
         <v>7</v>
       </c>
       <c r="E210" t="n">
-        <v>67.5642930806803</v>
+        <v>71.8946923451435</v>
       </c>
     </row>
     <row r="211">
@@ -4152,7 +4152,7 @@
         <v>8</v>
       </c>
       <c r="E211" t="n">
-        <v>69.977261015583</v>
+        <v>66.4701278031183</v>
       </c>
     </row>
     <row r="212">
@@ -4169,7 +4169,7 @@
         <v>9</v>
       </c>
       <c r="E212" t="n">
-        <v>60.2005997208906</v>
+        <v>60.2067683882871</v>
       </c>
     </row>
     <row r="213">
@@ -4186,7 +4186,7 @@
         <v>5</v>
       </c>
       <c r="E213" t="n">
-        <v>65.9140512723846</v>
+        <v>66.1905295121829</v>
       </c>
     </row>
     <row r="214">
@@ -4203,7 +4203,7 @@
         <v>7</v>
       </c>
       <c r="E214" t="n">
-        <v>66.7185625150447</v>
+        <v>67.3533019743123</v>
       </c>
     </row>
     <row r="215">
@@ -4220,7 +4220,7 @@
         <v>8</v>
       </c>
       <c r="E215" t="n">
-        <v>65.4676974663442</v>
+        <v>64.0460582043623</v>
       </c>
     </row>
     <row r="216">
@@ -4237,7 +4237,7 @@
         <v>9</v>
       </c>
       <c r="E216" t="n">
-        <v>61.4719686790185</v>
+        <v>61.4797102399254</v>
       </c>
     </row>
     <row r="217">
@@ -4254,7 +4254,7 @@
         <v>5</v>
       </c>
       <c r="E217" t="n">
-        <v>64.5527428868025</v>
+        <v>64.2930234728667</v>
       </c>
     </row>
     <row r="218">
@@ -4271,7 +4271,7 @@
         <v>7</v>
       </c>
       <c r="E218" t="n">
-        <v>73.4836643814034</v>
+        <v>74.5343693022612</v>
       </c>
     </row>
     <row r="219">
@@ -4288,7 +4288,7 @@
         <v>8</v>
       </c>
       <c r="E219" t="n">
-        <v>73.564637527817</v>
+        <v>73.0599689355416</v>
       </c>
     </row>
     <row r="220">
@@ -4305,7 +4305,7 @@
         <v>9</v>
       </c>
       <c r="E220" t="n">
-        <v>62.5472101832979</v>
+        <v>62.5488574692751</v>
       </c>
     </row>
     <row r="221">
@@ -4322,7 +4322,7 @@
         <v>5</v>
       </c>
       <c r="E221" t="n">
-        <v>69.8651706975061</v>
+        <v>70.0477319023593</v>
       </c>
     </row>
     <row r="222">
@@ -4339,7 +4339,7 @@
         <v>7</v>
       </c>
       <c r="E222" t="n">
-        <v>75.9849671011536</v>
+        <v>74.6619477946754</v>
       </c>
     </row>
     <row r="223">
@@ -4356,7 +4356,7 @@
         <v>8</v>
       </c>
       <c r="E223" t="n">
-        <v>73.671593567322</v>
+        <v>73.4439416510247</v>
       </c>
     </row>
     <row r="224">
@@ -4373,7 +4373,7 @@
         <v>9</v>
       </c>
       <c r="E224" t="n">
-        <v>65.7514939837167</v>
+        <v>65.7398221146672</v>
       </c>
     </row>
     <row r="225">
@@ -4390,7 +4390,7 @@
         <v>5</v>
       </c>
       <c r="E225" t="n">
-        <v>71.8026848840641</v>
+        <v>71.2819038534558</v>
       </c>
     </row>
     <row r="226">
@@ -4407,7 +4407,7 @@
         <v>7</v>
       </c>
       <c r="E226" t="n">
-        <v>73.246122977249</v>
+        <v>73.0338027839568</v>
       </c>
     </row>
     <row r="227">
@@ -4424,7 +4424,7 @@
         <v>8</v>
       </c>
       <c r="E227" t="n">
-        <v>74.4975668906083</v>
+        <v>73.8803886647679</v>
       </c>
     </row>
     <row r="228">
@@ -4441,7 +4441,7 @@
         <v>9</v>
       </c>
       <c r="E228" t="n">
-        <v>65.5414427635799</v>
+        <v>65.5309702084078</v>
       </c>
     </row>
     <row r="229">
@@ -4458,7 +4458,7 @@
         <v>5</v>
       </c>
       <c r="E229" t="n">
-        <v>71.095044210479</v>
+        <v>70.8150538857109</v>
       </c>
     </row>
     <row r="230">
@@ -4475,7 +4475,7 @@
         <v>7</v>
       </c>
       <c r="E230" t="n">
-        <v>71.4414229834455</v>
+        <v>70.8871233171558</v>
       </c>
     </row>
     <row r="231">
@@ -4492,7 +4492,7 @@
         <v>8</v>
       </c>
       <c r="E231" t="n">
-        <v>75.8141028653985</v>
+        <v>74.3721965635346</v>
       </c>
     </row>
     <row r="232">
@@ -4509,7 +4509,7 @@
         <v>9</v>
       </c>
       <c r="E232" t="n">
-        <v>75.3820478824186</v>
+        <v>75.3761887725111</v>
       </c>
     </row>
     <row r="233">
@@ -4526,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="E233" t="n">
-        <v>74.2125245770875</v>
+        <v>73.5451695510672</v>
       </c>
     </row>
     <row r="234">
@@ -4543,7 +4543,7 @@
         <v>7</v>
       </c>
       <c r="E234" t="n">
-        <v>64.5099264951583</v>
+        <v>69.5635896204931</v>
       </c>
     </row>
     <row r="235">
@@ -4560,7 +4560,7 @@
         <v>8</v>
       </c>
       <c r="E235" t="n">
-        <v>75.6903944873934</v>
+        <v>74.4167546813967</v>
       </c>
     </row>
     <row r="236">
@@ -4577,7 +4577,7 @@
         <v>9</v>
       </c>
       <c r="E236" t="n">
-        <v>74.3637765964775</v>
+        <v>74.3672939270848</v>
       </c>
     </row>
     <row r="237">
@@ -4594,7 +4594,7 @@
         <v>5</v>
       </c>
       <c r="E237" t="n">
-        <v>71.5213658596764</v>
+        <v>72.7825460763248</v>
       </c>
     </row>
     <row r="238">
@@ -4611,7 +4611,7 @@
         <v>7</v>
       </c>
       <c r="E238" t="n">
-        <v>65.6923387035441</v>
+        <v>62.0800814483136</v>
       </c>
     </row>
     <row r="239">
@@ -4628,7 +4628,7 @@
         <v>8</v>
       </c>
       <c r="E239" t="n">
-        <v>68.4107678920946</v>
+        <v>70.6103102508613</v>
       </c>
     </row>
     <row r="240">
@@ -4645,7 +4645,7 @@
         <v>9</v>
       </c>
       <c r="E240" t="n">
-        <v>75.6439424101464</v>
+        <v>75.6468009029229</v>
       </c>
     </row>
     <row r="241">
@@ -4662,7 +4662,7 @@
         <v>5</v>
       </c>
       <c r="E241" t="n">
-        <v>69.9156830019284</v>
+        <v>69.4457308673659</v>
       </c>
     </row>
     <row r="242">
@@ -4679,7 +4679,7 @@
         <v>7</v>
       </c>
       <c r="E242" t="n">
-        <v>73.2754945360262</v>
+        <v>78.0576586218856</v>
       </c>
     </row>
     <row r="243">
@@ -4696,7 +4696,7 @@
         <v>8</v>
       </c>
       <c r="E243" t="n">
-        <v>66.7007487711774</v>
+        <v>64.024309952812</v>
       </c>
     </row>
     <row r="244">
@@ -4713,7 +4713,7 @@
         <v>9</v>
       </c>
       <c r="E244" t="n">
-        <v>48.2269657795475</v>
+        <v>48.2204217451651</v>
       </c>
     </row>
     <row r="245">
@@ -4730,7 +4730,7 @@
         <v>5</v>
       </c>
       <c r="E245" t="n">
-        <v>62.734403028917</v>
+        <v>63.4341301066209</v>
       </c>
     </row>
     <row r="246">
@@ -4747,7 +4747,7 @@
         <v>7</v>
       </c>
       <c r="E246" t="n">
-        <v>74.4487110220132</v>
+        <v>79.5873226915103</v>
       </c>
     </row>
     <row r="247">
@@ -4764,7 +4764,7 @@
         <v>8</v>
       </c>
       <c r="E247" t="n">
-        <v>67.2401089908573</v>
+        <v>64.4571387268306</v>
       </c>
     </row>
     <row r="248">
@@ -4781,7 +4781,7 @@
         <v>9</v>
       </c>
       <c r="E248" t="n">
-        <v>51.6080259738792</v>
+        <v>51.5845443384727</v>
       </c>
     </row>
     <row r="249">
@@ -4798,7 +4798,7 @@
         <v>5</v>
       </c>
       <c r="E249" t="n">
-        <v>64.4322819955832</v>
+        <v>65.2096685856045</v>
       </c>
     </row>
     <row r="250">
@@ -4815,7 +4815,7 @@
         <v>7</v>
       </c>
       <c r="E250" t="n">
-        <v>75.3855373587274</v>
+        <v>80.2425828598046</v>
       </c>
     </row>
     <row r="251">
@@ -4832,7 +4832,7 @@
         <v>8</v>
       </c>
       <c r="E251" t="n">
-        <v>65.7379300171505</v>
+        <v>63.0764839663885</v>
       </c>
     </row>
     <row r="252">
@@ -4849,7 +4849,7 @@
         <v>9</v>
       </c>
       <c r="E252" t="n">
-        <v>50.9978548964355</v>
+        <v>50.9648163570346</v>
       </c>
     </row>
     <row r="253">
@@ -4866,7 +4866,7 @@
         <v>5</v>
       </c>
       <c r="E253" t="n">
-        <v>64.0404407574378</v>
+        <v>64.7612943944092</v>
       </c>
     </row>
     <row r="254">
@@ -4883,7 +4883,7 @@
         <v>7</v>
       </c>
       <c r="E254" t="n">
-        <v>71.4728772842208</v>
+        <v>78.99470402455</v>
       </c>
     </row>
     <row r="255">
@@ -4900,7 +4900,7 @@
         <v>8</v>
       </c>
       <c r="E255" t="n">
-        <v>67.7923575356999</v>
+        <v>64.0427742831201</v>
       </c>
     </row>
     <row r="256">
@@ -4917,7 +4917,7 @@
         <v>9</v>
       </c>
       <c r="E256" t="n">
-        <v>55.2672175497756</v>
+        <v>55.2508231400792</v>
       </c>
     </row>
     <row r="257">
@@ -4934,7 +4934,7 @@
         <v>5</v>
       </c>
       <c r="E257" t="n">
-        <v>64.8441507898987</v>
+        <v>66.0961004825831</v>
       </c>
     </row>
     <row r="258">
@@ -4951,7 +4951,7 @@
         <v>7</v>
       </c>
       <c r="E258" t="n">
-        <v>72.3394433961417</v>
+        <v>76.6994867971517</v>
       </c>
     </row>
     <row r="259">
@@ -4968,7 +4968,7 @@
         <v>8</v>
       </c>
       <c r="E259" t="n">
-        <v>66.8070687515867</v>
+        <v>63.5483170028637</v>
       </c>
     </row>
     <row r="260">
@@ -4985,7 +4985,7 @@
         <v>9</v>
       </c>
       <c r="E260" t="n">
-        <v>57.5195524660179</v>
+        <v>57.5084436463784</v>
       </c>
     </row>
     <row r="261">
@@ -5002,7 +5002,7 @@
         <v>5</v>
       </c>
       <c r="E261" t="n">
-        <v>65.5553548712488</v>
+        <v>65.9187491487979</v>
       </c>
     </row>
     <row r="262">
@@ -5019,7 +5019,7 @@
         <v>7</v>
       </c>
       <c r="E262" t="n">
-        <v>71.9224366069548</v>
+        <v>78.7368374933013</v>
       </c>
     </row>
     <row r="263">
@@ -5036,7 +5036,7 @@
         <v>8</v>
       </c>
       <c r="E263" t="n">
-        <v>64.3577579311729</v>
+        <v>61.3295883357418</v>
       </c>
     </row>
     <row r="264">
@@ -5053,7 +5053,7 @@
         <v>9</v>
       </c>
       <c r="E264" t="n">
-        <v>59.7462360798383</v>
+        <v>59.7386944725515</v>
       </c>
     </row>
     <row r="265">
@@ -5070,7 +5070,7 @@
         <v>5</v>
       </c>
       <c r="E265" t="n">
-        <v>65.342143539322</v>
+        <v>66.6017067671982</v>
       </c>
     </row>
     <row r="266">
@@ -5087,7 +5087,7 @@
         <v>7</v>
       </c>
       <c r="E266" t="n">
-        <v>56.0771548280649</v>
+        <v>61.8739236202892</v>
       </c>
     </row>
     <row r="267">
@@ -5104,7 +5104,7 @@
         <v>8</v>
       </c>
       <c r="E267" t="n">
-        <v>66.5072245533493</v>
+        <v>66.3204620207408</v>
       </c>
     </row>
     <row r="268">
@@ -5121,7 +5121,7 @@
         <v>9</v>
       </c>
       <c r="E268" t="n">
-        <v>43.5743913860209</v>
+        <v>43.541307740152</v>
       </c>
     </row>
     <row r="269">
@@ -5138,7 +5138,7 @@
         <v>5</v>
       </c>
       <c r="E269" t="n">
-        <v>55.3862569224784</v>
+        <v>57.2452311270607</v>
       </c>
     </row>
     <row r="270">
@@ -5155,7 +5155,7 @@
         <v>7</v>
       </c>
       <c r="E270" t="n">
-        <v>72.6448149024517</v>
+        <v>78.4742129014617</v>
       </c>
     </row>
     <row r="271">
@@ -5172,7 +5172,7 @@
         <v>8</v>
       </c>
       <c r="E271" t="n">
-        <v>64.9016909257577</v>
+        <v>64.8375028635327</v>
       </c>
     </row>
     <row r="272">
@@ -5189,7 +5189,7 @@
         <v>9</v>
       </c>
       <c r="E272" t="n">
-        <v>46.5434175228416</v>
+        <v>46.51063163457</v>
       </c>
     </row>
     <row r="273">
@@ -5206,7 +5206,7 @@
         <v>5</v>
       </c>
       <c r="E273" t="n">
-        <v>61.3633077836837</v>
+        <v>63.2741157998548</v>
       </c>
     </row>
     <row r="274">
@@ -5223,7 +5223,7 @@
         <v>7</v>
       </c>
       <c r="E274" t="n">
-        <v>69.8181854615773</v>
+        <v>75.4036806099665</v>
       </c>
     </row>
     <row r="275">
@@ -5240,7 +5240,7 @@
         <v>8</v>
       </c>
       <c r="E275" t="n">
-        <v>64.9130251478935</v>
+        <v>64.8737710044428</v>
       </c>
     </row>
     <row r="276">
@@ -5257,7 +5257,7 @@
         <v>9</v>
       </c>
       <c r="E276" t="n">
-        <v>49.4112040716941</v>
+        <v>49.3834538844065</v>
       </c>
     </row>
     <row r="277">
@@ -5274,7 +5274,7 @@
         <v>5</v>
       </c>
       <c r="E277" t="n">
-        <v>61.3808048937216</v>
+        <v>63.2203018329386</v>
       </c>
     </row>
     <row r="278">
@@ -5291,7 +5291,7 @@
         <v>7</v>
       </c>
       <c r="E278" t="n">
-        <v>70.743617098594</v>
+        <v>73.8774377045194</v>
       </c>
     </row>
     <row r="279">
@@ -5308,7 +5308,7 @@
         <v>8</v>
       </c>
       <c r="E279" t="n">
-        <v>65.4379648575613</v>
+        <v>64.7200579840178</v>
       </c>
     </row>
     <row r="280">
@@ -5325,7 +5325,7 @@
         <v>9</v>
       </c>
       <c r="E280" t="n">
-        <v>53.0143012725181</v>
+        <v>52.9972106288371</v>
       </c>
     </row>
     <row r="281">
@@ -5342,7 +5342,7 @@
         <v>5</v>
       </c>
       <c r="E281" t="n">
-        <v>63.0652944095578</v>
+        <v>63.8649021057914</v>
       </c>
     </row>
     <row r="282">
@@ -5359,7 +5359,7 @@
         <v>7</v>
       </c>
       <c r="E282" t="n">
-        <v>69.4359878521405</v>
+        <v>72.4685100529714</v>
       </c>
     </row>
     <row r="283">
@@ -5376,7 +5376,7 @@
         <v>8</v>
       </c>
       <c r="E283" t="n">
-        <v>64.4610437593725</v>
+        <v>64.0677911967663</v>
       </c>
     </row>
     <row r="284">
@@ -5393,7 +5393,7 @@
         <v>9</v>
       </c>
       <c r="E284" t="n">
-        <v>52.772986147691</v>
+        <v>52.7610813586309</v>
       </c>
     </row>
     <row r="285">
@@ -5410,7 +5410,7 @@
         <v>5</v>
       </c>
       <c r="E285" t="n">
-        <v>62.223339253068</v>
+        <v>63.0991275361229</v>
       </c>
     </row>
     <row r="286">
@@ -5427,7 +5427,7 @@
         <v>7</v>
       </c>
       <c r="E286" t="n">
-        <v>67.2228549414161</v>
+        <v>68.7817623159303</v>
       </c>
     </row>
     <row r="287">
@@ -5444,7 +5444,7 @@
         <v>8</v>
       </c>
       <c r="E287" t="n">
-        <v>59.9419000131537</v>
+        <v>61.2161870965315</v>
       </c>
     </row>
     <row r="288">
@@ -5461,7 +5461,7 @@
         <v>9</v>
       </c>
       <c r="E288" t="n">
-        <v>53.9729777959241</v>
+        <v>53.9640358408044</v>
       </c>
     </row>
     <row r="289">
@@ -5478,7 +5478,7 @@
         <v>5</v>
       </c>
       <c r="E289" t="n">
-        <v>60.3792442501646</v>
+        <v>61.3206617510887</v>
       </c>
     </row>
     <row r="290">
@@ -5495,7 +5495,7 @@
         <v>7</v>
       </c>
       <c r="E290" t="n">
-        <v>33.4239401876858</v>
+        <v>43.3913815380724</v>
       </c>
     </row>
     <row r="291">
@@ -5512,7 +5512,7 @@
         <v>8</v>
       </c>
       <c r="E291" t="n">
-        <v>55.5226502722953</v>
+        <v>55.1260899311849</v>
       </c>
     </row>
     <row r="292">
@@ -5529,7 +5529,7 @@
         <v>9</v>
       </c>
       <c r="E292" t="n">
-        <v>37.5671715395473</v>
+        <v>37.551078032415</v>
       </c>
     </row>
     <row r="293">
@@ -5546,7 +5546,7 @@
         <v>5</v>
       </c>
       <c r="E293" t="n">
-        <v>42.1712539998428</v>
+        <v>45.3561831672241</v>
       </c>
     </row>
     <row r="294">
@@ -5563,7 +5563,7 @@
         <v>7</v>
       </c>
       <c r="E294" t="n">
-        <v>33.6990637052518</v>
+        <v>43.8558338521584</v>
       </c>
     </row>
     <row r="295">
@@ -5580,7 +5580,7 @@
         <v>8</v>
       </c>
       <c r="E295" t="n">
-        <v>56.8637758527867</v>
+        <v>56.290775335529</v>
       </c>
     </row>
     <row r="296">
@@ -5597,7 +5597,7 @@
         <v>9</v>
       </c>
       <c r="E296" t="n">
-        <v>38.7577163033523</v>
+        <v>38.7423288045026</v>
       </c>
     </row>
     <row r="297">
@@ -5614,7 +5614,7 @@
         <v>5</v>
       </c>
       <c r="E297" t="n">
-        <v>43.1068519537969</v>
+        <v>46.2963126640634</v>
       </c>
     </row>
     <row r="298">
@@ -5631,7 +5631,7 @@
         <v>7</v>
       </c>
       <c r="E298" t="n">
-        <v>36.4009976353207</v>
+        <v>46.2132162821184</v>
       </c>
     </row>
     <row r="299">
@@ -5648,7 +5648,7 @@
         <v>8</v>
       </c>
       <c r="E299" t="n">
-        <v>56.095562948822</v>
+        <v>55.6641223079287</v>
       </c>
     </row>
     <row r="300">
@@ -5665,7 +5665,7 @@
         <v>9</v>
       </c>
       <c r="E300" t="n">
-        <v>39.8308612909762</v>
+        <v>39.825711796814</v>
       </c>
     </row>
     <row r="301">
@@ -5682,7 +5682,7 @@
         <v>5</v>
       </c>
       <c r="E301" t="n">
-        <v>44.1091406250396</v>
+        <v>47.2343501289537</v>
       </c>
     </row>
     <row r="302">
@@ -5699,7 +5699,7 @@
         <v>7</v>
       </c>
       <c r="E302" t="n">
-        <v>37.9395965554546</v>
+        <v>48.0279958089044</v>
       </c>
     </row>
     <row r="303">
@@ -5716,7 +5716,7 @@
         <v>8</v>
       </c>
       <c r="E303" t="n">
-        <v>56.9974353195836</v>
+        <v>55.9903777889998</v>
       </c>
     </row>
     <row r="304">
@@ -5733,7 +5733,7 @@
         <v>9</v>
       </c>
       <c r="E304" t="n">
-        <v>41.6013443227485</v>
+        <v>41.6025910505258</v>
       </c>
     </row>
     <row r="305">
@@ -5750,7 +5750,7 @@
         <v>5</v>
       </c>
       <c r="E305" t="n">
-        <v>45.5127920659289</v>
+        <v>48.5403215494767</v>
       </c>
     </row>
     <row r="306">
@@ -5767,7 +5767,7 @@
         <v>7</v>
       </c>
       <c r="E306" t="n">
-        <v>41.8956003297268</v>
+        <v>46.1193647571713</v>
       </c>
     </row>
     <row r="307">
@@ -5784,7 +5784,7 @@
         <v>8</v>
       </c>
       <c r="E307" t="n">
-        <v>55.6886925599422</v>
+        <v>54.8743822287629</v>
       </c>
     </row>
     <row r="308">
@@ -5801,7 +5801,7 @@
         <v>9</v>
       </c>
       <c r="E308" t="n">
-        <v>41.4902019266009</v>
+        <v>41.5133096359075</v>
       </c>
     </row>
     <row r="309">
@@ -5818,7 +5818,7 @@
         <v>5</v>
       </c>
       <c r="E309" t="n">
-        <v>46.3581649387566</v>
+        <v>47.5023522072805</v>
       </c>
     </row>
     <row r="310">
@@ -5835,7 +5835,7 @@
         <v>7</v>
       </c>
       <c r="E310" t="n">
-        <v>42.5012315135534</v>
+        <v>45.7225046523962</v>
       </c>
     </row>
     <row r="311">
@@ -5852,7 +5852,7 @@
         <v>8</v>
       </c>
       <c r="E311" t="n">
-        <v>51.3042547221867</v>
+        <v>52.8029113679472</v>
       </c>
     </row>
     <row r="312">
@@ -5869,7 +5869,7 @@
         <v>9</v>
       </c>
       <c r="E312" t="n">
-        <v>46.2555701815727</v>
+        <v>46.2745774621281</v>
       </c>
     </row>
     <row r="313">
@@ -5886,7 +5886,7 @@
         <v>5</v>
       </c>
       <c r="E313" t="n">
-        <v>46.6870188057709</v>
+        <v>48.2666644941572</v>
       </c>
     </row>
     <row r="314">
@@ -5903,7 +5903,7 @@
         <v>7</v>
       </c>
       <c r="E314" t="n">
-        <v>64.6366406892227</v>
+        <v>69.4940474212727</v>
       </c>
     </row>
     <row r="315">
@@ -5920,7 +5920,7 @@
         <v>8</v>
       </c>
       <c r="E315" t="n">
-        <v>65.0131224456894</v>
+        <v>63.1434784013599</v>
       </c>
     </row>
     <row r="316">
@@ -5937,7 +5937,7 @@
         <v>9</v>
       </c>
       <c r="E316" t="n">
-        <v>46.292996990601</v>
+        <v>46.2758436367376</v>
       </c>
     </row>
     <row r="317">
@@ -5954,7 +5954,7 @@
         <v>5</v>
       </c>
       <c r="E317" t="n">
-        <v>58.6475867085044</v>
+        <v>59.6377898197901</v>
       </c>
     </row>
     <row r="318">
@@ -5971,7 +5971,7 @@
         <v>7</v>
       </c>
       <c r="E318" t="n">
-        <v>65.5380915374505</v>
+        <v>69.9747647124395</v>
       </c>
     </row>
     <row r="319">
@@ -5988,7 +5988,7 @@
         <v>8</v>
       </c>
       <c r="E319" t="n">
-        <v>66.6363126166074</v>
+        <v>65.1793853209345</v>
       </c>
     </row>
     <row r="320">
@@ -6005,7 +6005,7 @@
         <v>9</v>
       </c>
       <c r="E320" t="n">
-        <v>47.5956345476522</v>
+        <v>47.5736722489501</v>
       </c>
     </row>
     <row r="321">
@@ -6022,7 +6022,7 @@
         <v>5</v>
       </c>
       <c r="E321" t="n">
-        <v>59.9233462339033</v>
+        <v>60.9092740941081</v>
       </c>
     </row>
     <row r="322">
@@ -6039,7 +6039,7 @@
         <v>7</v>
       </c>
       <c r="E322" t="n">
-        <v>67.9705929455489</v>
+        <v>71.3148959473037</v>
       </c>
     </row>
     <row r="323">
@@ -6056,7 +6056,7 @@
         <v>8</v>
       </c>
       <c r="E323" t="n">
-        <v>63.7487528332654</v>
+        <v>62.0237212481453</v>
       </c>
     </row>
     <row r="324">
@@ -6073,7 +6073,7 @@
         <v>9</v>
       </c>
       <c r="E324" t="n">
-        <v>47.9991379787726</v>
+        <v>47.9893141462561</v>
       </c>
     </row>
     <row r="325">
@@ -6090,7 +6090,7 @@
         <v>5</v>
       </c>
       <c r="E325" t="n">
-        <v>59.906161252529</v>
+        <v>60.4426437805684</v>
       </c>
     </row>
     <row r="326">
@@ -6107,7 +6107,7 @@
         <v>7</v>
       </c>
       <c r="E326" t="n">
-        <v>67.8756565801322</v>
+        <v>70.6600756394091</v>
       </c>
     </row>
     <row r="327">
@@ -6124,7 +6124,7 @@
         <v>8</v>
       </c>
       <c r="E327" t="n">
-        <v>64.6042836050971</v>
+        <v>62.7192362239333</v>
       </c>
     </row>
     <row r="328">
@@ -6141,7 +6141,7 @@
         <v>9</v>
       </c>
       <c r="E328" t="n">
-        <v>52.0267776631951</v>
+        <v>52.0178916594109</v>
       </c>
     </row>
     <row r="329">
@@ -6158,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="E329" t="n">
-        <v>61.5022392828081</v>
+        <v>61.7990678409178</v>
       </c>
     </row>
     <row r="330">
@@ -6175,7 +6175,7 @@
         <v>7</v>
       </c>
       <c r="E330" t="n">
-        <v>66.5943998233989</v>
+        <v>69.6339236091622</v>
       </c>
     </row>
     <row r="331">
@@ -6192,7 +6192,7 @@
         <v>8</v>
       </c>
       <c r="E331" t="n">
-        <v>65.1826749685311</v>
+        <v>62.8812459647577</v>
       </c>
     </row>
     <row r="332">
@@ -6209,7 +6209,7 @@
         <v>9</v>
       </c>
       <c r="E332" t="n">
-        <v>54.3027681126</v>
+        <v>54.2987943289732</v>
       </c>
     </row>
     <row r="333">
@@ -6226,7 +6226,7 @@
         <v>5</v>
       </c>
       <c r="E333" t="n">
-        <v>62.02661430151</v>
+        <v>62.2713213009644</v>
       </c>
     </row>
     <row r="334">
@@ -6243,7 +6243,7 @@
         <v>7</v>
       </c>
       <c r="E334" t="n">
-        <v>67.3553046125782</v>
+        <v>70.5784313915192</v>
       </c>
     </row>
     <row r="335">
@@ -6260,7 +6260,7 @@
         <v>8</v>
       </c>
       <c r="E335" t="n">
-        <v>62.7208764501734</v>
+        <v>62.1979360877636</v>
       </c>
     </row>
     <row r="336">
@@ -6277,7 +6277,7 @@
         <v>9</v>
       </c>
       <c r="E336" t="n">
-        <v>56.1021978352654</v>
+        <v>56.099721826134</v>
       </c>
     </row>
     <row r="337">
@@ -6294,7 +6294,7 @@
         <v>5</v>
       </c>
       <c r="E337" t="n">
-        <v>62.0594596326723</v>
+        <v>62.9586964351389</v>
       </c>
     </row>
     <row r="338">
@@ -6311,7 +6311,7 @@
         <v>7</v>
       </c>
       <c r="E338" t="n">
-        <v>75.9715595865156</v>
+        <v>78.4144523681459</v>
       </c>
     </row>
     <row r="339">
@@ -6328,7 +6328,7 @@
         <v>8</v>
       </c>
       <c r="E339" t="n">
-        <v>71.5430984279315</v>
+        <v>70.1176719066091</v>
       </c>
     </row>
     <row r="340">
@@ -6345,7 +6345,7 @@
         <v>9</v>
       </c>
       <c r="E340" t="n">
-        <v>53.2516191181672</v>
+        <v>53.2276954016784</v>
       </c>
     </row>
     <row r="341">
@@ -6362,7 +6362,7 @@
         <v>5</v>
       </c>
       <c r="E341" t="n">
-        <v>66.9220923775381</v>
+        <v>67.2532732254778</v>
       </c>
     </row>
     <row r="342">
@@ -6379,7 +6379,7 @@
         <v>7</v>
       </c>
       <c r="E342" t="n">
-        <v>77.2777113729646</v>
+        <v>80.0257151738063</v>
       </c>
     </row>
     <row r="343">
@@ -6396,7 +6396,7 @@
         <v>8</v>
       </c>
       <c r="E343" t="n">
-        <v>70.9226558542634</v>
+        <v>69.7700220647865</v>
       </c>
     </row>
     <row r="344">
@@ -6413,7 +6413,7 @@
         <v>9</v>
       </c>
       <c r="E344" t="n">
-        <v>53.2113012108231</v>
+        <v>53.1831547219745</v>
       </c>
     </row>
     <row r="345">
@@ -6430,7 +6430,7 @@
         <v>5</v>
       </c>
       <c r="E345" t="n">
-        <v>67.1372228126837</v>
+        <v>67.6596306535224</v>
       </c>
     </row>
     <row r="346">
@@ -6447,7 +6447,7 @@
         <v>7</v>
       </c>
       <c r="E346" t="n">
-        <v>76.8445133993246</v>
+        <v>80.1706238776902</v>
       </c>
     </row>
     <row r="347">
@@ -6464,7 +6464,7 @@
         <v>8</v>
       </c>
       <c r="E347" t="n">
-        <v>69.9472910048452</v>
+        <v>68.6059335478253</v>
       </c>
     </row>
     <row r="348">
@@ -6481,7 +6481,7 @@
         <v>9</v>
       </c>
       <c r="E348" t="n">
-        <v>54.2199233922187</v>
+        <v>54.1916785692097</v>
       </c>
     </row>
     <row r="349">
@@ -6498,7 +6498,7 @@
         <v>5</v>
       </c>
       <c r="E349" t="n">
-        <v>67.0039092654628</v>
+        <v>67.6560786649084</v>
       </c>
     </row>
     <row r="350">
@@ -6515,7 +6515,7 @@
         <v>7</v>
       </c>
       <c r="E350" t="n">
-        <v>74.2848205353726</v>
+        <v>77.4971465309619</v>
       </c>
     </row>
     <row r="351">
@@ -6532,7 +6532,7 @@
         <v>8</v>
       </c>
       <c r="E351" t="n">
-        <v>72.047789272072</v>
+        <v>69.5721934275236</v>
       </c>
     </row>
     <row r="352">
@@ -6549,7 +6549,7 @@
         <v>9</v>
       </c>
       <c r="E352" t="n">
-        <v>60.9812779796286</v>
+        <v>60.9608356509579</v>
       </c>
     </row>
     <row r="353">
@@ -6566,7 +6566,7 @@
         <v>5</v>
       </c>
       <c r="E353" t="n">
-        <v>69.1046292623577</v>
+        <v>69.3433918698145</v>
       </c>
     </row>
     <row r="354">
@@ -6583,7 +6583,7 @@
         <v>7</v>
       </c>
       <c r="E354" t="n">
-        <v>74.5126223834097</v>
+        <v>77.5387655910127</v>
       </c>
     </row>
     <row r="355">
@@ -6600,7 +6600,7 @@
         <v>8</v>
       </c>
       <c r="E355" t="n">
-        <v>72.0771497946342</v>
+        <v>69.5997306696551</v>
       </c>
     </row>
     <row r="356">
@@ -6617,7 +6617,7 @@
         <v>9</v>
       </c>
       <c r="E356" t="n">
-        <v>61.1740685184843</v>
+        <v>61.16784839552</v>
       </c>
     </row>
     <row r="357">
@@ -6634,7 +6634,7 @@
         <v>5</v>
       </c>
       <c r="E357" t="n">
-        <v>69.2546135655094</v>
+        <v>69.4354482187293</v>
       </c>
     </row>
     <row r="358">
@@ -6651,7 +6651,7 @@
         <v>7</v>
       </c>
       <c r="E358" t="n">
-        <v>73.6778274530046</v>
+        <v>75.2208208379245</v>
       </c>
     </row>
     <row r="359">
@@ -6668,7 +6668,7 @@
         <v>8</v>
       </c>
       <c r="E359" t="n">
-        <v>68.8174230457897</v>
+        <v>67.2290142731337</v>
       </c>
     </row>
     <row r="360">
@@ -6685,7 +6685,7 @@
         <v>9</v>
       </c>
       <c r="E360" t="n">
-        <v>64.0004486778873</v>
+        <v>63.9959610401525</v>
       </c>
     </row>
     <row r="361">
@@ -6702,7 +6702,7 @@
         <v>5</v>
       </c>
       <c r="E361" t="n">
-        <v>68.8318997255605</v>
+        <v>68.8152653837369</v>
       </c>
     </row>
     <row r="362">
@@ -6719,7 +6719,7 @@
         <v>7</v>
       </c>
       <c r="E362" t="n">
-        <v>64.4985515397275</v>
+        <v>69.6915935978934</v>
       </c>
     </row>
     <row r="363">
@@ -6736,7 +6736,7 @@
         <v>8</v>
       </c>
       <c r="E363" t="n">
-        <v>68.6654139563634</v>
+        <v>68.9863044235798</v>
       </c>
     </row>
     <row r="364">
@@ -6753,7 +6753,7 @@
         <v>9</v>
       </c>
       <c r="E364" t="n">
-        <v>47.3659262065582</v>
+        <v>47.3469241883201</v>
       </c>
     </row>
     <row r="365">
@@ -6770,7 +6770,7 @@
         <v>5</v>
       </c>
       <c r="E365" t="n">
-        <v>60.1766305675497</v>
+        <v>62.0082740699311</v>
       </c>
     </row>
     <row r="366">
@@ -6787,7 +6787,7 @@
         <v>7</v>
       </c>
       <c r="E366" t="n">
-        <v>63.4104786935224</v>
+        <v>69.605530545598</v>
       </c>
     </row>
     <row r="367">
@@ -6804,7 +6804,7 @@
         <v>8</v>
       </c>
       <c r="E367" t="n">
-        <v>67.4954819636282</v>
+        <v>68.1469919877676</v>
       </c>
     </row>
     <row r="368">
@@ -6821,7 +6821,7 @@
         <v>9</v>
       </c>
       <c r="E368" t="n">
-        <v>49.0943068274957</v>
+        <v>49.0613685634185</v>
       </c>
     </row>
     <row r="369">
@@ -6838,7 +6838,7 @@
         <v>5</v>
       </c>
       <c r="E369" t="n">
-        <v>60.0000891615487</v>
+        <v>62.2712970322614</v>
       </c>
     </row>
     <row r="370">
@@ -6855,7 +6855,7 @@
         <v>7</v>
       </c>
       <c r="E370" t="n">
-        <v>67.1236594571038</v>
+        <v>72.3700306026693</v>
       </c>
     </row>
     <row r="371">
@@ -6872,7 +6872,7 @@
         <v>8</v>
       </c>
       <c r="E371" t="n">
-        <v>66.4646520689583</v>
+        <v>67.0975193209224</v>
       </c>
     </row>
     <row r="372">
@@ -6889,7 +6889,7 @@
         <v>9</v>
       </c>
       <c r="E372" t="n">
-        <v>52.5287735797873</v>
+        <v>52.5020598731194</v>
       </c>
     </row>
     <row r="373">
@@ -6906,7 +6906,7 @@
         <v>5</v>
       </c>
       <c r="E373" t="n">
-        <v>62.0390283686164</v>
+        <v>63.989869932237</v>
       </c>
     </row>
     <row r="374">
@@ -6923,7 +6923,7 @@
         <v>7</v>
       </c>
       <c r="E374" t="n">
-        <v>65.2589218593192</v>
+        <v>70.5320202124794</v>
       </c>
     </row>
     <row r="375">
@@ -6940,7 +6940,7 @@
         <v>8</v>
       </c>
       <c r="E375" t="n">
-        <v>67.8186321076884</v>
+        <v>68.1723072149422</v>
       </c>
     </row>
     <row r="376">
@@ -6957,7 +6957,7 @@
         <v>9</v>
       </c>
       <c r="E376" t="n">
-        <v>55.8918389433551</v>
+        <v>55.8880084796079</v>
       </c>
     </row>
     <row r="377">
@@ -6974,7 +6974,7 @@
         <v>5</v>
       </c>
       <c r="E377" t="n">
-        <v>62.9897976367876</v>
+        <v>64.8641119690098</v>
       </c>
     </row>
     <row r="378">
@@ -6991,7 +6991,7 @@
         <v>7</v>
       </c>
       <c r="E378" t="n">
-        <v>65.9481970789202</v>
+        <v>69.1420438076356</v>
       </c>
     </row>
     <row r="379">
@@ -7008,7 +7008,7 @@
         <v>8</v>
       </c>
       <c r="E379" t="n">
-        <v>67.2930685186991</v>
+        <v>67.8447836501905</v>
       </c>
     </row>
     <row r="380">
@@ -7025,7 +7025,7 @@
         <v>9</v>
       </c>
       <c r="E380" t="n">
-        <v>56.2287997070159</v>
+        <v>56.2251532172407</v>
       </c>
     </row>
     <row r="381">
@@ -7042,7 +7042,7 @@
         <v>5</v>
       </c>
       <c r="E381" t="n">
-        <v>63.1566884348784</v>
+        <v>64.4039935583556</v>
       </c>
     </row>
     <row r="382">
@@ -7059,7 +7059,7 @@
         <v>7</v>
       </c>
       <c r="E382" t="n">
-        <v>64.4084141627667</v>
+        <v>65.2501981272706</v>
       </c>
     </row>
     <row r="383">
@@ -7076,7 +7076,7 @@
         <v>8</v>
       </c>
       <c r="E383" t="n">
-        <v>58.5779557973393</v>
+        <v>63.9564850180531</v>
       </c>
     </row>
     <row r="384">
@@ -7093,7 +7093,7 @@
         <v>9</v>
       </c>
       <c r="E384" t="n">
-        <v>57.4070077966823</v>
+        <v>57.4061357884396</v>
       </c>
     </row>
     <row r="385">
@@ -7110,7 +7110,7 @@
         <v>5</v>
       </c>
       <c r="E385" t="n">
-        <v>60.1311259189294</v>
+        <v>62.2042729779211</v>
       </c>
     </row>
     <row r="386">
@@ -7127,7 +7127,7 @@
         <v>7</v>
       </c>
       <c r="E386" t="n">
-        <v>55.6410372280829</v>
+        <v>64.8300361493345</v>
       </c>
     </row>
     <row r="387">
@@ -7144,7 +7144,7 @@
         <v>8</v>
       </c>
       <c r="E387" t="n">
-        <v>60.9019704827398</v>
+        <v>60.4280570779501</v>
       </c>
     </row>
     <row r="388">
@@ -7161,7 +7161,7 @@
         <v>9</v>
       </c>
       <c r="E388" t="n">
-        <v>46.0657872652916</v>
+        <v>46.0565830680254</v>
       </c>
     </row>
     <row r="389">
@@ -7178,7 +7178,7 @@
         <v>5</v>
       </c>
       <c r="E389" t="n">
-        <v>54.2029316587048</v>
+        <v>57.1048920984367</v>
       </c>
     </row>
     <row r="390">
@@ -7195,7 +7195,7 @@
         <v>7</v>
       </c>
       <c r="E390" t="n">
-        <v>61.1482742342206</v>
+        <v>69.0354175224381</v>
       </c>
     </row>
     <row r="391">
@@ -7212,7 +7212,7 @@
         <v>8</v>
       </c>
       <c r="E391" t="n">
-        <v>61.443495067419</v>
+        <v>61.7357254391451</v>
       </c>
     </row>
     <row r="392">
@@ -7229,7 +7229,7 @@
         <v>9</v>
       </c>
       <c r="E392" t="n">
-        <v>47.1176852609146</v>
+        <v>47.1087049542417</v>
       </c>
     </row>
     <row r="393">
@@ -7246,7 +7246,7 @@
         <v>5</v>
       </c>
       <c r="E393" t="n">
-        <v>56.569818187518</v>
+        <v>59.2932826386083</v>
       </c>
     </row>
     <row r="394">
@@ -7263,7 +7263,7 @@
         <v>7</v>
       </c>
       <c r="E394" t="n">
-        <v>60.132250710776</v>
+        <v>68.3368011379214</v>
       </c>
     </row>
     <row r="395">
@@ -7280,7 +7280,7 @@
         <v>8</v>
       </c>
       <c r="E395" t="n">
-        <v>60.9185347050579</v>
+        <v>60.923752439375</v>
       </c>
     </row>
     <row r="396">
@@ -7297,7 +7297,7 @@
         <v>9</v>
       </c>
       <c r="E396" t="n">
-        <v>49.0127927415023</v>
+        <v>48.9929495493655</v>
       </c>
     </row>
     <row r="397">
@@ -7314,7 +7314,7 @@
         <v>5</v>
       </c>
       <c r="E397" t="n">
-        <v>56.6878593857787</v>
+        <v>59.4178343755539</v>
       </c>
     </row>
     <row r="398">
@@ -7331,7 +7331,7 @@
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>59.6970493510417</v>
+        <v>67.4301470968514</v>
       </c>
     </row>
     <row r="399">
@@ -7348,7 +7348,7 @@
         <v>8</v>
       </c>
       <c r="E399" t="n">
-        <v>62.6804730195379</v>
+        <v>62.1753226317933</v>
       </c>
     </row>
     <row r="400">
@@ -7365,7 +7365,7 @@
         <v>9</v>
       </c>
       <c r="E400" t="n">
-        <v>52.3999108192424</v>
+        <v>52.3805467377733</v>
       </c>
     </row>
     <row r="401">
@@ -7382,7 +7382,7 @@
         <v>5</v>
       </c>
       <c r="E401" t="n">
-        <v>58.2591443966073</v>
+        <v>60.662005488806</v>
       </c>
     </row>
     <row r="402">
@@ -7399,7 +7399,7 @@
         <v>7</v>
       </c>
       <c r="E402" t="n">
-        <v>62.9554669598692</v>
+        <v>66.0735505109021</v>
       </c>
     </row>
     <row r="403">
@@ -7416,7 +7416,7 @@
         <v>8</v>
       </c>
       <c r="E403" t="n">
-        <v>62.1385734015058</v>
+        <v>61.9228258402508</v>
       </c>
     </row>
     <row r="404">
@@ -7433,7 +7433,7 @@
         <v>9</v>
       </c>
       <c r="E404" t="n">
-        <v>53.0060337505025</v>
+        <v>52.9986392393324</v>
       </c>
     </row>
     <row r="405">
@@ -7450,7 +7450,7 @@
         <v>5</v>
       </c>
       <c r="E405" t="n">
-        <v>59.3666913706258</v>
+        <v>60.3316718634951</v>
       </c>
     </row>
     <row r="406">
@@ -7467,7 +7467,7 @@
         <v>7</v>
       </c>
       <c r="E406" t="n">
-        <v>62.8067772859499</v>
+        <v>64.7011710383615</v>
       </c>
     </row>
     <row r="407">
@@ -7484,7 +7484,7 @@
         <v>8</v>
       </c>
       <c r="E407" t="n">
-        <v>56.900792673608</v>
+        <v>58.3245795094661</v>
       </c>
     </row>
     <row r="408">
@@ -7501,7 +7501,7 @@
         <v>9</v>
       </c>
       <c r="E408" t="n">
-        <v>53.1987020565217</v>
+        <v>53.1934901999891</v>
       </c>
     </row>
     <row r="409">
@@ -7518,7 +7518,7 @@
         <v>5</v>
       </c>
       <c r="E409" t="n">
-        <v>57.6354240053599</v>
+        <v>58.7397469159389</v>
       </c>
     </row>
     <row r="410">
@@ -7535,7 +7535,7 @@
         <v>7</v>
       </c>
       <c r="E410" t="n">
-        <v>55.6902340798122</v>
+        <v>60.6535417945206</v>
       </c>
     </row>
     <row r="411">
@@ -7552,7 +7552,7 @@
         <v>8</v>
       </c>
       <c r="E411" t="n">
-        <v>65.2881575333486</v>
+        <v>65.6566790419741</v>
       </c>
     </row>
     <row r="412">
@@ -7569,7 +7569,7 @@
         <v>9</v>
       </c>
       <c r="E412" t="n">
-        <v>50.8295222580419</v>
+        <v>50.7955868079688</v>
       </c>
     </row>
     <row r="413">
@@ -7586,7 +7586,7 @@
         <v>5</v>
       </c>
       <c r="E413" t="n">
-        <v>57.2693046237342</v>
+        <v>59.0352692148212</v>
       </c>
     </row>
     <row r="414">
@@ -7603,7 +7603,7 @@
         <v>7</v>
       </c>
       <c r="E414" t="n">
-        <v>58.5160312324691</v>
+        <v>63.1489485891659</v>
       </c>
     </row>
     <row r="415">
@@ -7620,7 +7620,7 @@
         <v>8</v>
       </c>
       <c r="E415" t="n">
-        <v>64.4807895743338</v>
+        <v>65.3711958599005</v>
       </c>
     </row>
     <row r="416">
@@ -7637,7 +7637,7 @@
         <v>9</v>
       </c>
       <c r="E416" t="n">
-        <v>50.716463788404</v>
+        <v>50.675308410955</v>
       </c>
     </row>
     <row r="417">
@@ -7654,7 +7654,7 @@
         <v>5</v>
       </c>
       <c r="E417" t="n">
-        <v>57.9044281984023</v>
+        <v>59.7318176200071</v>
       </c>
     </row>
     <row r="418">
@@ -7671,7 +7671,7 @@
         <v>7</v>
       </c>
       <c r="E418" t="n">
-        <v>59.407827984032</v>
+        <v>63.0467991848259</v>
       </c>
     </row>
     <row r="419">
@@ -7688,7 +7688,7 @@
         <v>8</v>
       </c>
       <c r="E419" t="n">
-        <v>62.9878837072589</v>
+        <v>64.164147054693</v>
       </c>
     </row>
     <row r="420">
@@ -7705,7 +7705,7 @@
         <v>9</v>
       </c>
       <c r="E420" t="n">
-        <v>50.5262717096306</v>
+        <v>50.5023187177313</v>
       </c>
     </row>
     <row r="421">
@@ -7722,7 +7722,7 @@
         <v>5</v>
       </c>
       <c r="E421" t="n">
-        <v>57.6406611336405</v>
+        <v>59.2377549857501</v>
       </c>
     </row>
     <row r="422">
@@ -7739,7 +7739,7 @@
         <v>7</v>
       </c>
       <c r="E422" t="n">
-        <v>60.5867984400783</v>
+        <v>62.7761016188129</v>
       </c>
     </row>
     <row r="423">
@@ -7756,7 +7756,7 @@
         <v>8</v>
       </c>
       <c r="E423" t="n">
-        <v>65.1224111734233</v>
+        <v>65.4703515371562</v>
       </c>
     </row>
     <row r="424">
@@ -7773,7 +7773,7 @@
         <v>9</v>
       </c>
       <c r="E424" t="n">
-        <v>54.7977787542888</v>
+        <v>54.783136988467</v>
       </c>
     </row>
     <row r="425">
@@ -7790,7 +7790,7 @@
         <v>5</v>
       </c>
       <c r="E425" t="n">
-        <v>60.1689961225968</v>
+        <v>61.0098633814787</v>
       </c>
     </row>
     <row r="426">
@@ -7807,7 +7807,7 @@
         <v>7</v>
       </c>
       <c r="E426" t="n">
-        <v>57.9850406507839</v>
+        <v>60.2672043678051</v>
       </c>
     </row>
     <row r="427">
@@ -7824,7 +7824,7 @@
         <v>8</v>
       </c>
       <c r="E427" t="n">
-        <v>64.588943402026</v>
+        <v>64.4995957418159</v>
       </c>
     </row>
     <row r="428">
@@ -7841,7 +7841,7 @@
         <v>9</v>
       </c>
       <c r="E428" t="n">
-        <v>56.6708348829971</v>
+        <v>56.6681080416649</v>
       </c>
     </row>
     <row r="429">
@@ -7858,7 +7858,7 @@
         <v>5</v>
       </c>
       <c r="E429" t="n">
-        <v>59.7482729786023</v>
+        <v>60.4783027170953</v>
       </c>
     </row>
     <row r="430">
@@ -7875,7 +7875,7 @@
         <v>7</v>
       </c>
       <c r="E430" t="n">
-        <v>59.1771883052197</v>
+        <v>58.3946524635511</v>
       </c>
     </row>
     <row r="431">
@@ -7892,7 +7892,7 @@
         <v>8</v>
       </c>
       <c r="E431" t="n">
-        <v>59.5277366070506</v>
+        <v>61.4862644754157</v>
       </c>
     </row>
     <row r="432">
@@ -7909,7 +7909,7 @@
         <v>9</v>
       </c>
       <c r="E432" t="n">
-        <v>57.8821379584927</v>
+        <v>57.880283246934</v>
       </c>
     </row>
     <row r="433">
@@ -7926,7 +7926,7 @@
         <v>5</v>
       </c>
       <c r="E433" t="n">
-        <v>58.8623542902543</v>
+        <v>59.2537333953003</v>
       </c>
     </row>
     <row r="434">
@@ -7943,7 +7943,7 @@
         <v>7</v>
       </c>
       <c r="E434" t="n">
-        <v>65.8472599893617</v>
+        <v>71.6699579947644</v>
       </c>
     </row>
     <row r="435">
@@ -7960,7 +7960,7 @@
         <v>8</v>
       </c>
       <c r="E435" t="n">
-        <v>65.1131047600429</v>
+        <v>63.2180213382485</v>
       </c>
     </row>
     <row r="436">
@@ -7977,7 +7977,7 @@
         <v>9</v>
       </c>
       <c r="E436" t="n">
-        <v>52.3970988597518</v>
+        <v>52.3936372544382</v>
       </c>
     </row>
     <row r="437">
@@ -7994,7 +7994,7 @@
         <v>5</v>
       </c>
       <c r="E437" t="n">
-        <v>61.1191545363855</v>
+        <v>62.4272055291504</v>
       </c>
     </row>
     <row r="438">
@@ -8011,7 +8011,7 @@
         <v>7</v>
       </c>
       <c r="E438" t="n">
-        <v>71.6380507960671</v>
+        <v>75.3259188596928</v>
       </c>
     </row>
     <row r="439">
@@ -8028,7 +8028,7 @@
         <v>8</v>
       </c>
       <c r="E439" t="n">
-        <v>65.679157746872</v>
+        <v>63.8893473970201</v>
       </c>
     </row>
     <row r="440">
@@ -8045,7 +8045,7 @@
         <v>9</v>
       </c>
       <c r="E440" t="n">
-        <v>51.4831211569633</v>
+        <v>51.4861369232856</v>
       </c>
     </row>
     <row r="441">
@@ -8062,7 +8062,7 @@
         <v>5</v>
       </c>
       <c r="E441" t="n">
-        <v>62.9334432333008</v>
+        <v>63.5671343933328</v>
       </c>
     </row>
     <row r="442">
@@ -8079,7 +8079,7 @@
         <v>7</v>
       </c>
       <c r="E442" t="n">
-        <v>70.4162913193128</v>
+        <v>73.2990031300983</v>
       </c>
     </row>
     <row r="443">
@@ -8096,7 +8096,7 @@
         <v>8</v>
       </c>
       <c r="E443" t="n">
-        <v>62.30210844003</v>
+        <v>60.3807159098063</v>
       </c>
     </row>
     <row r="444">
@@ -8113,7 +8113,7 @@
         <v>9</v>
       </c>
       <c r="E444" t="n">
-        <v>51.8434089535571</v>
+        <v>51.9903250219546</v>
       </c>
     </row>
     <row r="445">
@@ -8130,7 +8130,7 @@
         <v>5</v>
       </c>
       <c r="E445" t="n">
-        <v>61.5206029043</v>
+        <v>61.8900146872864</v>
       </c>
     </row>
     <row r="446">
@@ -8147,7 +8147,7 @@
         <v>7</v>
       </c>
       <c r="E446" t="n">
-        <v>66.5366440455295</v>
+        <v>72.0872688447906</v>
       </c>
     </row>
     <row r="447">
@@ -8164,7 +8164,7 @@
         <v>8</v>
       </c>
       <c r="E447" t="n">
-        <v>65.2461609135435</v>
+        <v>61.8215273333273</v>
       </c>
     </row>
     <row r="448">
@@ -8181,7 +8181,7 @@
         <v>9</v>
       </c>
       <c r="E448" t="n">
-        <v>56.1561057049506</v>
+        <v>56.1631112537618</v>
       </c>
     </row>
     <row r="449">
@@ -8198,7 +8198,7 @@
         <v>5</v>
       </c>
       <c r="E449" t="n">
-        <v>62.6463035546745</v>
+        <v>63.3573024772932</v>
       </c>
     </row>
     <row r="450">
@@ -8215,7 +8215,7 @@
         <v>7</v>
       </c>
       <c r="E450" t="n">
-        <v>70.4449528422815</v>
+        <v>73.6521793855861</v>
       </c>
     </row>
     <row r="451">
@@ -8232,7 +8232,7 @@
         <v>8</v>
       </c>
       <c r="E451" t="n">
-        <v>63.6733400325024</v>
+        <v>60.9250236110763</v>
       </c>
     </row>
     <row r="452">
@@ -8249,7 +8249,7 @@
         <v>9</v>
       </c>
       <c r="E452" t="n">
-        <v>56.9464971086609</v>
+        <v>56.9595908530077</v>
       </c>
     </row>
     <row r="453">
@@ -8266,7 +8266,7 @@
         <v>5</v>
       </c>
       <c r="E453" t="n">
-        <v>63.6882633278149</v>
+        <v>63.84559794989</v>
       </c>
     </row>
     <row r="454">
@@ -8283,7 +8283,7 @@
         <v>7</v>
       </c>
       <c r="E454" t="n">
-        <v>70.0581322191739</v>
+        <v>71.5626989825544</v>
       </c>
     </row>
     <row r="455">
@@ -8300,7 +8300,7 @@
         <v>8</v>
       </c>
       <c r="E455" t="n">
-        <v>60.8333339780486</v>
+        <v>59.5501505742276</v>
       </c>
     </row>
     <row r="456">
@@ -8317,7 +8317,7 @@
         <v>9</v>
       </c>
       <c r="E456" t="n">
-        <v>59.112220519517</v>
+        <v>59.1185055401045</v>
       </c>
     </row>
     <row r="457">
@@ -8334,7 +8334,7 @@
         <v>5</v>
       </c>
       <c r="E457" t="n">
-        <v>63.3345622389132</v>
+        <v>63.4104516989621</v>
       </c>
     </row>
     <row r="458">
@@ -8351,7 +8351,7 @@
         <v>7</v>
       </c>
       <c r="E458" t="n">
-        <v>80.6962439903834</v>
+        <v>82.1969733062651</v>
       </c>
     </row>
     <row r="459">
@@ -8368,7 +8368,7 @@
         <v>8</v>
       </c>
       <c r="E459" t="n">
-        <v>72.2716918844712</v>
+        <v>69.6911116750559</v>
       </c>
     </row>
     <row r="460">
@@ -8385,7 +8385,7 @@
         <v>9</v>
       </c>
       <c r="E460" t="n">
-        <v>62.097770129846</v>
+        <v>62.077819460171</v>
       </c>
     </row>
     <row r="461">
@@ -8402,7 +8402,7 @@
         <v>5</v>
       </c>
       <c r="E461" t="n">
-        <v>71.6885686682335</v>
+        <v>71.321968147164</v>
       </c>
     </row>
     <row r="462">
@@ -8419,7 +8419,7 @@
         <v>7</v>
       </c>
       <c r="E462" t="n">
-        <v>78.6736276930058</v>
+        <v>81.1101101444343</v>
       </c>
     </row>
     <row r="463">
@@ -8436,7 +8436,7 @@
         <v>8</v>
       </c>
       <c r="E463" t="n">
-        <v>71.3668716366714</v>
+        <v>68.913047702473</v>
       </c>
     </row>
     <row r="464">
@@ -8453,7 +8453,7 @@
         <v>9</v>
       </c>
       <c r="E464" t="n">
-        <v>59.8665165748013</v>
+        <v>59.8432526793324</v>
       </c>
     </row>
     <row r="465">
@@ -8470,7 +8470,7 @@
         <v>5</v>
       </c>
       <c r="E465" t="n">
-        <v>69.9690053014928</v>
+        <v>69.9554701754132</v>
       </c>
     </row>
     <row r="466">
@@ -8487,7 +8487,7 @@
         <v>7</v>
       </c>
       <c r="E466" t="n">
-        <v>78.9009032188009</v>
+        <v>80.2798611885285</v>
       </c>
     </row>
     <row r="467">
@@ -8504,7 +8504,7 @@
         <v>8</v>
       </c>
       <c r="E467" t="n">
-        <v>70.9063107462975</v>
+        <v>68.3170981749961</v>
       </c>
     </row>
     <row r="468">
@@ -8521,7 +8521,7 @@
         <v>9</v>
       </c>
       <c r="E468" t="n">
-        <v>60.5315742850663</v>
+        <v>60.5140564995658</v>
       </c>
     </row>
     <row r="469">
@@ -8538,7 +8538,7 @@
         <v>5</v>
       </c>
       <c r="E469" t="n">
-        <v>70.1129294167216</v>
+        <v>69.7036719543635</v>
       </c>
     </row>
     <row r="470">
@@ -8555,7 +8555,7 @@
         <v>7</v>
       </c>
       <c r="E470" t="n">
-        <v>78.3937053562307</v>
+        <v>80.8469224307375</v>
       </c>
     </row>
     <row r="471">
@@ -8572,7 +8572,7 @@
         <v>8</v>
       </c>
       <c r="E471" t="n">
-        <v>72.053436211709</v>
+        <v>68.6420576556789</v>
       </c>
     </row>
     <row r="472">
@@ -8589,7 +8589,7 @@
         <v>9</v>
       </c>
       <c r="E472" t="n">
-        <v>65.6415820267851</v>
+        <v>65.6256117372948</v>
       </c>
     </row>
     <row r="473">
@@ -8606,7 +8606,7 @@
         <v>5</v>
       </c>
       <c r="E473" t="n">
-        <v>72.0295745315749</v>
+        <v>71.704863941237</v>
       </c>
     </row>
     <row r="474">
@@ -8623,7 +8623,7 @@
         <v>7</v>
       </c>
       <c r="E474" t="n">
-        <v>77.187323683984</v>
+        <v>80.0165334269392</v>
       </c>
     </row>
     <row r="475">
@@ -8640,7 +8640,7 @@
         <v>8</v>
       </c>
       <c r="E475" t="n">
-        <v>73.1870172012725</v>
+        <v>69.2405095529117</v>
       </c>
     </row>
     <row r="476">
@@ -8657,7 +8657,7 @@
         <v>9</v>
       </c>
       <c r="E476" t="n">
-        <v>66.1821743867822</v>
+        <v>66.1763602668082</v>
       </c>
     </row>
     <row r="477">
@@ -8674,7 +8674,7 @@
         <v>5</v>
       </c>
       <c r="E477" t="n">
-        <v>72.1855050906796</v>
+        <v>71.8111344155531</v>
       </c>
     </row>
     <row r="478">
@@ -8691,7 +8691,7 @@
         <v>7</v>
       </c>
       <c r="E478" t="n">
-        <v>78.8996985568772</v>
+        <v>80.3641650932037</v>
       </c>
     </row>
     <row r="479">
@@ -8708,7 +8708,7 @@
         <v>8</v>
       </c>
       <c r="E479" t="n">
-        <v>71.692322175449</v>
+        <v>68.831070269176</v>
       </c>
     </row>
     <row r="480">
@@ -8725,7 +8725,7 @@
         <v>9</v>
       </c>
       <c r="E480" t="n">
-        <v>68.3743634275734</v>
+        <v>68.3711554379303</v>
       </c>
     </row>
     <row r="481">
@@ -8742,7 +8742,7 @@
         <v>5</v>
       </c>
       <c r="E481" t="n">
-        <v>72.9887947199665</v>
+        <v>72.52213026677</v>
       </c>
     </row>
     <row r="482">
@@ -8759,7 +8759,7 @@
         <v>7</v>
       </c>
       <c r="E482" t="n">
-        <v>50.0717394660252</v>
+        <v>61.2816096575564</v>
       </c>
     </row>
     <row r="483">
@@ -8776,7 +8776,7 @@
         <v>8</v>
       </c>
       <c r="E483" t="n">
-        <v>58.3737891207703</v>
+        <v>56.8153884455451</v>
       </c>
     </row>
     <row r="484">
@@ -8793,7 +8793,7 @@
         <v>9</v>
       </c>
       <c r="E484" t="n">
-        <v>38.4376668204786</v>
+        <v>38.4389460873118</v>
       </c>
     </row>
     <row r="485">
@@ -8810,7 +8810,7 @@
         <v>5</v>
       </c>
       <c r="E485" t="n">
-        <v>48.961065135758</v>
+        <v>52.1786480634711</v>
       </c>
     </row>
     <row r="486">
@@ -8827,7 +8827,7 @@
         <v>7</v>
       </c>
       <c r="E486" t="n">
-        <v>46.4574911539083</v>
+        <v>57.4029818741151</v>
       </c>
     </row>
     <row r="487">
@@ -8844,7 +8844,7 @@
         <v>8</v>
       </c>
       <c r="E487" t="n">
-        <v>55.9456607577732</v>
+        <v>54.7214127496985</v>
       </c>
     </row>
     <row r="488">
@@ -8861,7 +8861,7 @@
         <v>9</v>
       </c>
       <c r="E488" t="n">
-        <v>39.7554538117157</v>
+        <v>39.7451584230038</v>
       </c>
     </row>
     <row r="489">
@@ -8878,7 +8878,7 @@
         <v>5</v>
       </c>
       <c r="E489" t="n">
-        <v>47.386201907799</v>
+        <v>50.6231843489391</v>
       </c>
     </row>
     <row r="490">
@@ -8895,7 +8895,7 @@
         <v>7</v>
       </c>
       <c r="E490" t="n">
-        <v>47.4773460929092</v>
+        <v>57.9669955218107</v>
       </c>
     </row>
     <row r="491">
@@ -8912,7 +8912,7 @@
         <v>8</v>
       </c>
       <c r="E491" t="n">
-        <v>58.1548251919668</v>
+        <v>56.8712688875894</v>
       </c>
     </row>
     <row r="492">
@@ -8929,7 +8929,7 @@
         <v>9</v>
       </c>
       <c r="E492" t="n">
-        <v>40.1244689560052</v>
+        <v>40.116196644991</v>
       </c>
     </row>
     <row r="493">
@@ -8946,7 +8946,7 @@
         <v>5</v>
       </c>
       <c r="E493" t="n">
-        <v>48.5855467469604</v>
+        <v>51.6514870181304</v>
       </c>
     </row>
     <row r="494">
@@ -8963,7 +8963,7 @@
         <v>7</v>
       </c>
       <c r="E494" t="n">
-        <v>47.8895828273609</v>
+        <v>58.1018197474868</v>
       </c>
     </row>
     <row r="495">
@@ -8980,7 +8980,7 @@
         <v>8</v>
       </c>
       <c r="E495" t="n">
-        <v>57.1730353260569</v>
+        <v>55.892444167418</v>
       </c>
     </row>
     <row r="496">
@@ -8997,7 +8997,7 @@
         <v>9</v>
       </c>
       <c r="E496" t="n">
-        <v>44.9321962995757</v>
+        <v>44.9256792436221</v>
       </c>
     </row>
     <row r="497">
@@ -9014,7 +9014,7 @@
         <v>5</v>
       </c>
       <c r="E497" t="n">
-        <v>49.9982714843311</v>
+        <v>52.9733143861756</v>
       </c>
     </row>
     <row r="498">
@@ -9031,7 +9031,7 @@
         <v>7</v>
       </c>
       <c r="E498" t="n">
-        <v>55.3928594578399</v>
+        <v>58.5314717149416</v>
       </c>
     </row>
     <row r="499">
@@ -9048,7 +9048,7 @@
         <v>8</v>
       </c>
       <c r="E499" t="n">
-        <v>56.9135469962935</v>
+        <v>55.7343058015089</v>
       </c>
     </row>
     <row r="500">
@@ -9065,7 +9065,7 @@
         <v>9</v>
       </c>
       <c r="E500" t="n">
-        <v>46.0562225514065</v>
+        <v>46.0565079197526</v>
       </c>
     </row>
     <row r="501">
@@ -9082,7 +9082,7 @@
         <v>5</v>
       </c>
       <c r="E501" t="n">
-        <v>52.7875430018467</v>
+        <v>53.4407618120677</v>
       </c>
     </row>
     <row r="502">
@@ -9099,7 +9099,7 @@
         <v>7</v>
       </c>
       <c r="E502" t="n">
-        <v>54.1827066206223</v>
+        <v>52.178028721055</v>
       </c>
     </row>
     <row r="503">
@@ -9116,7 +9116,7 @@
         <v>8</v>
       </c>
       <c r="E503" t="n">
-        <v>50.1968551460541</v>
+        <v>51.2540148422801</v>
       </c>
     </row>
     <row r="504">
@@ -9133,7 +9133,7 @@
         <v>9</v>
       </c>
       <c r="E504" t="n">
-        <v>49.3129552589526</v>
+        <v>49.314097255731</v>
       </c>
     </row>
     <row r="505">
@@ -9150,7 +9150,7 @@
         <v>5</v>
       </c>
       <c r="E505" t="n">
-        <v>51.230839008543</v>
+        <v>50.9153802730221</v>
       </c>
     </row>
     <row r="506">
@@ -9167,7 +9167,7 @@
         <v>7</v>
       </c>
       <c r="E506" t="n">
-        <v>54.4633908843764</v>
+        <v>59.4951905742899</v>
       </c>
     </row>
     <row r="507">
@@ -9184,7 +9184,7 @@
         <v>8</v>
       </c>
       <c r="E507" t="n">
-        <v>63.2754372002089</v>
+        <v>63.5870459792432</v>
       </c>
     </row>
     <row r="508">
@@ -9201,7 +9201,7 @@
         <v>9</v>
       </c>
       <c r="E508" t="n">
-        <v>46.509889636448</v>
+        <v>46.4961213136142</v>
       </c>
     </row>
     <row r="509">
@@ -9218,7 +9218,7 @@
         <v>5</v>
       </c>
       <c r="E509" t="n">
-        <v>54.7495725736777</v>
+        <v>56.5261192890491</v>
       </c>
     </row>
     <row r="510">
@@ -9235,7 +9235,7 @@
         <v>7</v>
       </c>
       <c r="E510" t="n">
-        <v>57.7540813886158</v>
+        <v>62.6988469915246</v>
       </c>
     </row>
     <row r="511">
@@ -9252,7 +9252,7 @@
         <v>8</v>
       </c>
       <c r="E511" t="n">
-        <v>62.3978199233395</v>
+        <v>63.3232980223175</v>
       </c>
     </row>
     <row r="512">
@@ -9269,7 +9269,7 @@
         <v>9</v>
       </c>
       <c r="E512" t="n">
-        <v>47.288499477002</v>
+        <v>47.2723900620411</v>
       </c>
     </row>
     <row r="513">
@@ -9286,7 +9286,7 @@
         <v>5</v>
       </c>
       <c r="E513" t="n">
-        <v>55.8134669296524</v>
+        <v>57.7648450252944</v>
       </c>
     </row>
     <row r="514">
@@ -9303,7 +9303,7 @@
         <v>7</v>
       </c>
       <c r="E514" t="n">
-        <v>60.9382151614342</v>
+        <v>65.5413581887945</v>
       </c>
     </row>
     <row r="515">
@@ -9320,7 +9320,7 @@
         <v>8</v>
       </c>
       <c r="E515" t="n">
-        <v>60.9728171016268</v>
+        <v>61.7758639302141</v>
       </c>
     </row>
     <row r="516">
@@ -9337,7 +9337,7 @@
         <v>9</v>
       </c>
       <c r="E516" t="n">
-        <v>48.3623919311977</v>
+        <v>48.3519813006193</v>
       </c>
     </row>
     <row r="517">
@@ -9354,7 +9354,7 @@
         <v>5</v>
       </c>
       <c r="E517" t="n">
-        <v>56.7578080647529</v>
+        <v>58.5564011398759</v>
       </c>
     </row>
     <row r="518">
@@ -9371,7 +9371,7 @@
         <v>7</v>
       </c>
       <c r="E518" t="n">
-        <v>59.9999533984746</v>
+        <v>64.2803672808284</v>
       </c>
     </row>
     <row r="519">
@@ -9388,7 +9388,7 @@
         <v>8</v>
       </c>
       <c r="E519" t="n">
-        <v>62.2103051598723</v>
+        <v>62.3560950238544</v>
       </c>
     </row>
     <row r="520">
@@ -9405,7 +9405,7 @@
         <v>9</v>
       </c>
       <c r="E520" t="n">
-        <v>54.6415650511674</v>
+        <v>54.6370171317371</v>
       </c>
     </row>
     <row r="521">
@@ -9422,7 +9422,7 @@
         <v>5</v>
       </c>
       <c r="E521" t="n">
-        <v>58.9506078698381</v>
+        <v>60.4244931454733</v>
       </c>
     </row>
     <row r="522">
@@ -9439,7 +9439,7 @@
         <v>7</v>
       </c>
       <c r="E522" t="n">
-        <v>59.3969963691556</v>
+        <v>62.9758631137803</v>
       </c>
     </row>
     <row r="523">
@@ -9456,7 +9456,7 @@
         <v>8</v>
       </c>
       <c r="E523" t="n">
-        <v>61.663128260813</v>
+        <v>61.8110532508613</v>
       </c>
     </row>
     <row r="524">
@@ -9473,7 +9473,7 @@
         <v>9</v>
       </c>
       <c r="E524" t="n">
-        <v>55.197119814304</v>
+        <v>55.1933800390023</v>
       </c>
     </row>
     <row r="525">
@@ -9490,7 +9490,7 @@
         <v>5</v>
       </c>
       <c r="E525" t="n">
-        <v>58.7524148147575</v>
+        <v>59.993432134548</v>
       </c>
     </row>
     <row r="526">
@@ -9507,7 +9507,7 @@
         <v>7</v>
       </c>
       <c r="E526" t="n">
-        <v>58.4964404802606</v>
+        <v>60.8883635891425</v>
       </c>
     </row>
     <row r="527">
@@ -9524,7 +9524,7 @@
         <v>8</v>
       </c>
       <c r="E527" t="n">
-        <v>54.8922352263148</v>
+        <v>58.5425559373023</v>
       </c>
     </row>
     <row r="528">
@@ -9541,7 +9541,7 @@
         <v>9</v>
       </c>
       <c r="E528" t="n">
-        <v>55.996287771084</v>
+        <v>55.9935995986439</v>
       </c>
     </row>
     <row r="529">
@@ -9558,7 +9558,7 @@
         <v>5</v>
       </c>
       <c r="E529" t="n">
-        <v>56.4616544925531</v>
+        <v>58.4748397083629</v>
       </c>
     </row>
     <row r="530">
@@ -9575,7 +9575,7 @@
         <v>7</v>
       </c>
       <c r="E530" t="n">
-        <v>79.5047593157295</v>
+        <v>81.6661516805437</v>
       </c>
     </row>
     <row r="531">
@@ -9592,7 +9592,7 @@
         <v>8</v>
       </c>
       <c r="E531" t="n">
-        <v>74.255021770182</v>
+        <v>71.8509802174419</v>
       </c>
     </row>
     <row r="532">
@@ -9609,7 +9609,7 @@
         <v>9</v>
       </c>
       <c r="E532" t="n">
-        <v>54.3985379527714</v>
+        <v>54.3974281144903</v>
       </c>
     </row>
     <row r="533">
@@ -9626,7 +9626,7 @@
         <v>5</v>
       </c>
       <c r="E533" t="n">
-        <v>69.3861063462276</v>
+        <v>69.304853337492</v>
       </c>
     </row>
     <row r="534">
@@ -9643,7 +9643,7 @@
         <v>7</v>
       </c>
       <c r="E534" t="n">
-        <v>77.5463724270522</v>
+        <v>80.3912879770534</v>
       </c>
     </row>
     <row r="535">
@@ -9660,7 +9660,7 @@
         <v>8</v>
       </c>
       <c r="E535" t="n">
-        <v>72.9812462084954</v>
+        <v>71.1594487886564</v>
       </c>
     </row>
     <row r="536">
@@ -9677,7 +9677,7 @@
         <v>9</v>
       </c>
       <c r="E536" t="n">
-        <v>55.2144349999032</v>
+        <v>55.2026555450027</v>
       </c>
     </row>
     <row r="537">
@@ -9694,7 +9694,7 @@
         <v>5</v>
       </c>
       <c r="E537" t="n">
-        <v>68.5806845451503</v>
+        <v>68.9177974369042</v>
       </c>
     </row>
     <row r="538">
@@ -9711,7 +9711,7 @@
         <v>7</v>
       </c>
       <c r="E538" t="n">
-        <v>78.3549255621741</v>
+        <v>80.2222946914256</v>
       </c>
     </row>
     <row r="539">
@@ -9728,7 +9728,7 @@
         <v>8</v>
       </c>
       <c r="E539" t="n">
-        <v>73.0595683796646</v>
+        <v>70.6487724840261</v>
       </c>
     </row>
     <row r="540">
@@ -9745,7 +9745,7 @@
         <v>9</v>
       </c>
       <c r="E540" t="n">
-        <v>55.8145082614715</v>
+        <v>55.8099631573972</v>
       </c>
     </row>
     <row r="541">
@@ -9762,7 +9762,7 @@
         <v>5</v>
       </c>
       <c r="E541" t="n">
-        <v>69.07633406777</v>
+        <v>68.8936767776163</v>
       </c>
     </row>
     <row r="542">
@@ -9779,7 +9779,7 @@
         <v>7</v>
       </c>
       <c r="E542" t="n">
-        <v>74.591237855513</v>
+        <v>77.2186376362339</v>
       </c>
     </row>
     <row r="543">
@@ -9796,7 +9796,7 @@
         <v>8</v>
       </c>
       <c r="E543" t="n">
-        <v>74.1276689230659</v>
+        <v>71.1712101456337</v>
       </c>
     </row>
     <row r="544">
@@ -9813,7 +9813,7 @@
         <v>9</v>
       </c>
       <c r="E544" t="n">
-        <v>59.9422781098053</v>
+        <v>59.9336284669191</v>
       </c>
     </row>
     <row r="545">
@@ -9830,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="E545" t="n">
-        <v>69.553728296128</v>
+        <v>69.4411587495955</v>
       </c>
     </row>
     <row r="546">
@@ -9847,7 +9847,7 @@
         <v>7</v>
       </c>
       <c r="E546" t="n">
-        <v>74.0911830014256</v>
+        <v>76.7813313907205</v>
       </c>
     </row>
     <row r="547">
@@ -9864,7 +9864,7 @@
         <v>8</v>
       </c>
       <c r="E547" t="n">
-        <v>73.8741517315957</v>
+        <v>71.3452850978915</v>
       </c>
     </row>
     <row r="548">
@@ -9881,7 +9881,7 @@
         <v>9</v>
       </c>
       <c r="E548" t="n">
-        <v>60.4763275285692</v>
+        <v>60.4736937663232</v>
       </c>
     </row>
     <row r="549">
@@ -9898,7 +9898,7 @@
         <v>5</v>
       </c>
       <c r="E549" t="n">
-        <v>69.4805540871968</v>
+        <v>69.5334367516451</v>
       </c>
     </row>
     <row r="550">
@@ -9915,7 +9915,7 @@
         <v>7</v>
       </c>
       <c r="E550" t="n">
-        <v>74.7314161070854</v>
+        <v>77.6158637129015</v>
       </c>
     </row>
     <row r="551">
@@ -9932,7 +9932,7 @@
         <v>8</v>
       </c>
       <c r="E551" t="n">
-        <v>72.432928099506</v>
+        <v>71.1944776993847</v>
       </c>
     </row>
     <row r="552">
@@ -9949,7 +9949,7 @@
         <v>9</v>
       </c>
       <c r="E552" t="n">
-        <v>64.0095101950721</v>
+        <v>64.0104190587604</v>
       </c>
     </row>
     <row r="553">
@@ -9966,7 +9966,7 @@
         <v>5</v>
       </c>
       <c r="E553" t="n">
-        <v>70.3912848005545</v>
+        <v>70.9402534903488</v>
       </c>
     </row>
     <row r="554">
@@ -9983,7 +9983,7 @@
         <v>7</v>
       </c>
       <c r="E554" t="n">
-        <v>75.8223476653771</v>
+        <v>79.5533391072245</v>
       </c>
     </row>
     <row r="555">
@@ -10000,7 +10000,7 @@
         <v>8</v>
       </c>
       <c r="E555" t="n">
-        <v>71.5501309878444</v>
+        <v>69.8010388788056</v>
       </c>
     </row>
     <row r="556">
@@ -10017,7 +10017,7 @@
         <v>9</v>
       </c>
       <c r="E556" t="n">
-        <v>50.4429342466162</v>
+        <v>50.4375960327738</v>
       </c>
     </row>
     <row r="557">
@@ -10034,7 +10034,7 @@
         <v>5</v>
       </c>
       <c r="E557" t="n">
-        <v>65.9384709666126</v>
+        <v>66.5973246729346</v>
       </c>
     </row>
     <row r="558">
@@ -10051,7 +10051,7 @@
         <v>7</v>
       </c>
       <c r="E558" t="n">
-        <v>74.5933116141969</v>
+        <v>78.8283156200152</v>
       </c>
     </row>
     <row r="559">
@@ -10068,7 +10068,7 @@
         <v>8</v>
       </c>
       <c r="E559" t="n">
-        <v>71.6895041416344</v>
+        <v>70.2402234275782</v>
       </c>
     </row>
     <row r="560">
@@ -10085,7 +10085,7 @@
         <v>9</v>
       </c>
       <c r="E560" t="n">
-        <v>51.9964075830564</v>
+        <v>51.8756028119761</v>
       </c>
     </row>
     <row r="561">
@@ -10102,7 +10102,7 @@
         <v>5</v>
       </c>
       <c r="E561" t="n">
-        <v>66.0930744462959</v>
+        <v>66.9813806198565</v>
       </c>
     </row>
     <row r="562">
@@ -10119,7 +10119,7 @@
         <v>7</v>
       </c>
       <c r="E562" t="n">
-        <v>75.5575711177639</v>
+        <v>79.0719068390069</v>
       </c>
     </row>
     <row r="563">
@@ -10136,7 +10136,7 @@
         <v>8</v>
       </c>
       <c r="E563" t="n">
-        <v>72.0593222141666</v>
+        <v>69.923546986279</v>
       </c>
     </row>
     <row r="564">
@@ -10153,7 +10153,7 @@
         <v>9</v>
       </c>
       <c r="E564" t="n">
-        <v>51.8257090353736</v>
+        <v>51.7069264740143</v>
       </c>
     </row>
     <row r="565">
@@ -10170,7 +10170,7 @@
         <v>5</v>
       </c>
       <c r="E565" t="n">
-        <v>66.4808674557681</v>
+        <v>66.9007934331</v>
       </c>
     </row>
     <row r="566">
@@ -10187,7 +10187,7 @@
         <v>7</v>
       </c>
       <c r="E566" t="n">
-        <v>70.3927471934938</v>
+        <v>75.1121580019279</v>
       </c>
     </row>
     <row r="567">
@@ -10204,7 +10204,7 @@
         <v>8</v>
       </c>
       <c r="E567" t="n">
-        <v>73.5553743287344</v>
+        <v>71.0252922553635</v>
       </c>
     </row>
     <row r="568">
@@ -10221,7 +10221,7 @@
         <v>9</v>
       </c>
       <c r="E568" t="n">
-        <v>56.1617299817326</v>
+        <v>56.1608598585365</v>
       </c>
     </row>
     <row r="569">
@@ -10238,7 +10238,7 @@
         <v>5</v>
       </c>
       <c r="E569" t="n">
-        <v>66.7032838346536</v>
+        <v>67.4327700386093</v>
       </c>
     </row>
     <row r="570">
@@ -10255,7 +10255,7 @@
         <v>7</v>
       </c>
       <c r="E570" t="n">
-        <v>68.3489021432245</v>
+        <v>71.4419631335895</v>
       </c>
     </row>
     <row r="571">
@@ -10272,7 +10272,7 @@
         <v>8</v>
       </c>
       <c r="E571" t="n">
-        <v>73.8322754517607</v>
+        <v>71.6725401121758</v>
       </c>
     </row>
     <row r="572">
@@ -10289,7 +10289,7 @@
         <v>9</v>
       </c>
       <c r="E572" t="n">
-        <v>57.805616172159</v>
+        <v>57.7924170603235</v>
       </c>
     </row>
     <row r="573">
@@ -10306,7 +10306,7 @@
         <v>5</v>
       </c>
       <c r="E573" t="n">
-        <v>66.6622645890481</v>
+        <v>66.9689734353629</v>
       </c>
     </row>
     <row r="574">
@@ -10323,7 +10323,7 @@
         <v>7</v>
       </c>
       <c r="E574" t="n">
-        <v>69.8856990599837</v>
+        <v>70.0839289562533</v>
       </c>
     </row>
     <row r="575">
@@ -10340,7 +10340,7 @@
         <v>8</v>
       </c>
       <c r="E575" t="n">
-        <v>71.6620873911296</v>
+        <v>70.6310382965855</v>
       </c>
     </row>
     <row r="576">
@@ -10357,7 +10357,7 @@
         <v>9</v>
       </c>
       <c r="E576" t="n">
-        <v>58.0019910070792</v>
+        <v>57.9893730841701</v>
       </c>
     </row>
     <row r="577">
@@ -10374,7 +10374,7 @@
         <v>5</v>
       </c>
       <c r="E577" t="n">
-        <v>66.5165924860642</v>
+        <v>66.2347801123363</v>
       </c>
     </row>
     <row r="578">
@@ -10391,7 +10391,7 @@
         <v>7</v>
       </c>
       <c r="E578" t="n">
-        <v>65.3119311785224</v>
+        <v>69.090094174938</v>
       </c>
     </row>
     <row r="579">
@@ -10408,7 +10408,7 @@
         <v>8</v>
       </c>
       <c r="E579" t="n">
-        <v>63.1661813736054</v>
+        <v>60.7813103367993</v>
       </c>
     </row>
     <row r="580">
@@ -10425,7 +10425,7 @@
         <v>9</v>
       </c>
       <c r="E580" t="n">
-        <v>52.1105695615005</v>
+        <v>52.1109799765218</v>
       </c>
     </row>
     <row r="581">
@@ -10442,7 +10442,7 @@
         <v>5</v>
       </c>
       <c r="E581" t="n">
-        <v>60.1962273712094</v>
+        <v>60.6607948294197</v>
       </c>
     </row>
     <row r="582">
@@ -10459,7 +10459,7 @@
         <v>7</v>
       </c>
       <c r="E582" t="n">
-        <v>67.0629373353714</v>
+        <v>69.9679721583213</v>
       </c>
     </row>
     <row r="583">
@@ -10476,7 +10476,7 @@
         <v>8</v>
       </c>
       <c r="E583" t="n">
-        <v>63.9981493037836</v>
+        <v>61.9413508651316</v>
       </c>
     </row>
     <row r="584">
@@ -10493,7 +10493,7 @@
         <v>9</v>
       </c>
       <c r="E584" t="n">
-        <v>51.4757260940107</v>
+        <v>51.4706334546415</v>
       </c>
     </row>
     <row r="585">
@@ -10510,7 +10510,7 @@
         <v>5</v>
       </c>
       <c r="E585" t="n">
-        <v>60.8456042443886</v>
+        <v>61.1266521593648</v>
       </c>
     </row>
     <row r="586">
@@ -10527,7 +10527,7 @@
         <v>7</v>
       </c>
       <c r="E586" t="n">
-        <v>66.7649512217275</v>
+        <v>70.6844083446612</v>
       </c>
     </row>
     <row r="587">
@@ -10544,7 +10544,7 @@
         <v>8</v>
       </c>
       <c r="E587" t="n">
-        <v>61.7860636968518</v>
+        <v>60.2368096855889</v>
       </c>
     </row>
     <row r="588">
@@ -10561,7 +10561,7 @@
         <v>9</v>
       </c>
       <c r="E588" t="n">
-        <v>50.9903967353206</v>
+        <v>50.9799603524739</v>
       </c>
     </row>
     <row r="589">
@@ -10578,7 +10578,7 @@
         <v>5</v>
       </c>
       <c r="E589" t="n">
-        <v>59.8471372179666</v>
+        <v>60.6337261275747</v>
       </c>
     </row>
     <row r="590">
@@ -10595,7 +10595,7 @@
         <v>7</v>
       </c>
       <c r="E590" t="n">
-        <v>68.0968956207535</v>
+        <v>70.3728578684527</v>
       </c>
     </row>
     <row r="591">
@@ -10612,7 +10612,7 @@
         <v>8</v>
       </c>
       <c r="E591" t="n">
-        <v>61.8385241176533</v>
+        <v>59.9804961741815</v>
       </c>
     </row>
     <row r="592">
@@ -10629,7 +10629,7 @@
         <v>9</v>
       </c>
       <c r="E592" t="n">
-        <v>55.8361665793182</v>
+        <v>55.8281229403415</v>
       </c>
     </row>
     <row r="593">
@@ -10646,7 +10646,7 @@
         <v>5</v>
       </c>
       <c r="E593" t="n">
-        <v>61.9238621059083</v>
+        <v>62.0604923276586</v>
       </c>
     </row>
     <row r="594">
@@ -10663,7 +10663,7 @@
         <v>7</v>
       </c>
       <c r="E594" t="n">
-        <v>66.4622797400021</v>
+        <v>69.1881303301761</v>
       </c>
     </row>
     <row r="595">
@@ -10680,7 +10680,7 @@
         <v>8</v>
       </c>
       <c r="E595" t="n">
-        <v>61.7079795559504</v>
+        <v>59.8231624374877</v>
       </c>
     </row>
     <row r="596">
@@ -10697,7 +10697,7 @@
         <v>9</v>
       </c>
       <c r="E596" t="n">
-        <v>57.2540159771668</v>
+        <v>57.2463832621239</v>
       </c>
     </row>
     <row r="597">
@@ -10714,7 +10714,7 @@
         <v>5</v>
       </c>
       <c r="E597" t="n">
-        <v>61.8080917577065</v>
+        <v>62.0858920099293</v>
       </c>
     </row>
     <row r="598">
@@ -10731,7 +10731,7 @@
         <v>7</v>
       </c>
       <c r="E598" t="n">
-        <v>63.5630275823774</v>
+        <v>63.8374459960071</v>
       </c>
     </row>
     <row r="599">
@@ -10748,7 +10748,7 @@
         <v>8</v>
       </c>
       <c r="E599" t="n">
-        <v>55.810871282141</v>
+        <v>56.0708552576756</v>
       </c>
     </row>
     <row r="600">
@@ -10765,7 +10765,7 @@
         <v>9</v>
       </c>
       <c r="E600" t="n">
-        <v>59.0696543914716</v>
+        <v>59.0680851553422</v>
       </c>
     </row>
     <row r="601">
@@ -10782,7 +10782,7 @@
         <v>5</v>
       </c>
       <c r="E601" t="n">
-        <v>59.4811844186633</v>
+        <v>59.6587954696749</v>
       </c>
     </row>
     <row r="602">
@@ -10799,7 +10799,7 @@
         <v>7</v>
       </c>
       <c r="E602" t="n">
-        <v>72.29704677071</v>
+        <v>76.1686220256114</v>
       </c>
     </row>
     <row r="603">
@@ -10816,7 +10816,7 @@
         <v>8</v>
       </c>
       <c r="E603" t="n">
-        <v>71.0428834747703</v>
+        <v>68.047904326822</v>
       </c>
     </row>
     <row r="604">
@@ -10833,7 +10833,7 @@
         <v>9</v>
       </c>
       <c r="E604" t="n">
-        <v>53.4966586197704</v>
+        <v>53.4522959089771</v>
       </c>
     </row>
     <row r="605">
@@ -10850,7 +10850,7 @@
         <v>5</v>
       </c>
       <c r="E605" t="n">
-        <v>65.6121962884169</v>
+        <v>65.8896074204702</v>
       </c>
     </row>
     <row r="606">
@@ -10867,7 +10867,7 @@
         <v>7</v>
       </c>
       <c r="E606" t="n">
-        <v>71.0971597055455</v>
+        <v>77.2095568965625</v>
       </c>
     </row>
     <row r="607">
@@ -10884,7 +10884,7 @@
         <v>8</v>
       </c>
       <c r="E607" t="n">
-        <v>70.1596570480869</v>
+        <v>67.2226599057748</v>
       </c>
     </row>
     <row r="608">
@@ -10901,7 +10901,7 @@
         <v>9</v>
       </c>
       <c r="E608" t="n">
-        <v>54.7756667777903</v>
+        <v>54.5367743978634</v>
       </c>
     </row>
     <row r="609">
@@ -10918,7 +10918,7 @@
         <v>5</v>
       </c>
       <c r="E609" t="n">
-        <v>65.3441611771409</v>
+        <v>66.3229970667336</v>
       </c>
     </row>
     <row r="610">
@@ -10935,7 +10935,7 @@
         <v>7</v>
       </c>
       <c r="E610" t="n">
-        <v>74.4861398510583</v>
+        <v>79.32679342812</v>
       </c>
     </row>
     <row r="611">
@@ -10952,7 +10952,7 @@
         <v>8</v>
       </c>
       <c r="E611" t="n">
-        <v>69.846160401335</v>
+        <v>66.7206559493114</v>
       </c>
     </row>
     <row r="612">
@@ -10969,7 +10969,7 @@
         <v>9</v>
       </c>
       <c r="E612" t="n">
-        <v>59.5299294528692</v>
+        <v>59.3321198981683</v>
       </c>
     </row>
     <row r="613">
@@ -10986,7 +10986,7 @@
         <v>5</v>
       </c>
       <c r="E613" t="n">
-        <v>67.9540765684208</v>
+        <v>68.4598564251999</v>
       </c>
     </row>
     <row r="614">
@@ -11003,7 +11003,7 @@
         <v>7</v>
       </c>
       <c r="E614" t="n">
-        <v>73.2653029783902</v>
+        <v>78.1482039845869</v>
       </c>
     </row>
     <row r="615">
@@ -11020,7 +11020,7 @@
         <v>8</v>
       </c>
       <c r="E615" t="n">
-        <v>70.6162095116558</v>
+        <v>66.9395029202558</v>
       </c>
     </row>
     <row r="616">
@@ -11037,7 +11037,7 @@
         <v>9</v>
       </c>
       <c r="E616" t="n">
-        <v>61.0204181212759</v>
+        <v>61.0189708791548</v>
       </c>
     </row>
     <row r="617">
@@ -11054,7 +11054,7 @@
         <v>5</v>
       </c>
       <c r="E617" t="n">
-        <v>68.3006435371073</v>
+        <v>68.7022259279992</v>
       </c>
     </row>
     <row r="618">
@@ -11071,7 +11071,7 @@
         <v>7</v>
       </c>
       <c r="E618" t="n">
-        <v>76.5981599875101</v>
+        <v>79.354279782818</v>
       </c>
     </row>
     <row r="619">
@@ -11088,7 +11088,7 @@
         <v>8</v>
       </c>
       <c r="E619" t="n">
-        <v>70.254171185781</v>
+        <v>66.603527492705</v>
       </c>
     </row>
     <row r="620">
@@ -11105,7 +11105,7 @@
         <v>9</v>
       </c>
       <c r="E620" t="n">
-        <v>60.7227282669962</v>
+        <v>60.7273885529005</v>
       </c>
     </row>
     <row r="621">
@@ -11122,7 +11122,7 @@
         <v>5</v>
       </c>
       <c r="E621" t="n">
-        <v>69.1916864800958</v>
+        <v>68.8950652761412</v>
       </c>
     </row>
     <row r="622">
@@ -11139,7 +11139,7 @@
         <v>7</v>
       </c>
       <c r="E622" t="n">
-        <v>78.1720584299887</v>
+        <v>77.3365823686737</v>
       </c>
     </row>
     <row r="623">
@@ -11156,7 +11156,7 @@
         <v>8</v>
       </c>
       <c r="E623" t="n">
-        <v>67.5797337684712</v>
+        <v>64.6078676425793</v>
       </c>
     </row>
     <row r="624">
@@ -11173,7 +11173,7 @@
         <v>9</v>
       </c>
       <c r="E624" t="n">
-        <v>64.2035923188732</v>
+        <v>64.2124997649757</v>
       </c>
     </row>
     <row r="625">
@@ -11190,7 +11190,7 @@
         <v>5</v>
       </c>
       <c r="E625" t="n">
-        <v>69.9851281724444</v>
+        <v>68.7189832587429</v>
       </c>
     </row>
     <row r="626">
@@ -11207,7 +11207,7 @@
         <v>7</v>
       </c>
       <c r="E626" t="n">
-        <v>73.8592988425503</v>
+        <v>76.9727206907951</v>
       </c>
     </row>
     <row r="627">
@@ -11224,7 +11224,7 @@
         <v>8</v>
       </c>
       <c r="E627" t="n">
-        <v>71.4483001332618</v>
+        <v>68.1836398470367</v>
       </c>
     </row>
     <row r="628">
@@ -11241,7 +11241,7 @@
         <v>9</v>
       </c>
       <c r="E628" t="n">
-        <v>57.286011991197</v>
+        <v>57.2751215265767</v>
       </c>
     </row>
     <row r="629">
@@ -11258,7 +11258,7 @@
         <v>5</v>
       </c>
       <c r="E629" t="n">
-        <v>67.5312036556697</v>
+        <v>67.4771606881362</v>
       </c>
     </row>
     <row r="630">
@@ -11275,7 +11275,7 @@
         <v>7</v>
       </c>
       <c r="E630" t="n">
-        <v>74.2582612124164</v>
+        <v>77.6533623731054</v>
       </c>
     </row>
     <row r="631">
@@ -11292,7 +11292,7 @@
         <v>8</v>
       </c>
       <c r="E631" t="n">
-        <v>71.933204992598</v>
+        <v>68.5110364311497</v>
       </c>
     </row>
     <row r="632">
@@ -11309,7 +11309,7 @@
         <v>9</v>
       </c>
       <c r="E632" t="n">
-        <v>57.2458334574264</v>
+        <v>57.2289978950997</v>
       </c>
     </row>
     <row r="633">
@@ -11326,7 +11326,7 @@
         <v>5</v>
       </c>
       <c r="E633" t="n">
-        <v>67.8124332208136</v>
+        <v>67.7977988997849</v>
       </c>
     </row>
     <row r="634">
@@ -11343,7 +11343,7 @@
         <v>7</v>
       </c>
       <c r="E634" t="n">
-        <v>77.0157992276933</v>
+        <v>79.961425269598</v>
       </c>
     </row>
     <row r="635">
@@ -11360,7 +11360,7 @@
         <v>8</v>
       </c>
       <c r="E635" t="n">
-        <v>70.899272541428</v>
+        <v>67.3523977542758</v>
       </c>
     </row>
     <row r="636">
@@ -11377,7 +11377,7 @@
         <v>9</v>
       </c>
       <c r="E636" t="n">
-        <v>58.3250339560669</v>
+        <v>58.3215377625808</v>
       </c>
     </row>
     <row r="637">
@@ -11394,7 +11394,7 @@
         <v>5</v>
       </c>
       <c r="E637" t="n">
-        <v>68.7467019083961</v>
+        <v>68.5451202621516</v>
       </c>
     </row>
     <row r="638">
@@ -11411,7 +11411,7 @@
         <v>7</v>
       </c>
       <c r="E638" t="n">
-        <v>78.1016443278731</v>
+        <v>79.9470272446923</v>
       </c>
     </row>
     <row r="639">
@@ -11428,7 +11428,7 @@
         <v>8</v>
       </c>
       <c r="E639" t="n">
-        <v>71.7008835937505</v>
+        <v>66.8992466398514</v>
       </c>
     </row>
     <row r="640">
@@ -11445,7 +11445,7 @@
         <v>9</v>
       </c>
       <c r="E640" t="n">
-        <v>61.6806815202575</v>
+        <v>61.6740645036398</v>
       </c>
     </row>
     <row r="641">
@@ -11462,7 +11462,7 @@
         <v>5</v>
       </c>
       <c r="E641" t="n">
-        <v>70.4944031472937</v>
+        <v>69.5067794627278</v>
       </c>
     </row>
     <row r="642">
@@ -11479,7 +11479,7 @@
         <v>7</v>
       </c>
       <c r="E642" t="n">
-        <v>75.5334056269027</v>
+        <v>78.4136566479242</v>
       </c>
     </row>
     <row r="643">
@@ -11496,7 +11496,7 @@
         <v>8</v>
       </c>
       <c r="E643" t="n">
-        <v>71.1120781187744</v>
+        <v>66.364638662195</v>
       </c>
     </row>
     <row r="644">
@@ -11513,7 +11513,7 @@
         <v>9</v>
       </c>
       <c r="E644" t="n">
-        <v>62.0178459260772</v>
+        <v>62.0145303790723</v>
       </c>
     </row>
     <row r="645">
@@ -11530,7 +11530,7 @@
         <v>5</v>
       </c>
       <c r="E645" t="n">
-        <v>69.5544432239181</v>
+        <v>68.9309418963972</v>
       </c>
     </row>
     <row r="646">
@@ -11547,7 +11547,7 @@
         <v>7</v>
       </c>
       <c r="E646" t="n">
-        <v>74.1608469821911</v>
+        <v>73.9529614891187</v>
       </c>
     </row>
     <row r="647">
@@ -11564,7 +11564,7 @@
         <v>8</v>
       </c>
       <c r="E647" t="n">
-        <v>66.885103179828</v>
+        <v>63.4950751685964</v>
       </c>
     </row>
     <row r="648">
@@ -11581,7 +11581,7 @@
         <v>9</v>
       </c>
       <c r="E648" t="n">
-        <v>65.2470860487625</v>
+        <v>65.2396040370385</v>
       </c>
     </row>
     <row r="649">
@@ -11598,7 +11598,7 @@
         <v>5</v>
       </c>
       <c r="E649" t="n">
-        <v>68.7643454035939</v>
+        <v>67.5625468982512</v>
       </c>
     </row>
     <row r="650">
@@ -11615,7 +11615,7 @@
         <v>7</v>
       </c>
       <c r="E650" t="n">
-        <v>57.8529342676791</v>
+        <v>61.6095320541764</v>
       </c>
     </row>
     <row r="651">
@@ -11632,7 +11632,7 @@
         <v>8</v>
       </c>
       <c r="E651" t="n">
-        <v>60.4688811313889</v>
+        <v>60.7026708860959</v>
       </c>
     </row>
     <row r="652">
@@ -11649,7 +11649,7 @@
         <v>9</v>
       </c>
       <c r="E652" t="n">
-        <v>48.6644847862406</v>
+        <v>48.6411255214033</v>
       </c>
     </row>
     <row r="653">
@@ -11666,7 +11666,7 @@
         <v>5</v>
       </c>
       <c r="E653" t="n">
-        <v>55.6621000617696</v>
+        <v>56.9844428205585</v>
       </c>
     </row>
     <row r="654">
@@ -11683,7 +11683,7 @@
         <v>7</v>
       </c>
       <c r="E654" t="n">
-        <v>59.7050283283891</v>
+        <v>63.5659202930701</v>
       </c>
     </row>
     <row r="655">
@@ -11700,7 +11700,7 @@
         <v>8</v>
       </c>
       <c r="E655" t="n">
-        <v>59.8570511637224</v>
+        <v>60.9149611688226</v>
       </c>
     </row>
     <row r="656">
@@ -11717,7 +11717,7 @@
         <v>9</v>
       </c>
       <c r="E656" t="n">
-        <v>49.3168522837172</v>
+        <v>49.333255248796</v>
       </c>
     </row>
     <row r="657">
@@ -11734,7 +11734,7 @@
         <v>5</v>
       </c>
       <c r="E657" t="n">
-        <v>56.2929772586096</v>
+        <v>57.9380455702296</v>
       </c>
     </row>
     <row r="658">
@@ -11751,7 +11751,7 @@
         <v>7</v>
       </c>
       <c r="E658" t="n">
-        <v>59.0987277099664</v>
+        <v>63.6379476283506</v>
       </c>
     </row>
     <row r="659">
@@ -11768,7 +11768,7 @@
         <v>8</v>
       </c>
       <c r="E659" t="n">
-        <v>58.268127090714</v>
+        <v>59.7062987261814</v>
       </c>
     </row>
     <row r="660">
@@ -11785,7 +11785,7 @@
         <v>9</v>
       </c>
       <c r="E660" t="n">
-        <v>50.8001800483592</v>
+        <v>50.8204819320988</v>
       </c>
     </row>
     <row r="661">
@@ -11802,7 +11802,7 @@
         <v>5</v>
       </c>
       <c r="E661" t="n">
-        <v>56.0556782830132</v>
+        <v>58.0549094288769</v>
       </c>
     </row>
     <row r="662">
@@ -11819,7 +11819,7 @@
         <v>7</v>
       </c>
       <c r="E662" t="n">
-        <v>58.2111876821059</v>
+        <v>62.0706332036923</v>
       </c>
     </row>
     <row r="663">
@@ -11836,7 +11836,7 @@
         <v>8</v>
       </c>
       <c r="E663" t="n">
-        <v>57.1944613420037</v>
+        <v>58.0930273533074</v>
       </c>
     </row>
     <row r="664">
@@ -11853,7 +11853,7 @@
         <v>9</v>
       </c>
       <c r="E664" t="n">
-        <v>51.6885501408319</v>
+        <v>51.666464045092</v>
       </c>
     </row>
     <row r="665">
@@ -11870,7 +11870,7 @@
         <v>5</v>
       </c>
       <c r="E665" t="n">
-        <v>55.6980663883138</v>
+        <v>57.2767082006972</v>
       </c>
     </row>
     <row r="666">
@@ -11887,7 +11887,7 @@
         <v>7</v>
       </c>
       <c r="E666" t="n">
-        <v>59.0145691200371</v>
+        <v>64.1927861713216</v>
       </c>
     </row>
     <row r="667">
@@ -11904,7 +11904,7 @@
         <v>8</v>
       </c>
       <c r="E667" t="n">
-        <v>55.8062137103654</v>
+        <v>57.2692113004009</v>
       </c>
     </row>
     <row r="668">
@@ -11921,7 +11921,7 @@
         <v>9</v>
       </c>
       <c r="E668" t="n">
-        <v>53.5229160447081</v>
+        <v>53.5147928079788</v>
       </c>
     </row>
     <row r="669">
@@ -11938,7 +11938,7 @@
         <v>5</v>
       </c>
       <c r="E669" t="n">
-        <v>56.1145662917035</v>
+        <v>58.3255967599004</v>
       </c>
     </row>
     <row r="670">
@@ -11955,7 +11955,7 @@
         <v>7</v>
       </c>
       <c r="E670" t="n">
-        <v>61.0069188402924</v>
+        <v>58.8243429759438</v>
       </c>
     </row>
     <row r="671">
@@ -11972,7 +11972,7 @@
         <v>8</v>
       </c>
       <c r="E671" t="n">
-        <v>49.5207630259162</v>
+        <v>55.7252357243572</v>
       </c>
     </row>
     <row r="672">
@@ -11989,7 +11989,7 @@
         <v>9</v>
       </c>
       <c r="E672" t="n">
-        <v>58.0687120503279</v>
+        <v>58.0634748027797</v>
       </c>
     </row>
     <row r="673">
@@ -12006,7 +12006,7 @@
         <v>5</v>
       </c>
       <c r="E673" t="n">
-        <v>56.1987979721788</v>
+        <v>57.5376845010269</v>
       </c>
     </row>
     <row r="674">
@@ -12023,7 +12023,7 @@
         <v>7</v>
       </c>
       <c r="E674" t="n">
-        <v>71.7094550026163</v>
+        <v>75.1058280653544</v>
       </c>
     </row>
     <row r="675">
@@ -12040,7 +12040,7 @@
         <v>8</v>
       </c>
       <c r="E675" t="n">
-        <v>65.5109532932623</v>
+        <v>64.8650946247095</v>
       </c>
     </row>
     <row r="676">
@@ -12057,7 +12057,7 @@
         <v>9</v>
       </c>
       <c r="E676" t="n">
-        <v>53.2447327202577</v>
+        <v>53.1888513458236</v>
       </c>
     </row>
     <row r="677">
@@ -12074,7 +12074,7 @@
         <v>5</v>
       </c>
       <c r="E677" t="n">
-        <v>63.4883803387121</v>
+        <v>64.3865913452958</v>
       </c>
     </row>
     <row r="678">
@@ -12091,7 +12091,7 @@
         <v>7</v>
       </c>
       <c r="E678" t="n">
-        <v>73.3743698243698</v>
+        <v>76.1998415130562</v>
       </c>
     </row>
     <row r="679">
@@ -12108,7 +12108,7 @@
         <v>8</v>
       </c>
       <c r="E679" t="n">
-        <v>65.9392257515712</v>
+        <v>65.0683905201532</v>
       </c>
     </row>
     <row r="680">
@@ -12125,7 +12125,7 @@
         <v>9</v>
       </c>
       <c r="E680" t="n">
-        <v>52.8658718193249</v>
+        <v>52.6775538817715</v>
       </c>
     </row>
     <row r="681">
@@ -12142,7 +12142,7 @@
         <v>5</v>
       </c>
       <c r="E681" t="n">
-        <v>64.0598224650886</v>
+        <v>64.6485953049936</v>
       </c>
     </row>
     <row r="682">
@@ -12159,7 +12159,7 @@
         <v>7</v>
       </c>
       <c r="E682" t="n">
-        <v>73.3784056301213</v>
+        <v>76.0958231461031</v>
       </c>
     </row>
     <row r="683">
@@ -12176,7 +12176,7 @@
         <v>8</v>
       </c>
       <c r="E683" t="n">
-        <v>65.0335960818995</v>
+        <v>64.0088499759318</v>
       </c>
     </row>
     <row r="684">
@@ -12193,7 +12193,7 @@
         <v>9</v>
       </c>
       <c r="E684" t="n">
-        <v>53.8806925271174</v>
+        <v>53.7176313929052</v>
       </c>
     </row>
     <row r="685">
@@ -12210,7 +12210,7 @@
         <v>5</v>
       </c>
       <c r="E685" t="n">
-        <v>64.0975647463794</v>
+        <v>64.6074348383133</v>
       </c>
     </row>
     <row r="686">
@@ -12227,7 +12227,7 @@
         <v>7</v>
       </c>
       <c r="E686" t="n">
-        <v>75.1105555527156</v>
+        <v>77.3392436823862</v>
       </c>
     </row>
     <row r="687">
@@ -12244,7 +12244,7 @@
         <v>8</v>
       </c>
       <c r="E687" t="n">
-        <v>66.3702462653976</v>
+        <v>64.6246991511461</v>
       </c>
     </row>
     <row r="688">
@@ -12261,7 +12261,7 @@
         <v>9</v>
       </c>
       <c r="E688" t="n">
-        <v>60.0316798400448</v>
+        <v>60.0097166914554</v>
       </c>
     </row>
     <row r="689">
@@ -12278,7 +12278,7 @@
         <v>5</v>
       </c>
       <c r="E689" t="n">
-        <v>67.170827219386</v>
+        <v>67.3245531749959</v>
       </c>
     </row>
     <row r="690">
@@ -12295,7 +12295,7 @@
         <v>7</v>
       </c>
       <c r="E690" t="n">
-        <v>75.5846833617593</v>
+        <v>78.6690191891537</v>
       </c>
     </row>
     <row r="691">
@@ -12312,7 +12312,7 @@
         <v>8</v>
       </c>
       <c r="E691" t="n">
-        <v>66.3904071148299</v>
+        <v>64.3880117627706</v>
       </c>
     </row>
     <row r="692">
@@ -12329,7 +12329,7 @@
         <v>9</v>
       </c>
       <c r="E692" t="n">
-        <v>61.3161863797394</v>
+        <v>61.3135193158583</v>
       </c>
     </row>
     <row r="693">
@@ -12346,7 +12346,7 @@
         <v>5</v>
       </c>
       <c r="E693" t="n">
-        <v>67.7637589521095</v>
+        <v>68.1235167559275</v>
       </c>
     </row>
     <row r="694">
@@ -12363,7 +12363,7 @@
         <v>7</v>
       </c>
       <c r="E694" t="n">
-        <v>76.7768062225978</v>
+        <v>76.0624241724209</v>
       </c>
     </row>
     <row r="695">
@@ -12380,7 +12380,7 @@
         <v>8</v>
       </c>
       <c r="E695" t="n">
-        <v>62.0417278781014</v>
+        <v>62.837729982291</v>
       </c>
     </row>
     <row r="696">
@@ -12397,7 +12397,7 @@
         <v>9</v>
       </c>
       <c r="E696" t="n">
-        <v>65.0571744782767</v>
+        <v>65.0564850997182</v>
       </c>
     </row>
     <row r="697">
@@ -12414,7 +12414,7 @@
         <v>5</v>
       </c>
       <c r="E697" t="n">
-        <v>67.9585695263253</v>
+        <v>67.9855464181434</v>
       </c>
     </row>
     <row r="698">
@@ -12431,7 +12431,7 @@
         <v>7</v>
       </c>
       <c r="E698" t="n">
-        <v>69.9570613066752</v>
+        <v>73.438319833251</v>
       </c>
     </row>
     <row r="699">
@@ -12448,7 +12448,7 @@
         <v>8</v>
       </c>
       <c r="E699" t="n">
-        <v>63.912157408661</v>
+        <v>64.4976991599361</v>
       </c>
     </row>
     <row r="700">
@@ -12465,7 +12465,7 @@
         <v>9</v>
       </c>
       <c r="E700" t="n">
-        <v>49.6771951652603</v>
+        <v>49.6731231134015</v>
       </c>
     </row>
     <row r="701">
@@ -12482,7 +12482,7 @@
         <v>5</v>
       </c>
       <c r="E701" t="n">
-        <v>61.1821379601988</v>
+        <v>62.5363807021962</v>
       </c>
     </row>
     <row r="702">
@@ -12499,7 +12499,7 @@
         <v>7</v>
       </c>
       <c r="E702" t="n">
-        <v>67.7008881090472</v>
+        <v>72.6203467092633</v>
       </c>
     </row>
     <row r="703">
@@ -12516,7 +12516,7 @@
         <v>8</v>
       </c>
       <c r="E703" t="n">
-        <v>63.0859024341338</v>
+        <v>64.5498353501514</v>
       </c>
     </row>
     <row r="704">
@@ -12533,7 +12533,7 @@
         <v>9</v>
       </c>
       <c r="E704" t="n">
-        <v>48.8597234071822</v>
+        <v>48.8459330536072</v>
       </c>
     </row>
     <row r="705">
@@ -12550,7 +12550,7 @@
         <v>5</v>
       </c>
       <c r="E705" t="n">
-        <v>59.8821713167878</v>
+        <v>62.0053717043406</v>
       </c>
     </row>
     <row r="706">
@@ -12567,7 +12567,7 @@
         <v>7</v>
       </c>
       <c r="E706" t="n">
-        <v>67.7945294553211</v>
+        <v>72.1331972533865</v>
       </c>
     </row>
     <row r="707">
@@ -12584,7 +12584,7 @@
         <v>8</v>
       </c>
       <c r="E707" t="n">
-        <v>61.2407113540445</v>
+        <v>62.652774844922</v>
       </c>
     </row>
     <row r="708">
@@ -12601,7 +12601,7 @@
         <v>9</v>
       </c>
       <c r="E708" t="n">
-        <v>51.2967127179503</v>
+        <v>51.2837686527786</v>
       </c>
     </row>
     <row r="709">
@@ -12618,7 +12618,7 @@
         <v>5</v>
       </c>
       <c r="E709" t="n">
-        <v>60.110651175772</v>
+        <v>62.023246917029</v>
       </c>
     </row>
     <row r="710">
@@ -12635,7 +12635,7 @@
         <v>7</v>
       </c>
       <c r="E710" t="n">
-        <v>68.0190260399621</v>
+        <v>71.7221140229856</v>
       </c>
     </row>
     <row r="711">
@@ -12652,7 +12652,7 @@
         <v>8</v>
       </c>
       <c r="E711" t="n">
-        <v>63.0866229669517</v>
+        <v>64.246561446813</v>
       </c>
     </row>
     <row r="712">
@@ -12669,7 +12669,7 @@
         <v>9</v>
       </c>
       <c r="E712" t="n">
-        <v>54.4482063264312</v>
+        <v>54.4402019381286</v>
       </c>
     </row>
     <row r="713">
@@ -12686,7 +12686,7 @@
         <v>5</v>
       </c>
       <c r="E713" t="n">
-        <v>61.851285111115</v>
+        <v>63.4696258026424</v>
       </c>
     </row>
     <row r="714">
@@ -12703,7 +12703,7 @@
         <v>7</v>
       </c>
       <c r="E714" t="n">
-        <v>67.1332497611052</v>
+        <v>70.8975701813931</v>
       </c>
     </row>
     <row r="715">
@@ -12720,7 +12720,7 @@
         <v>8</v>
       </c>
       <c r="E715" t="n">
-        <v>63.8507154548335</v>
+        <v>64.5678986212734</v>
       </c>
     </row>
     <row r="716">
@@ -12737,7 +12737,7 @@
         <v>9</v>
       </c>
       <c r="E716" t="n">
-        <v>54.9199167450191</v>
+        <v>54.9092150186399</v>
       </c>
     </row>
     <row r="717">
@@ -12754,7 +12754,7 @@
         <v>5</v>
       </c>
       <c r="E717" t="n">
-        <v>61.9679606536526</v>
+        <v>63.4582279404354</v>
       </c>
     </row>
     <row r="718">
@@ -12771,7 +12771,7 @@
         <v>7</v>
       </c>
       <c r="E718" t="n">
-        <v>65.7870660823131</v>
+        <v>68.2762240455581</v>
       </c>
     </row>
     <row r="719">
@@ -12788,7 +12788,7 @@
         <v>8</v>
       </c>
       <c r="E719" t="n">
-        <v>55.8353930766296</v>
+        <v>61.1421341959342</v>
       </c>
     </row>
     <row r="720">
@@ -12805,7 +12805,7 @@
         <v>9</v>
       </c>
       <c r="E720" t="n">
-        <v>57.3876787207596</v>
+        <v>57.3810565380154</v>
       </c>
     </row>
     <row r="721">
@@ -12822,7 +12822,7 @@
         <v>5</v>
       </c>
       <c r="E721" t="n">
-        <v>59.6700459599008</v>
+        <v>62.2664715931692</v>
       </c>
     </row>
     <row r="722">
@@ -12839,7 +12839,7 @@
         <v>7</v>
       </c>
       <c r="E722" t="n">
-        <v>64.5613708634063</v>
+        <v>68.0581852280322</v>
       </c>
     </row>
     <row r="723">
@@ -12856,7 +12856,7 @@
         <v>8</v>
       </c>
       <c r="E723" t="n">
-        <v>57.8666443409444</v>
+        <v>58.2847511235952</v>
       </c>
     </row>
     <row r="724">
@@ -12873,7 +12873,7 @@
         <v>9</v>
       </c>
       <c r="E724" t="n">
-        <v>44.8838127303717</v>
+        <v>44.8618436481326</v>
       </c>
     </row>
     <row r="725">
@@ -12890,7 +12890,7 @@
         <v>5</v>
       </c>
       <c r="E725" t="n">
-        <v>55.7706093115741</v>
+        <v>57.06825999992</v>
       </c>
     </row>
     <row r="726">
@@ -12907,7 +12907,7 @@
         <v>7</v>
       </c>
       <c r="E726" t="n">
-        <v>63.852308735987</v>
+        <v>66.8253251176235</v>
       </c>
     </row>
     <row r="727">
@@ -12924,7 +12924,7 @@
         <v>8</v>
       </c>
       <c r="E727" t="n">
-        <v>53.534336760234</v>
+        <v>54.2756242197893</v>
       </c>
     </row>
     <row r="728">
@@ -12941,7 +12941,7 @@
         <v>9</v>
       </c>
       <c r="E728" t="n">
-        <v>45.2745955999113</v>
+        <v>44.8914790733769</v>
       </c>
     </row>
     <row r="729">
@@ -12958,7 +12958,7 @@
         <v>5</v>
       </c>
       <c r="E729" t="n">
-        <v>54.2204136987108</v>
+        <v>55.3308094702633</v>
       </c>
     </row>
     <row r="730">
@@ -12975,7 +12975,7 @@
         <v>7</v>
       </c>
       <c r="E730" t="n">
-        <v>63.8582931745229</v>
+        <v>66.4186967427375</v>
       </c>
     </row>
     <row r="731">
@@ -12992,7 +12992,7 @@
         <v>8</v>
       </c>
       <c r="E731" t="n">
-        <v>55.162138422948</v>
+        <v>55.4525413610931</v>
       </c>
     </row>
     <row r="732">
@@ -13009,7 +13009,7 @@
         <v>9</v>
       </c>
       <c r="E732" t="n">
-        <v>46.2912008865012</v>
+        <v>45.92582907588</v>
       </c>
     </row>
     <row r="733">
@@ -13026,7 +13026,7 @@
         <v>5</v>
       </c>
       <c r="E733" t="n">
-        <v>55.1038774946574</v>
+        <v>55.9323557265702</v>
       </c>
     </row>
     <row r="734">
@@ -13043,7 +13043,7 @@
         <v>7</v>
       </c>
       <c r="E734" t="n">
-        <v>64.6877028859928</v>
+        <v>67.1679598899114</v>
       </c>
     </row>
     <row r="735">
@@ -13060,7 +13060,7 @@
         <v>8</v>
       </c>
       <c r="E735" t="n">
-        <v>54.8160195300732</v>
+        <v>54.7473895941907</v>
       </c>
     </row>
     <row r="736">
@@ -13077,7 +13077,7 @@
         <v>9</v>
       </c>
       <c r="E736" t="n">
-        <v>49.9544997923579</v>
+        <v>49.9549921022816</v>
       </c>
     </row>
     <row r="737">
@@ -13094,7 +13094,7 @@
         <v>5</v>
       </c>
       <c r="E737" t="n">
-        <v>56.4860740694746</v>
+        <v>57.2901138621279</v>
       </c>
     </row>
     <row r="738">
@@ -13111,7 +13111,7 @@
         <v>7</v>
       </c>
       <c r="E738" t="n">
-        <v>62.5631763822673</v>
+        <v>66.0592739974228</v>
       </c>
     </row>
     <row r="739">
@@ -13128,7 +13128,7 @@
         <v>8</v>
       </c>
       <c r="E739" t="n">
-        <v>53.3088179125952</v>
+        <v>53.3155034598379</v>
       </c>
     </row>
     <row r="740">
@@ -13145,7 +13145,7 @@
         <v>9</v>
       </c>
       <c r="E740" t="n">
-        <v>49.5971183731175</v>
+        <v>49.600568464107</v>
       </c>
     </row>
     <row r="741">
@@ -13162,7 +13162,7 @@
         <v>5</v>
       </c>
       <c r="E741" t="n">
-        <v>55.1563708893266</v>
+        <v>56.3251153071226</v>
       </c>
     </row>
     <row r="742">
@@ -13179,7 +13179,7 @@
         <v>7</v>
       </c>
       <c r="E742" t="n">
-        <v>64.3618059441544</v>
+        <v>66.2061982073142</v>
       </c>
     </row>
     <row r="743">
@@ -13196,7 +13196,7 @@
         <v>8</v>
       </c>
       <c r="E743" t="n">
-        <v>45.948756010808</v>
+        <v>49.4201822715759</v>
       </c>
     </row>
     <row r="744">
@@ -13213,7 +13213,7 @@
         <v>9</v>
       </c>
       <c r="E744" t="n">
-        <v>53.202967123062</v>
+        <v>53.2087181075522</v>
       </c>
     </row>
     <row r="745">
@@ -13230,7 +13230,7 @@
         <v>5</v>
       </c>
       <c r="E745" t="n">
-        <v>54.5045096926748</v>
+        <v>56.2783661954808</v>
       </c>
     </row>
     <row r="746">
@@ -13247,7 +13247,7 @@
         <v>7</v>
       </c>
       <c r="E746" t="n">
-        <v>77.1898138511143</v>
+        <v>79.4910380081265</v>
       </c>
     </row>
     <row r="747">
@@ -13264,7 +13264,7 @@
         <v>8</v>
       </c>
       <c r="E747" t="n">
-        <v>65.1194461168999</v>
+        <v>62.0729579581308</v>
       </c>
     </row>
     <row r="748">
@@ -13281,7 +13281,7 @@
         <v>9</v>
       </c>
       <c r="E748" t="n">
-        <v>54.0924043754537</v>
+        <v>54.0606092302086</v>
       </c>
     </row>
     <row r="749">
@@ -13298,7 +13298,7 @@
         <v>5</v>
       </c>
       <c r="E749" t="n">
-        <v>65.4672214478226</v>
+        <v>65.2082017321553</v>
       </c>
     </row>
     <row r="750">
@@ -13315,7 +13315,7 @@
         <v>7</v>
       </c>
       <c r="E750" t="n">
-        <v>76.8610883596996</v>
+        <v>81.0247422811655</v>
       </c>
     </row>
     <row r="751">
@@ -13332,7 +13332,7 @@
         <v>8</v>
       </c>
       <c r="E751" t="n">
-        <v>65.7870320345675</v>
+        <v>62.7423546694853</v>
       </c>
     </row>
     <row r="752">
@@ -13349,7 +13349,7 @@
         <v>9</v>
       </c>
       <c r="E752" t="n">
-        <v>55.1443441989295</v>
+        <v>55.1011587163055</v>
       </c>
     </row>
     <row r="753">
@@ -13366,7 +13366,7 @@
         <v>5</v>
       </c>
       <c r="E753" t="n">
-        <v>65.9308215310655</v>
+        <v>66.2894185556521</v>
       </c>
     </row>
     <row r="754">
@@ -13383,7 +13383,7 @@
         <v>7</v>
       </c>
       <c r="E754" t="n">
-        <v>80.7391653908956</v>
+        <v>82.3843991919524</v>
       </c>
     </row>
     <row r="755">
@@ -13400,7 +13400,7 @@
         <v>8</v>
       </c>
       <c r="E755" t="n">
-        <v>65.9261968153551</v>
+        <v>63.3915464877425</v>
       </c>
     </row>
     <row r="756">
@@ -13417,7 +13417,7 @@
         <v>9</v>
       </c>
       <c r="E756" t="n">
-        <v>57.160603148109</v>
+        <v>57.1315269221075</v>
       </c>
     </row>
     <row r="757">
@@ -13434,7 +13434,7 @@
         <v>5</v>
       </c>
       <c r="E757" t="n">
-        <v>67.9419884514532</v>
+        <v>67.6358242006008</v>
       </c>
     </row>
     <row r="758">
@@ -13451,7 +13451,7 @@
         <v>7</v>
       </c>
       <c r="E758" t="n">
-        <v>76.4906121816886</v>
+        <v>80.2772361370062</v>
       </c>
     </row>
     <row r="759">
@@ -13468,7 +13468,7 @@
         <v>8</v>
       </c>
       <c r="E759" t="n">
-        <v>66.7166572071335</v>
+        <v>63.1651577445701</v>
       </c>
     </row>
     <row r="760">
@@ -13485,7 +13485,7 @@
         <v>9</v>
       </c>
       <c r="E760" t="n">
-        <v>59.5298397076857</v>
+        <v>59.5028359628153</v>
       </c>
     </row>
     <row r="761">
@@ -13502,7 +13502,7 @@
         <v>5</v>
       </c>
       <c r="E761" t="n">
-        <v>67.5790363655026</v>
+        <v>67.6484099481305</v>
       </c>
     </row>
     <row r="762">
@@ -13519,7 +13519,7 @@
         <v>7</v>
       </c>
       <c r="E762" t="n">
-        <v>79.6583411017544</v>
+        <v>82.0895339212521</v>
       </c>
     </row>
     <row r="763">
@@ -13536,7 +13536,7 @@
         <v>8</v>
       </c>
       <c r="E763" t="n">
-        <v>66.2655542344348</v>
+        <v>62.9850782372214</v>
       </c>
     </row>
     <row r="764">
@@ -13553,7 +13553,7 @@
         <v>9</v>
       </c>
       <c r="E764" t="n">
-        <v>60.8995886813349</v>
+        <v>60.8801278080853</v>
       </c>
     </row>
     <row r="765">
@@ -13570,7 +13570,7 @@
         <v>5</v>
       </c>
       <c r="E765" t="n">
-        <v>68.9411613391747</v>
+        <v>68.6515799888529</v>
       </c>
     </row>
     <row r="766">
@@ -13587,7 +13587,7 @@
         <v>7</v>
       </c>
       <c r="E766" t="n">
-        <v>81.3014776105106</v>
+        <v>80.2827465251425</v>
       </c>
     </row>
     <row r="767">
@@ -13604,7 +13604,7 @@
         <v>8</v>
       </c>
       <c r="E767" t="n">
-        <v>64.3355062552222</v>
+        <v>61.2509217977436</v>
       </c>
     </row>
     <row r="768">
@@ -13621,7 +13621,7 @@
         <v>9</v>
       </c>
       <c r="E768" t="n">
-        <v>63.6053049078397</v>
+        <v>63.5844518895881</v>
       </c>
     </row>
     <row r="769">
@@ -13638,7 +13638,7 @@
         <v>5</v>
       </c>
       <c r="E769" t="n">
-        <v>69.7474295911908</v>
+        <v>68.3727067374914</v>
       </c>
     </row>
     <row r="770">
@@ -13655,7 +13655,7 @@
         <v>7</v>
       </c>
       <c r="E770" t="n">
-        <v>61.263087155272</v>
+        <v>67.8763336564985</v>
       </c>
     </row>
     <row r="771">
@@ -13672,7 +13672,7 @@
         <v>8</v>
       </c>
       <c r="E771" t="n">
-        <v>62.2409047120218</v>
+        <v>60.3355652223783</v>
       </c>
     </row>
     <row r="772">
@@ -13689,7 +13689,7 @@
         <v>9</v>
       </c>
       <c r="E772" t="n">
-        <v>48.1136616640329</v>
+        <v>48.096323786919</v>
       </c>
     </row>
     <row r="773">
@@ -13706,7 +13706,7 @@
         <v>5</v>
       </c>
       <c r="E773" t="n">
-        <v>57.2058845104422</v>
+        <v>58.7694075552652</v>
       </c>
     </row>
     <row r="774">
@@ -13723,7 +13723,7 @@
         <v>7</v>
       </c>
       <c r="E774" t="n">
-        <v>61.8898781279654</v>
+        <v>67.4805488569595</v>
       </c>
     </row>
     <row r="775">
@@ -13740,7 +13740,7 @@
         <v>8</v>
       </c>
       <c r="E775" t="n">
-        <v>61.4947741410894</v>
+        <v>60.3231479984247</v>
       </c>
     </row>
     <row r="776">
@@ -13757,7 +13757,7 @@
         <v>9</v>
       </c>
       <c r="E776" t="n">
-        <v>51.0472333356257</v>
+        <v>50.8745864513793</v>
       </c>
     </row>
     <row r="777">
@@ -13774,7 +13774,7 @@
         <v>5</v>
       </c>
       <c r="E777" t="n">
-        <v>58.1439618682268</v>
+        <v>59.5594277689212</v>
       </c>
     </row>
     <row r="778">
@@ -13791,7 +13791,7 @@
         <v>7</v>
       </c>
       <c r="E778" t="n">
-        <v>59.2468996948346</v>
+        <v>66.0167094740259</v>
       </c>
     </row>
     <row r="779">
@@ -13808,7 +13808,7 @@
         <v>8</v>
       </c>
       <c r="E779" t="n">
-        <v>61.6153457155947</v>
+        <v>60.1604364605042</v>
       </c>
     </row>
     <row r="780">
@@ -13825,7 +13825,7 @@
         <v>9</v>
       </c>
       <c r="E780" t="n">
-        <v>50.6827080044105</v>
+        <v>50.5324505258092</v>
       </c>
     </row>
     <row r="781">
@@ -13842,7 +13842,7 @@
         <v>5</v>
       </c>
       <c r="E781" t="n">
-        <v>57.18165113828</v>
+        <v>58.9031988201131</v>
       </c>
     </row>
     <row r="782">
@@ -13859,7 +13859,7 @@
         <v>7</v>
       </c>
       <c r="E782" t="n">
-        <v>57.6041831204555</v>
+        <v>64.8811345293426</v>
       </c>
     </row>
     <row r="783">
@@ -13876,7 +13876,7 @@
         <v>8</v>
       </c>
       <c r="E783" t="n">
-        <v>63.4478523777782</v>
+        <v>61.4311158457411</v>
       </c>
     </row>
     <row r="784">
@@ -13893,7 +13893,7 @@
         <v>9</v>
       </c>
       <c r="E784" t="n">
-        <v>56.661545156064</v>
+        <v>56.6556787257255</v>
       </c>
     </row>
     <row r="785">
@@ -13910,7 +13910,7 @@
         <v>5</v>
       </c>
       <c r="E785" t="n">
-        <v>59.2378602180992</v>
+        <v>60.9893097002697</v>
       </c>
     </row>
     <row r="786">
@@ -13927,7 +13927,7 @@
         <v>7</v>
       </c>
       <c r="E786" t="n">
-        <v>61.1191886608307</v>
+        <v>63.9832385445866</v>
       </c>
     </row>
     <row r="787">
@@ -13944,7 +13944,7 @@
         <v>8</v>
       </c>
       <c r="E787" t="n">
-        <v>64.0274175262908</v>
+        <v>61.6083168739892</v>
       </c>
     </row>
     <row r="788">
@@ -13961,7 +13961,7 @@
         <v>9</v>
       </c>
       <c r="E788" t="n">
-        <v>56.9358441548949</v>
+        <v>56.9333854284094</v>
       </c>
     </row>
     <row r="789">
@@ -13978,7 +13978,7 @@
         <v>5</v>
       </c>
       <c r="E789" t="n">
-        <v>60.6941501140055</v>
+        <v>60.8416469489951</v>
       </c>
     </row>
     <row r="790">
@@ -13995,7 +13995,7 @@
         <v>7</v>
       </c>
       <c r="E790" t="n">
-        <v>57.8084891628842</v>
+        <v>57.5911032330672</v>
       </c>
     </row>
     <row r="791">
@@ -14012,7 +14012,7 @@
         <v>8</v>
       </c>
       <c r="E791" t="n">
-        <v>60.8401446242885</v>
+        <v>60.32188417839</v>
       </c>
     </row>
     <row r="792">
@@ -14029,7 +14029,7 @@
         <v>9</v>
       </c>
       <c r="E792" t="n">
-        <v>58.2809601268235</v>
+        <v>58.2838692903471</v>
       </c>
     </row>
     <row r="793">
@@ -14046,7 +14046,7 @@
         <v>5</v>
       </c>
       <c r="E793" t="n">
-        <v>58.9765313046654</v>
+        <v>58.7322855672681</v>
       </c>
     </row>
     <row r="794">
@@ -14076,7 +14076,7 @@
         <v>8</v>
       </c>
       <c r="E795" t="n">
-        <v>100</v>
+        <v>99.4076838176807</v>
       </c>
     </row>
     <row r="796">
@@ -14106,7 +14106,7 @@
         <v>5</v>
       </c>
       <c r="E797" t="n">
-        <v>100</v>
+        <v>99.8025612725602</v>
       </c>
     </row>
     <row r="798">
